--- a/ImportDeals.xlsx
+++ b/ImportDeals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="8205"/>
+    <workbookView windowWidth="20130" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4632,10 +4632,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB741"/>
+  <dimension ref="A1:AC741"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" topLeftCell="S704" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AB741"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" topLeftCell="O711" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:AC741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4650,9 +4650,10 @@
     <col min="15" max="15" width="18.5714285714286" customWidth="1"/>
     <col min="16" max="16" width="12.7142857142857" customWidth="1"/>
     <col min="17" max="17" width="23.5714285714286" customWidth="1"/>
+    <col min="27" max="27" width="10.2857142857143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4737,8 +4738,9 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -4805,8 +4807,9 @@
         <v>35</v>
       </c>
       <c r="AB2" s="2"/>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -4873,8 +4876,9 @@
         <v>35</v>
       </c>
       <c r="AB3" s="2"/>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -4941,8 +4945,9 @@
         <v>45</v>
       </c>
       <c r="AB4" s="2"/>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -5009,8 +5014,9 @@
         <v>45</v>
       </c>
       <c r="AB5" s="2"/>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -5077,8 +5083,9 @@
         <v>45</v>
       </c>
       <c r="AB6" s="2"/>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -5145,8 +5152,9 @@
         <v>45</v>
       </c>
       <c r="AB7" s="2"/>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -5213,8 +5221,9 @@
         <v>52</v>
       </c>
       <c r="AB8" s="2"/>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -5281,8 +5290,9 @@
         <v>52</v>
       </c>
       <c r="AB9" s="2"/>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -5349,8 +5359,9 @@
         <v>57</v>
       </c>
       <c r="AB10" s="2"/>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" s="2"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -5417,8 +5428,9 @@
         <v>57</v>
       </c>
       <c r="AB11" s="2"/>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" s="2"/>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -5485,8 +5497,9 @@
         <v>61</v>
       </c>
       <c r="AB12" s="2"/>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" s="2"/>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -5553,8 +5566,9 @@
         <v>61</v>
       </c>
       <c r="AB13" s="2"/>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" s="2"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -5621,8 +5635,9 @@
         <v>65</v>
       </c>
       <c r="AB14" s="2"/>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" s="2"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -5689,8 +5704,9 @@
         <v>65</v>
       </c>
       <c r="AB15" s="2"/>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" s="2"/>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -5757,8 +5773,9 @@
         <v>70</v>
       </c>
       <c r="AB16" s="2"/>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" s="2"/>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -5825,8 +5842,9 @@
         <v>70</v>
       </c>
       <c r="AB17" s="2"/>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" s="2"/>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -5893,8 +5911,9 @@
         <v>75</v>
       </c>
       <c r="AB18" s="2"/>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" s="2"/>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -5961,8 +5980,9 @@
         <v>75</v>
       </c>
       <c r="AB19" s="2"/>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19" s="2"/>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -6029,8 +6049,9 @@
         <v>79</v>
       </c>
       <c r="AB20" s="2"/>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" s="2"/>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -6097,8 +6118,9 @@
         <v>79</v>
       </c>
       <c r="AB21" s="2"/>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" s="2"/>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -6165,8 +6187,9 @@
         <v>83</v>
       </c>
       <c r="AB22" s="2"/>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22" s="2"/>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -6233,8 +6256,9 @@
         <v>83</v>
       </c>
       <c r="AB23" s="2"/>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23" s="2"/>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -6301,8 +6325,9 @@
         <v>87</v>
       </c>
       <c r="AB24" s="2"/>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24" s="2"/>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -6369,8 +6394,9 @@
         <v>87</v>
       </c>
       <c r="AB25" s="2"/>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25" s="2"/>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -6437,8 +6463,9 @@
         <v>92</v>
       </c>
       <c r="AB26" s="2"/>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26" s="2"/>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -6505,8 +6532,9 @@
         <v>92</v>
       </c>
       <c r="AB27" s="2"/>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27" s="2"/>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -6573,8 +6601,9 @@
         <v>96</v>
       </c>
       <c r="AB28" s="2"/>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28" s="2"/>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -6641,8 +6670,9 @@
         <v>96</v>
       </c>
       <c r="AB29" s="2"/>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29" s="2"/>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -6709,8 +6739,9 @@
         <v>101</v>
       </c>
       <c r="AB30" s="2"/>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AC30" s="2"/>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -6777,8 +6808,9 @@
         <v>101</v>
       </c>
       <c r="AB31" s="2"/>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AC31" s="2"/>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -6845,8 +6877,9 @@
         <v>106</v>
       </c>
       <c r="AB32" s="2"/>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32" s="2"/>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
@@ -6913,8 +6946,9 @@
         <v>106</v>
       </c>
       <c r="AB33" s="2"/>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33" s="2"/>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -6981,8 +7015,9 @@
         <v>110</v>
       </c>
       <c r="AB34" s="2"/>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AC34" s="2"/>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -7049,8 +7084,9 @@
         <v>110</v>
       </c>
       <c r="AB35" s="2"/>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AC35" s="2"/>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
@@ -7117,8 +7153,9 @@
         <v>114</v>
       </c>
       <c r="AB36" s="2"/>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AC36" s="2"/>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -7185,8 +7222,9 @@
         <v>114</v>
       </c>
       <c r="AB37" s="2"/>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37" s="2"/>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
@@ -7253,8 +7291,9 @@
         <v>118</v>
       </c>
       <c r="AB38" s="2"/>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38" s="2"/>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -7321,8 +7360,9 @@
         <v>118</v>
       </c>
       <c r="AB39" s="2"/>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AC39" s="2"/>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" s="2" t="s">
         <v>28</v>
       </c>
@@ -7389,8 +7429,9 @@
         <v>122</v>
       </c>
       <c r="AB40" s="2"/>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40" s="2"/>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -7457,8 +7498,9 @@
         <v>122</v>
       </c>
       <c r="AB41" s="2"/>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41" s="2"/>
+    </row>
+    <row r="42" spans="1:29">
       <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
@@ -7525,8 +7567,9 @@
         <v>126</v>
       </c>
       <c r="AB42" s="2"/>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42" s="2"/>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
@@ -7593,8 +7636,9 @@
         <v>126</v>
       </c>
       <c r="AB43" s="2"/>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43" s="2"/>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
@@ -7661,8 +7705,9 @@
         <v>131</v>
       </c>
       <c r="AB44" s="2"/>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44" s="2"/>
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
@@ -7729,8 +7774,9 @@
         <v>131</v>
       </c>
       <c r="AB45" s="2"/>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45" s="2"/>
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
@@ -7797,8 +7843,9 @@
         <v>135</v>
       </c>
       <c r="AB46" s="2"/>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46" s="2"/>
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47" s="2" t="s">
         <v>39</v>
       </c>
@@ -7865,8 +7912,9 @@
         <v>135</v>
       </c>
       <c r="AB47" s="2"/>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47" s="2"/>
+    </row>
+    <row r="48" spans="1:29">
       <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
@@ -7933,8 +7981,9 @@
         <v>139</v>
       </c>
       <c r="AB48" s="2"/>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AC48" s="2"/>
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49" s="2" t="s">
         <v>39</v>
       </c>
@@ -8001,8 +8050,9 @@
         <v>139</v>
       </c>
       <c r="AB49" s="2"/>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AC49" s="2"/>
+    </row>
+    <row r="50" spans="1:29">
       <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
@@ -8069,8 +8119,9 @@
         <v>144</v>
       </c>
       <c r="AB50" s="2"/>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50" s="2"/>
+    </row>
+    <row r="51" spans="1:29">
       <c r="A51" s="2" t="s">
         <v>39</v>
       </c>
@@ -8137,8 +8188,9 @@
         <v>144</v>
       </c>
       <c r="AB51" s="2"/>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="AC51" s="2"/>
+    </row>
+    <row r="52" spans="1:29">
       <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
@@ -8205,8 +8257,9 @@
         <v>148</v>
       </c>
       <c r="AB52" s="2"/>
-    </row>
-    <row r="53" spans="1:28">
+      <c r="AC52" s="2"/>
+    </row>
+    <row r="53" spans="1:29">
       <c r="A53" s="2" t="s">
         <v>39</v>
       </c>
@@ -8273,8 +8326,9 @@
         <v>148</v>
       </c>
       <c r="AB53" s="2"/>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AC53" s="2"/>
+    </row>
+    <row r="54" spans="1:29">
       <c r="A54" s="2" t="s">
         <v>28</v>
       </c>
@@ -8341,8 +8395,9 @@
         <v>153</v>
       </c>
       <c r="AB54" s="2"/>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="AC54" s="2"/>
+    </row>
+    <row r="55" spans="1:29">
       <c r="A55" s="2" t="s">
         <v>39</v>
       </c>
@@ -8409,8 +8464,9 @@
         <v>153</v>
       </c>
       <c r="AB55" s="2"/>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="AC55" s="2"/>
+    </row>
+    <row r="56" spans="1:29">
       <c r="A56" s="2" t="s">
         <v>28</v>
       </c>
@@ -8477,8 +8533,9 @@
         <v>158</v>
       </c>
       <c r="AB56" s="2"/>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AC56" s="2"/>
+    </row>
+    <row r="57" spans="1:29">
       <c r="A57" s="2" t="s">
         <v>39</v>
       </c>
@@ -8545,8 +8602,9 @@
         <v>158</v>
       </c>
       <c r="AB57" s="2"/>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="AC57" s="2"/>
+    </row>
+    <row r="58" spans="1:29">
       <c r="A58" s="2" t="s">
         <v>28</v>
       </c>
@@ -8613,8 +8671,9 @@
         <v>163</v>
       </c>
       <c r="AB58" s="2"/>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="AC58" s="2"/>
+    </row>
+    <row r="59" spans="1:29">
       <c r="A59" s="2" t="s">
         <v>39</v>
       </c>
@@ -8681,8 +8740,9 @@
         <v>163</v>
       </c>
       <c r="AB59" s="2"/>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="AC59" s="2"/>
+    </row>
+    <row r="60" spans="1:29">
       <c r="A60" s="2" t="s">
         <v>28</v>
       </c>
@@ -8749,8 +8809,9 @@
         <v>168</v>
       </c>
       <c r="AB60" s="2"/>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="AC60" s="2"/>
+    </row>
+    <row r="61" spans="1:29">
       <c r="A61" s="2" t="s">
         <v>39</v>
       </c>
@@ -8817,8 +8878,9 @@
         <v>168</v>
       </c>
       <c r="AB61" s="2"/>
-    </row>
-    <row r="62" spans="1:28">
+      <c r="AC61" s="2"/>
+    </row>
+    <row r="62" spans="1:29">
       <c r="A62" s="2" t="s">
         <v>28</v>
       </c>
@@ -8885,8 +8947,9 @@
         <v>173</v>
       </c>
       <c r="AB62" s="2"/>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="AC62" s="2"/>
+    </row>
+    <row r="63" spans="1:29">
       <c r="A63" s="2" t="s">
         <v>39</v>
       </c>
@@ -8953,8 +9016,9 @@
         <v>173</v>
       </c>
       <c r="AB63" s="2"/>
-    </row>
-    <row r="64" spans="1:28">
+      <c r="AC63" s="2"/>
+    </row>
+    <row r="64" spans="1:29">
       <c r="A64" s="2" t="s">
         <v>28</v>
       </c>
@@ -9021,8 +9085,9 @@
         <v>178</v>
       </c>
       <c r="AB64" s="2"/>
-    </row>
-    <row r="65" spans="1:28">
+      <c r="AC64" s="2"/>
+    </row>
+    <row r="65" spans="1:29">
       <c r="A65" s="2" t="s">
         <v>39</v>
       </c>
@@ -9089,8 +9154,9 @@
         <v>178</v>
       </c>
       <c r="AB65" s="2"/>
-    </row>
-    <row r="66" spans="1:28">
+      <c r="AC65" s="2"/>
+    </row>
+    <row r="66" spans="1:29">
       <c r="A66" s="2" t="s">
         <v>28</v>
       </c>
@@ -9157,8 +9223,9 @@
         <v>183</v>
       </c>
       <c r="AB66" s="2"/>
-    </row>
-    <row r="67" spans="1:28">
+      <c r="AC66" s="2"/>
+    </row>
+    <row r="67" spans="1:29">
       <c r="A67" s="2" t="s">
         <v>39</v>
       </c>
@@ -9225,8 +9292,9 @@
         <v>183</v>
       </c>
       <c r="AB67" s="2"/>
-    </row>
-    <row r="68" spans="1:28">
+      <c r="AC67" s="2"/>
+    </row>
+    <row r="68" spans="1:29">
       <c r="A68" s="2" t="s">
         <v>28</v>
       </c>
@@ -9293,8 +9361,9 @@
         <v>188</v>
       </c>
       <c r="AB68" s="2"/>
-    </row>
-    <row r="69" spans="1:28">
+      <c r="AC68" s="2"/>
+    </row>
+    <row r="69" spans="1:29">
       <c r="A69" s="2" t="s">
         <v>39</v>
       </c>
@@ -9361,8 +9430,9 @@
         <v>188</v>
       </c>
       <c r="AB69" s="2"/>
-    </row>
-    <row r="70" spans="1:28">
+      <c r="AC69" s="2"/>
+    </row>
+    <row r="70" spans="1:29">
       <c r="A70" s="2" t="s">
         <v>28</v>
       </c>
@@ -9429,8 +9499,9 @@
         <v>193</v>
       </c>
       <c r="AB70" s="2"/>
-    </row>
-    <row r="71" spans="1:28">
+      <c r="AC70" s="2"/>
+    </row>
+    <row r="71" spans="1:29">
       <c r="A71" s="2" t="s">
         <v>39</v>
       </c>
@@ -9497,8 +9568,9 @@
         <v>193</v>
       </c>
       <c r="AB71" s="2"/>
-    </row>
-    <row r="72" spans="1:28">
+      <c r="AC71" s="2"/>
+    </row>
+    <row r="72" spans="1:29">
       <c r="A72" s="2" t="s">
         <v>28</v>
       </c>
@@ -9565,8 +9637,9 @@
         <v>198</v>
       </c>
       <c r="AB72" s="2"/>
-    </row>
-    <row r="73" spans="1:28">
+      <c r="AC72" s="2"/>
+    </row>
+    <row r="73" spans="1:29">
       <c r="A73" s="2" t="s">
         <v>39</v>
       </c>
@@ -9633,8 +9706,9 @@
         <v>198</v>
       </c>
       <c r="AB73" s="2"/>
-    </row>
-    <row r="74" spans="1:28">
+      <c r="AC73" s="2"/>
+    </row>
+    <row r="74" spans="1:29">
       <c r="A74" s="2" t="s">
         <v>28</v>
       </c>
@@ -9701,8 +9775,9 @@
         <v>203</v>
       </c>
       <c r="AB74" s="2"/>
-    </row>
-    <row r="75" spans="1:28">
+      <c r="AC74" s="2"/>
+    </row>
+    <row r="75" spans="1:29">
       <c r="A75" s="2" t="s">
         <v>39</v>
       </c>
@@ -9769,8 +9844,9 @@
         <v>203</v>
       </c>
       <c r="AB75" s="2"/>
-    </row>
-    <row r="76" spans="1:28">
+      <c r="AC75" s="2"/>
+    </row>
+    <row r="76" spans="1:29">
       <c r="A76" s="2" t="s">
         <v>28</v>
       </c>
@@ -9837,8 +9913,9 @@
         <v>208</v>
       </c>
       <c r="AB76" s="2"/>
-    </row>
-    <row r="77" spans="1:28">
+      <c r="AC76" s="2"/>
+    </row>
+    <row r="77" spans="1:29">
       <c r="A77" s="2" t="s">
         <v>39</v>
       </c>
@@ -9905,8 +9982,9 @@
         <v>208</v>
       </c>
       <c r="AB77" s="2"/>
-    </row>
-    <row r="78" spans="1:28">
+      <c r="AC77" s="2"/>
+    </row>
+    <row r="78" spans="1:29">
       <c r="A78" s="2" t="s">
         <v>28</v>
       </c>
@@ -9973,8 +10051,9 @@
         <v>213</v>
       </c>
       <c r="AB78" s="2"/>
-    </row>
-    <row r="79" spans="1:28">
+      <c r="AC78" s="2"/>
+    </row>
+    <row r="79" spans="1:29">
       <c r="A79" s="2" t="s">
         <v>39</v>
       </c>
@@ -10041,8 +10120,9 @@
         <v>213</v>
       </c>
       <c r="AB79" s="2"/>
-    </row>
-    <row r="80" spans="1:28">
+      <c r="AC79" s="2"/>
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80" s="2" t="s">
         <v>28</v>
       </c>
@@ -10109,8 +10189,9 @@
         <v>218</v>
       </c>
       <c r="AB80" s="2"/>
-    </row>
-    <row r="81" spans="1:28">
+      <c r="AC80" s="2"/>
+    </row>
+    <row r="81" spans="1:29">
       <c r="A81" s="2" t="s">
         <v>39</v>
       </c>
@@ -10177,8 +10258,9 @@
         <v>218</v>
       </c>
       <c r="AB81" s="2"/>
-    </row>
-    <row r="82" spans="1:28">
+      <c r="AC81" s="2"/>
+    </row>
+    <row r="82" spans="1:29">
       <c r="A82" s="2" t="s">
         <v>28</v>
       </c>
@@ -10245,8 +10327,9 @@
         <v>223</v>
       </c>
       <c r="AB82" s="2"/>
-    </row>
-    <row r="83" spans="1:28">
+      <c r="AC82" s="2"/>
+    </row>
+    <row r="83" spans="1:29">
       <c r="A83" s="2" t="s">
         <v>39</v>
       </c>
@@ -10313,8 +10396,9 @@
         <v>223</v>
       </c>
       <c r="AB83" s="2"/>
-    </row>
-    <row r="84" spans="1:28">
+      <c r="AC83" s="2"/>
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84" s="2" t="s">
         <v>28</v>
       </c>
@@ -10381,8 +10465,9 @@
         <v>228</v>
       </c>
       <c r="AB84" s="2"/>
-    </row>
-    <row r="85" spans="1:28">
+      <c r="AC84" s="2"/>
+    </row>
+    <row r="85" spans="1:29">
       <c r="A85" s="2" t="s">
         <v>39</v>
       </c>
@@ -10449,8 +10534,9 @@
         <v>228</v>
       </c>
       <c r="AB85" s="2"/>
-    </row>
-    <row r="86" spans="1:28">
+      <c r="AC85" s="2"/>
+    </row>
+    <row r="86" spans="1:29">
       <c r="A86" s="2" t="s">
         <v>28</v>
       </c>
@@ -10517,8 +10603,9 @@
         <v>233</v>
       </c>
       <c r="AB86" s="2"/>
-    </row>
-    <row r="87" spans="1:28">
+      <c r="AC86" s="2"/>
+    </row>
+    <row r="87" spans="1:29">
       <c r="A87" s="2" t="s">
         <v>39</v>
       </c>
@@ -10585,8 +10672,9 @@
         <v>233</v>
       </c>
       <c r="AB87" s="2"/>
-    </row>
-    <row r="88" spans="1:28">
+      <c r="AC87" s="2"/>
+    </row>
+    <row r="88" spans="1:29">
       <c r="A88" s="2" t="s">
         <v>28</v>
       </c>
@@ -10653,8 +10741,9 @@
         <v>238</v>
       </c>
       <c r="AB88" s="2"/>
-    </row>
-    <row r="89" spans="1:28">
+      <c r="AC88" s="2"/>
+    </row>
+    <row r="89" spans="1:29">
       <c r="A89" s="2" t="s">
         <v>39</v>
       </c>
@@ -10721,8 +10810,9 @@
         <v>238</v>
       </c>
       <c r="AB89" s="2"/>
-    </row>
-    <row r="90" spans="1:28">
+      <c r="AC89" s="2"/>
+    </row>
+    <row r="90" spans="1:29">
       <c r="A90" s="2" t="s">
         <v>28</v>
       </c>
@@ -10789,8 +10879,9 @@
         <v>242</v>
       </c>
       <c r="AB90" s="2"/>
-    </row>
-    <row r="91" spans="1:28">
+      <c r="AC90" s="2"/>
+    </row>
+    <row r="91" spans="1:29">
       <c r="A91" s="2" t="s">
         <v>39</v>
       </c>
@@ -10857,8 +10948,9 @@
         <v>242</v>
       </c>
       <c r="AB91" s="2"/>
-    </row>
-    <row r="92" spans="1:28">
+      <c r="AC91" s="2"/>
+    </row>
+    <row r="92" spans="1:29">
       <c r="A92" s="2" t="s">
         <v>28</v>
       </c>
@@ -10925,8 +11017,9 @@
         <v>246</v>
       </c>
       <c r="AB92" s="2"/>
-    </row>
-    <row r="93" spans="1:28">
+      <c r="AC92" s="2"/>
+    </row>
+    <row r="93" spans="1:29">
       <c r="A93" s="2" t="s">
         <v>39</v>
       </c>
@@ -10993,8 +11086,9 @@
         <v>246</v>
       </c>
       <c r="AB93" s="2"/>
-    </row>
-    <row r="94" spans="1:28">
+      <c r="AC93" s="2"/>
+    </row>
+    <row r="94" spans="1:29">
       <c r="A94" s="2" t="s">
         <v>28</v>
       </c>
@@ -11061,8 +11155,9 @@
         <v>251</v>
       </c>
       <c r="AB94" s="2"/>
-    </row>
-    <row r="95" spans="1:28">
+      <c r="AC94" s="2"/>
+    </row>
+    <row r="95" spans="1:29">
       <c r="A95" s="2" t="s">
         <v>39</v>
       </c>
@@ -11129,8 +11224,9 @@
         <v>251</v>
       </c>
       <c r="AB95" s="2"/>
-    </row>
-    <row r="96" spans="1:28">
+      <c r="AC95" s="2"/>
+    </row>
+    <row r="96" spans="1:29">
       <c r="A96" s="2" t="s">
         <v>28</v>
       </c>
@@ -11197,8 +11293,9 @@
         <v>256</v>
       </c>
       <c r="AB96" s="2"/>
-    </row>
-    <row r="97" spans="1:28">
+      <c r="AC96" s="2"/>
+    </row>
+    <row r="97" spans="1:29">
       <c r="A97" s="2" t="s">
         <v>39</v>
       </c>
@@ -11265,8 +11362,9 @@
         <v>256</v>
       </c>
       <c r="AB97" s="2"/>
-    </row>
-    <row r="98" spans="1:28">
+      <c r="AC97" s="2"/>
+    </row>
+    <row r="98" spans="1:29">
       <c r="A98" s="2" t="s">
         <v>28</v>
       </c>
@@ -11333,8 +11431,9 @@
         <v>256</v>
       </c>
       <c r="AB98" s="2"/>
-    </row>
-    <row r="99" spans="1:28">
+      <c r="AC98" s="2"/>
+    </row>
+    <row r="99" spans="1:29">
       <c r="A99" s="2" t="s">
         <v>39</v>
       </c>
@@ -11401,8 +11500,9 @@
         <v>256</v>
       </c>
       <c r="AB99" s="2"/>
-    </row>
-    <row r="100" spans="1:28">
+      <c r="AC99" s="2"/>
+    </row>
+    <row r="100" spans="1:29">
       <c r="A100" s="2" t="s">
         <v>28</v>
       </c>
@@ -11469,8 +11569,9 @@
         <v>264</v>
       </c>
       <c r="AB100" s="2"/>
-    </row>
-    <row r="101" spans="1:28">
+      <c r="AC100" s="2"/>
+    </row>
+    <row r="101" spans="1:29">
       <c r="A101" s="2" t="s">
         <v>39</v>
       </c>
@@ -11537,8 +11638,9 @@
         <v>264</v>
       </c>
       <c r="AB101" s="2"/>
-    </row>
-    <row r="102" spans="1:28">
+      <c r="AC101" s="2"/>
+    </row>
+    <row r="102" spans="1:29">
       <c r="A102" s="2" t="s">
         <v>28</v>
       </c>
@@ -11605,8 +11707,9 @@
         <v>269</v>
       </c>
       <c r="AB102" s="2"/>
-    </row>
-    <row r="103" spans="1:28">
+      <c r="AC102" s="2"/>
+    </row>
+    <row r="103" spans="1:29">
       <c r="A103" s="2" t="s">
         <v>39</v>
       </c>
@@ -11673,8 +11776,9 @@
         <v>269</v>
       </c>
       <c r="AB103" s="2"/>
-    </row>
-    <row r="104" spans="1:28">
+      <c r="AC103" s="2"/>
+    </row>
+    <row r="104" spans="1:29">
       <c r="A104" s="2" t="s">
         <v>28</v>
       </c>
@@ -11741,8 +11845,9 @@
         <v>274</v>
       </c>
       <c r="AB104" s="2"/>
-    </row>
-    <row r="105" spans="1:28">
+      <c r="AC104" s="2"/>
+    </row>
+    <row r="105" spans="1:29">
       <c r="A105" s="2" t="s">
         <v>39</v>
       </c>
@@ -11809,8 +11914,9 @@
         <v>274</v>
       </c>
       <c r="AB105" s="2"/>
-    </row>
-    <row r="106" spans="1:28">
+      <c r="AC105" s="2"/>
+    </row>
+    <row r="106" spans="1:29">
       <c r="A106" s="2" t="s">
         <v>28</v>
       </c>
@@ -11877,8 +11983,9 @@
         <v>279</v>
       </c>
       <c r="AB106" s="2"/>
-    </row>
-    <row r="107" spans="1:28">
+      <c r="AC106" s="2"/>
+    </row>
+    <row r="107" spans="1:29">
       <c r="A107" s="2" t="s">
         <v>39</v>
       </c>
@@ -11945,8 +12052,9 @@
         <v>279</v>
       </c>
       <c r="AB107" s="2"/>
-    </row>
-    <row r="108" spans="1:28">
+      <c r="AC107" s="2"/>
+    </row>
+    <row r="108" spans="1:29">
       <c r="A108" s="2" t="s">
         <v>28</v>
       </c>
@@ -12013,8 +12121,9 @@
         <v>279</v>
       </c>
       <c r="AB108" s="2"/>
-    </row>
-    <row r="109" spans="1:28">
+      <c r="AC108" s="2"/>
+    </row>
+    <row r="109" spans="1:29">
       <c r="A109" s="2" t="s">
         <v>39</v>
       </c>
@@ -12081,8 +12190,9 @@
         <v>279</v>
       </c>
       <c r="AB109" s="2"/>
-    </row>
-    <row r="110" spans="1:28">
+      <c r="AC109" s="2"/>
+    </row>
+    <row r="110" spans="1:29">
       <c r="A110" s="2" t="s">
         <v>28</v>
       </c>
@@ -12149,8 +12259,9 @@
         <v>287</v>
       </c>
       <c r="AB110" s="2"/>
-    </row>
-    <row r="111" spans="1:28">
+      <c r="AC110" s="2"/>
+    </row>
+    <row r="111" spans="1:29">
       <c r="A111" s="2" t="s">
         <v>39</v>
       </c>
@@ -12217,8 +12328,9 @@
         <v>287</v>
       </c>
       <c r="AB111" s="2"/>
-    </row>
-    <row r="112" spans="1:28">
+      <c r="AC111" s="2"/>
+    </row>
+    <row r="112" spans="1:29">
       <c r="A112" s="2" t="s">
         <v>28</v>
       </c>
@@ -12285,8 +12397,9 @@
         <v>292</v>
       </c>
       <c r="AB112" s="2"/>
-    </row>
-    <row r="113" spans="1:28">
+      <c r="AC112" s="2"/>
+    </row>
+    <row r="113" spans="1:29">
       <c r="A113" s="2" t="s">
         <v>39</v>
       </c>
@@ -12353,8 +12466,9 @@
         <v>292</v>
       </c>
       <c r="AB113" s="2"/>
-    </row>
-    <row r="114" spans="1:28">
+      <c r="AC113" s="2"/>
+    </row>
+    <row r="114" spans="1:29">
       <c r="A114" s="2" t="s">
         <v>28</v>
       </c>
@@ -12421,8 +12535,9 @@
         <v>297</v>
       </c>
       <c r="AB114" s="2"/>
-    </row>
-    <row r="115" spans="1:28">
+      <c r="AC114" s="2"/>
+    </row>
+    <row r="115" spans="1:29">
       <c r="A115" s="2" t="s">
         <v>39</v>
       </c>
@@ -12489,8 +12604,9 @@
         <v>297</v>
       </c>
       <c r="AB115" s="2"/>
-    </row>
-    <row r="116" spans="1:28">
+      <c r="AC115" s="2"/>
+    </row>
+    <row r="116" spans="1:29">
       <c r="A116" s="2" t="s">
         <v>28</v>
       </c>
@@ -12557,8 +12673,9 @@
         <v>297</v>
       </c>
       <c r="AB116" s="2"/>
-    </row>
-    <row r="117" spans="1:28">
+      <c r="AC116" s="2"/>
+    </row>
+    <row r="117" spans="1:29">
       <c r="A117" s="2" t="s">
         <v>39</v>
       </c>
@@ -12625,8 +12742,9 @@
         <v>297</v>
       </c>
       <c r="AB117" s="2"/>
-    </row>
-    <row r="118" spans="1:28">
+      <c r="AC117" s="2"/>
+    </row>
+    <row r="118" spans="1:29">
       <c r="A118" s="2" t="s">
         <v>28</v>
       </c>
@@ -12693,8 +12811,9 @@
         <v>305</v>
       </c>
       <c r="AB118" s="2"/>
-    </row>
-    <row r="119" spans="1:28">
+      <c r="AC118" s="2"/>
+    </row>
+    <row r="119" spans="1:29">
       <c r="A119" s="2" t="s">
         <v>39</v>
       </c>
@@ -12761,8 +12880,9 @@
         <v>305</v>
       </c>
       <c r="AB119" s="2"/>
-    </row>
-    <row r="120" spans="1:28">
+      <c r="AC119" s="2"/>
+    </row>
+    <row r="120" spans="1:29">
       <c r="A120" s="2" t="s">
         <v>28</v>
       </c>
@@ -12829,8 +12949,9 @@
         <v>305</v>
       </c>
       <c r="AB120" s="2"/>
-    </row>
-    <row r="121" spans="1:28">
+      <c r="AC120" s="2"/>
+    </row>
+    <row r="121" spans="1:29">
       <c r="A121" s="2" t="s">
         <v>39</v>
       </c>
@@ -12897,8 +13018,9 @@
         <v>305</v>
       </c>
       <c r="AB121" s="2"/>
-    </row>
-    <row r="122" spans="1:28">
+      <c r="AC121" s="2"/>
+    </row>
+    <row r="122" spans="1:29">
       <c r="A122" s="2" t="s">
         <v>28</v>
       </c>
@@ -12965,8 +13087,9 @@
         <v>313</v>
       </c>
       <c r="AB122" s="2"/>
-    </row>
-    <row r="123" spans="1:28">
+      <c r="AC122" s="2"/>
+    </row>
+    <row r="123" spans="1:29">
       <c r="A123" s="2" t="s">
         <v>39</v>
       </c>
@@ -13033,8 +13156,9 @@
         <v>313</v>
       </c>
       <c r="AB123" s="2"/>
-    </row>
-    <row r="124" spans="1:28">
+      <c r="AC123" s="2"/>
+    </row>
+    <row r="124" spans="1:29">
       <c r="A124" s="2" t="s">
         <v>28</v>
       </c>
@@ -13101,8 +13225,9 @@
         <v>318</v>
       </c>
       <c r="AB124" s="2"/>
-    </row>
-    <row r="125" spans="1:28">
+      <c r="AC124" s="2"/>
+    </row>
+    <row r="125" spans="1:29">
       <c r="A125" s="2" t="s">
         <v>39</v>
       </c>
@@ -13169,8 +13294,9 @@
         <v>318</v>
       </c>
       <c r="AB125" s="2"/>
-    </row>
-    <row r="126" spans="1:28">
+      <c r="AC125" s="2"/>
+    </row>
+    <row r="126" spans="1:29">
       <c r="A126" s="2" t="s">
         <v>28</v>
       </c>
@@ -13237,8 +13363,9 @@
         <v>323</v>
       </c>
       <c r="AB126" s="2"/>
-    </row>
-    <row r="127" spans="1:28">
+      <c r="AC126" s="2"/>
+    </row>
+    <row r="127" spans="1:29">
       <c r="A127" s="2" t="s">
         <v>39</v>
       </c>
@@ -13305,8 +13432,9 @@
         <v>323</v>
       </c>
       <c r="AB127" s="2"/>
-    </row>
-    <row r="128" spans="1:28">
+      <c r="AC127" s="2"/>
+    </row>
+    <row r="128" spans="1:29">
       <c r="A128" s="2" t="s">
         <v>28</v>
       </c>
@@ -13373,8 +13501,9 @@
         <v>323</v>
       </c>
       <c r="AB128" s="2"/>
-    </row>
-    <row r="129" spans="1:28">
+      <c r="AC128" s="2"/>
+    </row>
+    <row r="129" spans="1:29">
       <c r="A129" s="2" t="s">
         <v>39</v>
       </c>
@@ -13441,8 +13570,9 @@
         <v>323</v>
       </c>
       <c r="AB129" s="2"/>
-    </row>
-    <row r="130" spans="1:28">
+      <c r="AC129" s="2"/>
+    </row>
+    <row r="130" spans="1:29">
       <c r="A130" s="2" t="s">
         <v>28</v>
       </c>
@@ -13509,8 +13639,9 @@
         <v>331</v>
       </c>
       <c r="AB130" s="2"/>
-    </row>
-    <row r="131" spans="1:28">
+      <c r="AC130" s="2"/>
+    </row>
+    <row r="131" spans="1:29">
       <c r="A131" s="2" t="s">
         <v>39</v>
       </c>
@@ -13577,8 +13708,9 @@
         <v>331</v>
       </c>
       <c r="AB131" s="2"/>
-    </row>
-    <row r="132" spans="1:28">
+      <c r="AC131" s="2"/>
+    </row>
+    <row r="132" spans="1:29">
       <c r="A132" s="2" t="s">
         <v>28</v>
       </c>
@@ -13645,8 +13777,9 @@
         <v>336</v>
       </c>
       <c r="AB132" s="2"/>
-    </row>
-    <row r="133" spans="1:28">
+      <c r="AC132" s="2"/>
+    </row>
+    <row r="133" spans="1:29">
       <c r="A133" s="2" t="s">
         <v>39</v>
       </c>
@@ -13713,8 +13846,9 @@
         <v>336</v>
       </c>
       <c r="AB133" s="2"/>
-    </row>
-    <row r="134" spans="1:28">
+      <c r="AC133" s="2"/>
+    </row>
+    <row r="134" spans="1:29">
       <c r="A134" s="2" t="s">
         <v>28</v>
       </c>
@@ -13781,8 +13915,9 @@
         <v>341</v>
       </c>
       <c r="AB134" s="2"/>
-    </row>
-    <row r="135" spans="1:28">
+      <c r="AC134" s="2"/>
+    </row>
+    <row r="135" spans="1:29">
       <c r="A135" s="2" t="s">
         <v>39</v>
       </c>
@@ -13849,8 +13984,9 @@
         <v>341</v>
       </c>
       <c r="AB135" s="2"/>
-    </row>
-    <row r="136" spans="1:28">
+      <c r="AC135" s="2"/>
+    </row>
+    <row r="136" spans="1:29">
       <c r="A136" s="2" t="s">
         <v>28</v>
       </c>
@@ -13917,8 +14053,9 @@
         <v>345</v>
       </c>
       <c r="AB136" s="2"/>
-    </row>
-    <row r="137" spans="1:28">
+      <c r="AC136" s="2"/>
+    </row>
+    <row r="137" spans="1:29">
       <c r="A137" s="2" t="s">
         <v>39</v>
       </c>
@@ -13985,8 +14122,9 @@
         <v>345</v>
       </c>
       <c r="AB137" s="2"/>
-    </row>
-    <row r="138" spans="1:28">
+      <c r="AC137" s="2"/>
+    </row>
+    <row r="138" spans="1:29">
       <c r="A138" s="2" t="s">
         <v>28</v>
       </c>
@@ -14053,8 +14191,9 @@
         <v>349</v>
       </c>
       <c r="AB138" s="2"/>
-    </row>
-    <row r="139" spans="1:28">
+      <c r="AC138" s="2"/>
+    </row>
+    <row r="139" spans="1:29">
       <c r="A139" s="2" t="s">
         <v>39</v>
       </c>
@@ -14121,8 +14260,9 @@
         <v>349</v>
       </c>
       <c r="AB139" s="2"/>
-    </row>
-    <row r="140" spans="1:28">
+      <c r="AC139" s="2"/>
+    </row>
+    <row r="140" spans="1:29">
       <c r="A140" s="2" t="s">
         <v>28</v>
       </c>
@@ -14189,8 +14329,9 @@
         <v>354</v>
       </c>
       <c r="AB140" s="2"/>
-    </row>
-    <row r="141" spans="1:28">
+      <c r="AC140" s="2"/>
+    </row>
+    <row r="141" spans="1:29">
       <c r="A141" s="2" t="s">
         <v>39</v>
       </c>
@@ -14257,8 +14398,9 @@
         <v>354</v>
       </c>
       <c r="AB141" s="2"/>
-    </row>
-    <row r="142" spans="1:28">
+      <c r="AC141" s="2"/>
+    </row>
+    <row r="142" spans="1:29">
       <c r="A142" s="2" t="s">
         <v>28</v>
       </c>
@@ -14325,8 +14467,9 @@
         <v>359</v>
       </c>
       <c r="AB142" s="2"/>
-    </row>
-    <row r="143" spans="1:28">
+      <c r="AC142" s="2"/>
+    </row>
+    <row r="143" spans="1:29">
       <c r="A143" s="2" t="s">
         <v>39</v>
       </c>
@@ -14393,8 +14536,9 @@
         <v>359</v>
       </c>
       <c r="AB143" s="2"/>
-    </row>
-    <row r="144" spans="1:28">
+      <c r="AC143" s="2"/>
+    </row>
+    <row r="144" spans="1:29">
       <c r="A144" s="2" t="s">
         <v>28</v>
       </c>
@@ -14461,8 +14605,9 @@
         <v>364</v>
       </c>
       <c r="AB144" s="2"/>
-    </row>
-    <row r="145" spans="1:28">
+      <c r="AC144" s="2"/>
+    </row>
+    <row r="145" spans="1:29">
       <c r="A145" s="2" t="s">
         <v>39</v>
       </c>
@@ -14529,8 +14674,9 @@
         <v>364</v>
       </c>
       <c r="AB145" s="2"/>
-    </row>
-    <row r="146" spans="1:28">
+      <c r="AC145" s="2"/>
+    </row>
+    <row r="146" spans="1:29">
       <c r="A146" s="2" t="s">
         <v>28</v>
       </c>
@@ -14597,8 +14743,9 @@
         <v>368</v>
       </c>
       <c r="AB146" s="2"/>
-    </row>
-    <row r="147" spans="1:28">
+      <c r="AC146" s="2"/>
+    </row>
+    <row r="147" spans="1:29">
       <c r="A147" s="2" t="s">
         <v>39</v>
       </c>
@@ -14665,8 +14812,9 @@
         <v>368</v>
       </c>
       <c r="AB147" s="2"/>
-    </row>
-    <row r="148" spans="1:28">
+      <c r="AC147" s="2"/>
+    </row>
+    <row r="148" spans="1:29">
       <c r="A148" s="2" t="s">
         <v>28</v>
       </c>
@@ -14733,8 +14881,9 @@
         <v>368</v>
       </c>
       <c r="AB148" s="2"/>
-    </row>
-    <row r="149" spans="1:28">
+      <c r="AC148" s="2"/>
+    </row>
+    <row r="149" spans="1:29">
       <c r="A149" s="2" t="s">
         <v>39</v>
       </c>
@@ -14801,8 +14950,9 @@
         <v>368</v>
       </c>
       <c r="AB149" s="2"/>
-    </row>
-    <row r="150" spans="1:28">
+      <c r="AC149" s="2"/>
+    </row>
+    <row r="150" spans="1:29">
       <c r="A150" s="2" t="s">
         <v>28</v>
       </c>
@@ -14869,8 +15019,9 @@
         <v>374</v>
       </c>
       <c r="AB150" s="2"/>
-    </row>
-    <row r="151" spans="1:28">
+      <c r="AC150" s="2"/>
+    </row>
+    <row r="151" spans="1:29">
       <c r="A151" s="2" t="s">
         <v>39</v>
       </c>
@@ -14937,8 +15088,9 @@
         <v>374</v>
       </c>
       <c r="AB151" s="2"/>
-    </row>
-    <row r="152" spans="1:28">
+      <c r="AC151" s="2"/>
+    </row>
+    <row r="152" spans="1:29">
       <c r="A152" s="2" t="s">
         <v>28</v>
       </c>
@@ -15005,8 +15157,9 @@
         <v>379</v>
       </c>
       <c r="AB152" s="2"/>
-    </row>
-    <row r="153" spans="1:28">
+      <c r="AC152" s="2"/>
+    </row>
+    <row r="153" spans="1:29">
       <c r="A153" s="2" t="s">
         <v>39</v>
       </c>
@@ -15073,8 +15226,9 @@
         <v>379</v>
       </c>
       <c r="AB153" s="2"/>
-    </row>
-    <row r="154" spans="1:28">
+      <c r="AC153" s="2"/>
+    </row>
+    <row r="154" spans="1:29">
       <c r="A154" s="2" t="s">
         <v>28</v>
       </c>
@@ -15141,8 +15295,9 @@
         <v>384</v>
       </c>
       <c r="AB154" s="2"/>
-    </row>
-    <row r="155" spans="1:28">
+      <c r="AC154" s="2"/>
+    </row>
+    <row r="155" spans="1:29">
       <c r="A155" s="2" t="s">
         <v>39</v>
       </c>
@@ -15209,8 +15364,9 @@
         <v>384</v>
       </c>
       <c r="AB155" s="2"/>
-    </row>
-    <row r="156" spans="1:28">
+      <c r="AC155" s="2"/>
+    </row>
+    <row r="156" spans="1:29">
       <c r="A156" s="2" t="s">
         <v>28</v>
       </c>
@@ -15277,8 +15433,9 @@
         <v>389</v>
       </c>
       <c r="AB156" s="2"/>
-    </row>
-    <row r="157" spans="1:28">
+      <c r="AC156" s="2"/>
+    </row>
+    <row r="157" spans="1:29">
       <c r="A157" s="2" t="s">
         <v>39</v>
       </c>
@@ -15345,8 +15502,9 @@
         <v>389</v>
       </c>
       <c r="AB157" s="2"/>
-    </row>
-    <row r="158" spans="1:28">
+      <c r="AC157" s="2"/>
+    </row>
+    <row r="158" spans="1:29">
       <c r="A158" s="2" t="s">
         <v>28</v>
       </c>
@@ -15413,8 +15571,9 @@
         <v>394</v>
       </c>
       <c r="AB158" s="2"/>
-    </row>
-    <row r="159" spans="1:28">
+      <c r="AC158" s="2"/>
+    </row>
+    <row r="159" spans="1:29">
       <c r="A159" s="2" t="s">
         <v>39</v>
       </c>
@@ -15481,8 +15640,9 @@
         <v>394</v>
       </c>
       <c r="AB159" s="2"/>
-    </row>
-    <row r="160" spans="1:28">
+      <c r="AC159" s="2"/>
+    </row>
+    <row r="160" spans="1:29">
       <c r="A160" s="2" t="s">
         <v>28</v>
       </c>
@@ -15549,8 +15709,9 @@
         <v>394</v>
       </c>
       <c r="AB160" s="2"/>
-    </row>
-    <row r="161" spans="1:28">
+      <c r="AC160" s="2"/>
+    </row>
+    <row r="161" spans="1:29">
       <c r="A161" s="2" t="s">
         <v>39</v>
       </c>
@@ -15617,8 +15778,9 @@
         <v>394</v>
       </c>
       <c r="AB161" s="2"/>
-    </row>
-    <row r="162" spans="1:28">
+      <c r="AC161" s="2"/>
+    </row>
+    <row r="162" spans="1:29">
       <c r="A162" s="2" t="s">
         <v>28</v>
       </c>
@@ -15685,8 +15847,9 @@
         <v>394</v>
       </c>
       <c r="AB162" s="2"/>
-    </row>
-    <row r="163" spans="1:28">
+      <c r="AC162" s="2"/>
+    </row>
+    <row r="163" spans="1:29">
       <c r="A163" s="2" t="s">
         <v>39</v>
       </c>
@@ -15753,8 +15916,9 @@
         <v>394</v>
       </c>
       <c r="AB163" s="2"/>
-    </row>
-    <row r="164" spans="1:28">
+      <c r="AC163" s="2"/>
+    </row>
+    <row r="164" spans="1:29">
       <c r="A164" s="2" t="s">
         <v>28</v>
       </c>
@@ -15821,8 +15985,9 @@
         <v>394</v>
       </c>
       <c r="AB164" s="2"/>
-    </row>
-    <row r="165" spans="1:28">
+      <c r="AC164" s="2"/>
+    </row>
+    <row r="165" spans="1:29">
       <c r="A165" s="2" t="s">
         <v>39</v>
       </c>
@@ -15889,8 +16054,9 @@
         <v>394</v>
       </c>
       <c r="AB165" s="2"/>
-    </row>
-    <row r="166" spans="1:28">
+      <c r="AC165" s="2"/>
+    </row>
+    <row r="166" spans="1:29">
       <c r="A166" s="2" t="s">
         <v>28</v>
       </c>
@@ -15957,8 +16123,9 @@
         <v>408</v>
       </c>
       <c r="AB166" s="2"/>
-    </row>
-    <row r="167" spans="1:28">
+      <c r="AC166" s="2"/>
+    </row>
+    <row r="167" spans="1:29">
       <c r="A167" s="2" t="s">
         <v>39</v>
       </c>
@@ -16025,8 +16192,9 @@
         <v>408</v>
       </c>
       <c r="AB167" s="2"/>
-    </row>
-    <row r="168" spans="1:28">
+      <c r="AC167" s="2"/>
+    </row>
+    <row r="168" spans="1:29">
       <c r="A168" s="2" t="s">
         <v>28</v>
       </c>
@@ -16093,8 +16261,9 @@
         <v>408</v>
       </c>
       <c r="AB168" s="2"/>
-    </row>
-    <row r="169" spans="1:28">
+      <c r="AC168" s="2"/>
+    </row>
+    <row r="169" spans="1:29">
       <c r="A169" s="2" t="s">
         <v>39</v>
       </c>
@@ -16161,8 +16330,9 @@
         <v>408</v>
       </c>
       <c r="AB169" s="2"/>
-    </row>
-    <row r="170" spans="1:28">
+      <c r="AC169" s="2"/>
+    </row>
+    <row r="170" spans="1:29">
       <c r="A170" s="2" t="s">
         <v>28</v>
       </c>
@@ -16229,8 +16399,9 @@
         <v>416</v>
       </c>
       <c r="AB170" s="2"/>
-    </row>
-    <row r="171" spans="1:28">
+      <c r="AC170" s="2"/>
+    </row>
+    <row r="171" spans="1:29">
       <c r="A171" s="2" t="s">
         <v>39</v>
       </c>
@@ -16297,8 +16468,9 @@
         <v>416</v>
       </c>
       <c r="AB171" s="2"/>
-    </row>
-    <row r="172" spans="1:28">
+      <c r="AC171" s="2"/>
+    </row>
+    <row r="172" spans="1:29">
       <c r="A172" s="2" t="s">
         <v>28</v>
       </c>
@@ -16365,8 +16537,9 @@
         <v>416</v>
       </c>
       <c r="AB172" s="2"/>
-    </row>
-    <row r="173" spans="1:28">
+      <c r="AC172" s="2"/>
+    </row>
+    <row r="173" spans="1:29">
       <c r="A173" s="2" t="s">
         <v>39</v>
       </c>
@@ -16433,8 +16606,9 @@
         <v>416</v>
       </c>
       <c r="AB173" s="2"/>
-    </row>
-    <row r="174" spans="1:28">
+      <c r="AC173" s="2"/>
+    </row>
+    <row r="174" spans="1:29">
       <c r="A174" s="2" t="s">
         <v>28</v>
       </c>
@@ -16501,8 +16675,9 @@
         <v>423</v>
       </c>
       <c r="AB174" s="2"/>
-    </row>
-    <row r="175" spans="1:28">
+      <c r="AC174" s="2"/>
+    </row>
+    <row r="175" spans="1:29">
       <c r="A175" s="2" t="s">
         <v>39</v>
       </c>
@@ -16569,8 +16744,9 @@
         <v>423</v>
       </c>
       <c r="AB175" s="2"/>
-    </row>
-    <row r="176" spans="1:28">
+      <c r="AC175" s="2"/>
+    </row>
+    <row r="176" spans="1:29">
       <c r="A176" s="2" t="s">
         <v>28</v>
       </c>
@@ -16637,8 +16813,9 @@
         <v>428</v>
       </c>
       <c r="AB176" s="2"/>
-    </row>
-    <row r="177" spans="1:28">
+      <c r="AC176" s="2"/>
+    </row>
+    <row r="177" spans="1:29">
       <c r="A177" s="2" t="s">
         <v>39</v>
       </c>
@@ -16705,8 +16882,9 @@
         <v>428</v>
       </c>
       <c r="AB177" s="2"/>
-    </row>
-    <row r="178" spans="1:28">
+      <c r="AC177" s="2"/>
+    </row>
+    <row r="178" spans="1:29">
       <c r="A178" s="2" t="s">
         <v>28</v>
       </c>
@@ -16773,8 +16951,9 @@
         <v>428</v>
       </c>
       <c r="AB178" s="2"/>
-    </row>
-    <row r="179" spans="1:28">
+      <c r="AC178" s="2"/>
+    </row>
+    <row r="179" spans="1:29">
       <c r="A179" s="2" t="s">
         <v>39</v>
       </c>
@@ -16841,8 +17020,9 @@
         <v>428</v>
       </c>
       <c r="AB179" s="2"/>
-    </row>
-    <row r="180" spans="1:28">
+      <c r="AC179" s="2"/>
+    </row>
+    <row r="180" spans="1:29">
       <c r="A180" s="2" t="s">
         <v>28</v>
       </c>
@@ -16909,8 +17089,9 @@
         <v>435</v>
       </c>
       <c r="AB180" s="2"/>
-    </row>
-    <row r="181" spans="1:28">
+      <c r="AC180" s="2"/>
+    </row>
+    <row r="181" spans="1:29">
       <c r="A181" s="2" t="s">
         <v>39</v>
       </c>
@@ -16977,8 +17158,9 @@
         <v>435</v>
       </c>
       <c r="AB181" s="2"/>
-    </row>
-    <row r="182" spans="1:28">
+      <c r="AC181" s="2"/>
+    </row>
+    <row r="182" spans="1:29">
       <c r="A182" s="2" t="s">
         <v>28</v>
       </c>
@@ -17045,8 +17227,9 @@
         <v>440</v>
       </c>
       <c r="AB182" s="2"/>
-    </row>
-    <row r="183" spans="1:28">
+      <c r="AC182" s="2"/>
+    </row>
+    <row r="183" spans="1:29">
       <c r="A183" s="2" t="s">
         <v>39</v>
       </c>
@@ -17113,8 +17296,9 @@
         <v>440</v>
       </c>
       <c r="AB183" s="2"/>
-    </row>
-    <row r="184" spans="1:28">
+      <c r="AC183" s="2"/>
+    </row>
+    <row r="184" spans="1:29">
       <c r="A184" s="2" t="s">
         <v>28</v>
       </c>
@@ -17181,8 +17365,9 @@
         <v>440</v>
       </c>
       <c r="AB184" s="2"/>
-    </row>
-    <row r="185" spans="1:28">
+      <c r="AC184" s="2"/>
+    </row>
+    <row r="185" spans="1:29">
       <c r="A185" s="2" t="s">
         <v>39</v>
       </c>
@@ -17249,8 +17434,9 @@
         <v>440</v>
       </c>
       <c r="AB185" s="2"/>
-    </row>
-    <row r="186" spans="1:28">
+      <c r="AC185" s="2"/>
+    </row>
+    <row r="186" spans="1:29">
       <c r="A186" s="2" t="s">
         <v>28</v>
       </c>
@@ -17317,8 +17503,9 @@
         <v>440</v>
       </c>
       <c r="AB186" s="2"/>
-    </row>
-    <row r="187" spans="1:28">
+      <c r="AC186" s="2"/>
+    </row>
+    <row r="187" spans="1:29">
       <c r="A187" s="2" t="s">
         <v>39</v>
       </c>
@@ -17385,8 +17572,9 @@
         <v>440</v>
       </c>
       <c r="AB187" s="2"/>
-    </row>
-    <row r="188" spans="1:28">
+      <c r="AC187" s="2"/>
+    </row>
+    <row r="188" spans="1:29">
       <c r="A188" s="2" t="s">
         <v>28</v>
       </c>
@@ -17453,8 +17641,9 @@
         <v>449</v>
       </c>
       <c r="AB188" s="2"/>
-    </row>
-    <row r="189" spans="1:28">
+      <c r="AC188" s="2"/>
+    </row>
+    <row r="189" spans="1:29">
       <c r="A189" s="2" t="s">
         <v>39</v>
       </c>
@@ -17521,8 +17710,9 @@
         <v>449</v>
       </c>
       <c r="AB189" s="2"/>
-    </row>
-    <row r="190" spans="1:28">
+      <c r="AC189" s="2"/>
+    </row>
+    <row r="190" spans="1:29">
       <c r="A190" s="2" t="s">
         <v>28</v>
       </c>
@@ -17589,8 +17779,9 @@
         <v>454</v>
       </c>
       <c r="AB190" s="2"/>
-    </row>
-    <row r="191" spans="1:28">
+      <c r="AC190" s="2"/>
+    </row>
+    <row r="191" spans="1:29">
       <c r="A191" s="2" t="s">
         <v>39</v>
       </c>
@@ -17657,8 +17848,9 @@
         <v>454</v>
       </c>
       <c r="AB191" s="2"/>
-    </row>
-    <row r="192" spans="1:28">
+      <c r="AC191" s="2"/>
+    </row>
+    <row r="192" spans="1:29">
       <c r="A192" s="2" t="s">
         <v>28</v>
       </c>
@@ -17725,8 +17917,9 @@
         <v>454</v>
       </c>
       <c r="AB192" s="2"/>
-    </row>
-    <row r="193" spans="1:28">
+      <c r="AC192" s="2"/>
+    </row>
+    <row r="193" spans="1:29">
       <c r="A193" s="2" t="s">
         <v>39</v>
       </c>
@@ -17793,8 +17986,9 @@
         <v>454</v>
       </c>
       <c r="AB193" s="2"/>
-    </row>
-    <row r="194" spans="1:28">
+      <c r="AC193" s="2"/>
+    </row>
+    <row r="194" spans="1:29">
       <c r="A194" s="2" t="s">
         <v>28</v>
       </c>
@@ -17861,8 +18055,9 @@
         <v>462</v>
       </c>
       <c r="AB194" s="2"/>
-    </row>
-    <row r="195" spans="1:28">
+      <c r="AC194" s="2"/>
+    </row>
+    <row r="195" spans="1:29">
       <c r="A195" s="2" t="s">
         <v>39</v>
       </c>
@@ -17929,8 +18124,9 @@
         <v>462</v>
       </c>
       <c r="AB195" s="2"/>
-    </row>
-    <row r="196" spans="1:28">
+      <c r="AC195" s="2"/>
+    </row>
+    <row r="196" spans="1:29">
       <c r="A196" s="2" t="s">
         <v>28</v>
       </c>
@@ -17997,8 +18193,9 @@
         <v>466</v>
       </c>
       <c r="AB196" s="2"/>
-    </row>
-    <row r="197" spans="1:28">
+      <c r="AC196" s="2"/>
+    </row>
+    <row r="197" spans="1:29">
       <c r="A197" s="2" t="s">
         <v>39</v>
       </c>
@@ -18065,8 +18262,9 @@
         <v>466</v>
       </c>
       <c r="AB197" s="2"/>
-    </row>
-    <row r="198" spans="1:28">
+      <c r="AC197" s="2"/>
+    </row>
+    <row r="198" spans="1:29">
       <c r="A198" s="2" t="s">
         <v>28</v>
       </c>
@@ -18133,8 +18331,9 @@
         <v>466</v>
       </c>
       <c r="AB198" s="2"/>
-    </row>
-    <row r="199" spans="1:28">
+      <c r="AC198" s="2"/>
+    </row>
+    <row r="199" spans="1:29">
       <c r="A199" s="2" t="s">
         <v>39</v>
       </c>
@@ -18201,8 +18400,9 @@
         <v>466</v>
       </c>
       <c r="AB199" s="2"/>
-    </row>
-    <row r="200" spans="1:28">
+      <c r="AC199" s="2"/>
+    </row>
+    <row r="200" spans="1:29">
       <c r="A200" s="2" t="s">
         <v>28</v>
       </c>
@@ -18269,8 +18469,9 @@
         <v>466</v>
       </c>
       <c r="AB200" s="2"/>
-    </row>
-    <row r="201" spans="1:28">
+      <c r="AC200" s="2"/>
+    </row>
+    <row r="201" spans="1:29">
       <c r="A201" s="2" t="s">
         <v>39</v>
       </c>
@@ -18337,8 +18538,9 @@
         <v>466</v>
       </c>
       <c r="AB201" s="2"/>
-    </row>
-    <row r="202" spans="1:28">
+      <c r="AC201" s="2"/>
+    </row>
+    <row r="202" spans="1:29">
       <c r="A202" s="2" t="s">
         <v>28</v>
       </c>
@@ -18405,8 +18607,9 @@
         <v>476</v>
       </c>
       <c r="AB202" s="2"/>
-    </row>
-    <row r="203" spans="1:28">
+      <c r="AC202" s="2"/>
+    </row>
+    <row r="203" spans="1:29">
       <c r="A203" s="2" t="s">
         <v>39</v>
       </c>
@@ -18473,8 +18676,9 @@
         <v>476</v>
       </c>
       <c r="AB203" s="2"/>
-    </row>
-    <row r="204" spans="1:28">
+      <c r="AC203" s="2"/>
+    </row>
+    <row r="204" spans="1:29">
       <c r="A204" s="2" t="s">
         <v>28</v>
       </c>
@@ -18541,8 +18745,9 @@
         <v>476</v>
       </c>
       <c r="AB204" s="2"/>
-    </row>
-    <row r="205" spans="1:28">
+      <c r="AC204" s="2"/>
+    </row>
+    <row r="205" spans="1:29">
       <c r="A205" s="2" t="s">
         <v>39</v>
       </c>
@@ -18609,8 +18814,9 @@
         <v>476</v>
       </c>
       <c r="AB205" s="2"/>
-    </row>
-    <row r="206" spans="1:28">
+      <c r="AC205" s="2"/>
+    </row>
+    <row r="206" spans="1:29">
       <c r="A206" s="2" t="s">
         <v>28</v>
       </c>
@@ -18677,8 +18883,9 @@
         <v>476</v>
       </c>
       <c r="AB206" s="2"/>
-    </row>
-    <row r="207" spans="1:28">
+      <c r="AC206" s="2"/>
+    </row>
+    <row r="207" spans="1:29">
       <c r="A207" s="2" t="s">
         <v>39</v>
       </c>
@@ -18745,8 +18952,9 @@
         <v>476</v>
       </c>
       <c r="AB207" s="2"/>
-    </row>
-    <row r="208" spans="1:28">
+      <c r="AC207" s="2"/>
+    </row>
+    <row r="208" spans="1:29">
       <c r="A208" s="2" t="s">
         <v>28</v>
       </c>
@@ -18813,8 +19021,9 @@
         <v>487</v>
       </c>
       <c r="AB208" s="2"/>
-    </row>
-    <row r="209" spans="1:28">
+      <c r="AC208" s="2"/>
+    </row>
+    <row r="209" spans="1:29">
       <c r="A209" s="2" t="s">
         <v>39</v>
       </c>
@@ -18881,8 +19090,9 @@
         <v>487</v>
       </c>
       <c r="AB209" s="2"/>
-    </row>
-    <row r="210" spans="1:28">
+      <c r="AC209" s="2"/>
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="2" t="s">
         <v>28</v>
       </c>
@@ -18949,8 +19159,9 @@
         <v>492</v>
       </c>
       <c r="AB210" s="2"/>
-    </row>
-    <row r="211" spans="1:28">
+      <c r="AC210" s="2"/>
+    </row>
+    <row r="211" spans="1:29">
       <c r="A211" s="2" t="s">
         <v>39</v>
       </c>
@@ -19017,8 +19228,9 @@
         <v>492</v>
       </c>
       <c r="AB211" s="2"/>
-    </row>
-    <row r="212" spans="1:28">
+      <c r="AC211" s="2"/>
+    </row>
+    <row r="212" spans="1:29">
       <c r="A212" s="2" t="s">
         <v>28</v>
       </c>
@@ -19085,8 +19297,9 @@
         <v>492</v>
       </c>
       <c r="AB212" s="2"/>
-    </row>
-    <row r="213" spans="1:28">
+      <c r="AC212" s="2"/>
+    </row>
+    <row r="213" spans="1:29">
       <c r="A213" s="2" t="s">
         <v>39</v>
       </c>
@@ -19153,8 +19366,9 @@
         <v>492</v>
       </c>
       <c r="AB213" s="2"/>
-    </row>
-    <row r="214" spans="1:28">
+      <c r="AC213" s="2"/>
+    </row>
+    <row r="214" spans="1:29">
       <c r="A214" s="2" t="s">
         <v>28</v>
       </c>
@@ -19221,8 +19435,9 @@
         <v>492</v>
       </c>
       <c r="AB214" s="2"/>
-    </row>
-    <row r="215" spans="1:28">
+      <c r="AC214" s="2"/>
+    </row>
+    <row r="215" spans="1:29">
       <c r="A215" s="2" t="s">
         <v>39</v>
       </c>
@@ -19289,8 +19504,9 @@
         <v>492</v>
       </c>
       <c r="AB215" s="2"/>
-    </row>
-    <row r="216" spans="1:28">
+      <c r="AC215" s="2"/>
+    </row>
+    <row r="216" spans="1:29">
       <c r="A216" s="2" t="s">
         <v>28</v>
       </c>
@@ -19357,8 +19573,9 @@
         <v>492</v>
       </c>
       <c r="AB216" s="2"/>
-    </row>
-    <row r="217" spans="1:28">
+      <c r="AC216" s="2"/>
+    </row>
+    <row r="217" spans="1:29">
       <c r="A217" s="2" t="s">
         <v>39</v>
       </c>
@@ -19425,8 +19642,9 @@
         <v>492</v>
       </c>
       <c r="AB217" s="2"/>
-    </row>
-    <row r="218" spans="1:28">
+      <c r="AC217" s="2"/>
+    </row>
+    <row r="218" spans="1:29">
       <c r="A218" s="2" t="s">
         <v>28</v>
       </c>
@@ -19493,8 +19711,9 @@
         <v>505</v>
       </c>
       <c r="AB218" s="2"/>
-    </row>
-    <row r="219" spans="1:28">
+      <c r="AC218" s="2"/>
+    </row>
+    <row r="219" spans="1:29">
       <c r="A219" s="2" t="s">
         <v>39</v>
       </c>
@@ -19561,8 +19780,9 @@
         <v>505</v>
       </c>
       <c r="AB219" s="2"/>
-    </row>
-    <row r="220" spans="1:28">
+      <c r="AC219" s="2"/>
+    </row>
+    <row r="220" spans="1:29">
       <c r="A220" s="2" t="s">
         <v>28</v>
       </c>
@@ -19629,8 +19849,9 @@
         <v>505</v>
       </c>
       <c r="AB220" s="2"/>
-    </row>
-    <row r="221" spans="1:28">
+      <c r="AC220" s="2"/>
+    </row>
+    <row r="221" spans="1:29">
       <c r="A221" s="2" t="s">
         <v>39</v>
       </c>
@@ -19697,8 +19918,9 @@
         <v>505</v>
       </c>
       <c r="AB221" s="2"/>
-    </row>
-    <row r="222" spans="1:28">
+      <c r="AC221" s="2"/>
+    </row>
+    <row r="222" spans="1:29">
       <c r="A222" s="2" t="s">
         <v>28</v>
       </c>
@@ -19765,8 +19987,9 @@
         <v>512</v>
       </c>
       <c r="AB222" s="2"/>
-    </row>
-    <row r="223" spans="1:28">
+      <c r="AC222" s="2"/>
+    </row>
+    <row r="223" spans="1:29">
       <c r="A223" s="2" t="s">
         <v>39</v>
       </c>
@@ -19833,8 +20056,9 @@
         <v>512</v>
       </c>
       <c r="AB223" s="2"/>
-    </row>
-    <row r="224" spans="1:28">
+      <c r="AC223" s="2"/>
+    </row>
+    <row r="224" spans="1:29">
       <c r="A224" s="2" t="s">
         <v>28</v>
       </c>
@@ -19901,8 +20125,9 @@
         <v>516</v>
       </c>
       <c r="AB224" s="2"/>
-    </row>
-    <row r="225" spans="1:28">
+      <c r="AC224" s="2"/>
+    </row>
+    <row r="225" spans="1:29">
       <c r="A225" s="2" t="s">
         <v>39</v>
       </c>
@@ -19969,8 +20194,9 @@
         <v>516</v>
       </c>
       <c r="AB225" s="2"/>
-    </row>
-    <row r="226" spans="1:28">
+      <c r="AC225" s="2"/>
+    </row>
+    <row r="226" spans="1:29">
       <c r="A226" s="2" t="s">
         <v>28</v>
       </c>
@@ -20037,8 +20263,9 @@
         <v>516</v>
       </c>
       <c r="AB226" s="2"/>
-    </row>
-    <row r="227" spans="1:28">
+      <c r="AC226" s="2"/>
+    </row>
+    <row r="227" spans="1:29">
       <c r="A227" s="2" t="s">
         <v>39</v>
       </c>
@@ -20105,8 +20332,9 @@
         <v>516</v>
       </c>
       <c r="AB227" s="2"/>
-    </row>
-    <row r="228" spans="1:28">
+      <c r="AC227" s="2"/>
+    </row>
+    <row r="228" spans="1:29">
       <c r="A228" s="2" t="s">
         <v>28</v>
       </c>
@@ -20173,8 +20401,9 @@
         <v>516</v>
       </c>
       <c r="AB228" s="2"/>
-    </row>
-    <row r="229" spans="1:28">
+      <c r="AC228" s="2"/>
+    </row>
+    <row r="229" spans="1:29">
       <c r="A229" s="2" t="s">
         <v>39</v>
       </c>
@@ -20241,8 +20470,9 @@
         <v>516</v>
       </c>
       <c r="AB229" s="2"/>
-    </row>
-    <row r="230" spans="1:28">
+      <c r="AC229" s="2"/>
+    </row>
+    <row r="230" spans="1:29">
       <c r="A230" s="2" t="s">
         <v>28</v>
       </c>
@@ -20309,8 +20539,9 @@
         <v>516</v>
       </c>
       <c r="AB230" s="2"/>
-    </row>
-    <row r="231" spans="1:28">
+      <c r="AC230" s="2"/>
+    </row>
+    <row r="231" spans="1:29">
       <c r="A231" s="2" t="s">
         <v>39</v>
       </c>
@@ -20377,8 +20608,9 @@
         <v>516</v>
       </c>
       <c r="AB231" s="2"/>
-    </row>
-    <row r="232" spans="1:28">
+      <c r="AC231" s="2"/>
+    </row>
+    <row r="232" spans="1:29">
       <c r="A232" s="2" t="s">
         <v>28</v>
       </c>
@@ -20445,8 +20677,9 @@
         <v>516</v>
       </c>
       <c r="AB232" s="2"/>
-    </row>
-    <row r="233" spans="1:28">
+      <c r="AC232" s="2"/>
+    </row>
+    <row r="233" spans="1:29">
       <c r="A233" s="2" t="s">
         <v>39</v>
       </c>
@@ -20513,8 +20746,9 @@
         <v>516</v>
       </c>
       <c r="AB233" s="2"/>
-    </row>
-    <row r="234" spans="1:28">
+      <c r="AC233" s="2"/>
+    </row>
+    <row r="234" spans="1:29">
       <c r="A234" s="2" t="s">
         <v>28</v>
       </c>
@@ -20581,8 +20815,9 @@
         <v>533</v>
       </c>
       <c r="AB234" s="2"/>
-    </row>
-    <row r="235" spans="1:28">
+      <c r="AC234" s="2"/>
+    </row>
+    <row r="235" spans="1:29">
       <c r="A235" s="2" t="s">
         <v>39</v>
       </c>
@@ -20649,8 +20884,9 @@
         <v>533</v>
       </c>
       <c r="AB235" s="2"/>
-    </row>
-    <row r="236" spans="1:28">
+      <c r="AC235" s="2"/>
+    </row>
+    <row r="236" spans="1:29">
       <c r="A236" s="2" t="s">
         <v>28</v>
       </c>
@@ -20717,8 +20953,9 @@
         <v>533</v>
       </c>
       <c r="AB236" s="2"/>
-    </row>
-    <row r="237" spans="1:28">
+      <c r="AC236" s="2"/>
+    </row>
+    <row r="237" spans="1:29">
       <c r="A237" s="2" t="s">
         <v>39</v>
       </c>
@@ -20785,8 +21022,9 @@
         <v>533</v>
       </c>
       <c r="AB237" s="2"/>
-    </row>
-    <row r="238" spans="1:28">
+      <c r="AC237" s="2"/>
+    </row>
+    <row r="238" spans="1:29">
       <c r="A238" s="2" t="s">
         <v>28</v>
       </c>
@@ -20853,8 +21091,9 @@
         <v>533</v>
       </c>
       <c r="AB238" s="2"/>
-    </row>
-    <row r="239" spans="1:28">
+      <c r="AC238" s="2"/>
+    </row>
+    <row r="239" spans="1:29">
       <c r="A239" s="2" t="s">
         <v>39</v>
       </c>
@@ -20921,8 +21160,9 @@
         <v>533</v>
       </c>
       <c r="AB239" s="2"/>
-    </row>
-    <row r="240" spans="1:28">
+      <c r="AC239" s="2"/>
+    </row>
+    <row r="240" spans="1:29">
       <c r="A240" s="2" t="s">
         <v>28</v>
       </c>
@@ -20989,8 +21229,9 @@
         <v>533</v>
       </c>
       <c r="AB240" s="2"/>
-    </row>
-    <row r="241" spans="1:28">
+      <c r="AC240" s="2"/>
+    </row>
+    <row r="241" spans="1:29">
       <c r="A241" s="2" t="s">
         <v>39</v>
       </c>
@@ -21057,8 +21298,9 @@
         <v>533</v>
       </c>
       <c r="AB241" s="2"/>
-    </row>
-    <row r="242" spans="1:28">
+      <c r="AC241" s="2"/>
+    </row>
+    <row r="242" spans="1:29">
       <c r="A242" s="2" t="s">
         <v>28</v>
       </c>
@@ -21125,8 +21367,9 @@
         <v>546</v>
       </c>
       <c r="AB242" s="2"/>
-    </row>
-    <row r="243" spans="1:28">
+      <c r="AC242" s="2"/>
+    </row>
+    <row r="243" spans="1:29">
       <c r="A243" s="2" t="s">
         <v>39</v>
       </c>
@@ -21193,8 +21436,9 @@
         <v>546</v>
       </c>
       <c r="AB243" s="2"/>
-    </row>
-    <row r="244" spans="1:28">
+      <c r="AC243" s="2"/>
+    </row>
+    <row r="244" spans="1:29">
       <c r="A244" s="2" t="s">
         <v>28</v>
       </c>
@@ -21261,8 +21505,9 @@
         <v>546</v>
       </c>
       <c r="AB244" s="2"/>
-    </row>
-    <row r="245" spans="1:28">
+      <c r="AC244" s="2"/>
+    </row>
+    <row r="245" spans="1:29">
       <c r="A245" s="2" t="s">
         <v>39</v>
       </c>
@@ -21329,8 +21574,9 @@
         <v>546</v>
       </c>
       <c r="AB245" s="2"/>
-    </row>
-    <row r="246" spans="1:28">
+      <c r="AC245" s="2"/>
+    </row>
+    <row r="246" spans="1:29">
       <c r="A246" s="2" t="s">
         <v>28</v>
       </c>
@@ -21397,8 +21643,9 @@
         <v>546</v>
       </c>
       <c r="AB246" s="2"/>
-    </row>
-    <row r="247" spans="1:28">
+      <c r="AC246" s="2"/>
+    </row>
+    <row r="247" spans="1:29">
       <c r="A247" s="2" t="s">
         <v>39</v>
       </c>
@@ -21465,8 +21712,9 @@
         <v>546</v>
       </c>
       <c r="AB247" s="2"/>
-    </row>
-    <row r="248" spans="1:28">
+      <c r="AC247" s="2"/>
+    </row>
+    <row r="248" spans="1:29">
       <c r="A248" s="2" t="s">
         <v>28</v>
       </c>
@@ -21533,8 +21781,9 @@
         <v>556</v>
       </c>
       <c r="AB248" s="2"/>
-    </row>
-    <row r="249" spans="1:28">
+      <c r="AC248" s="2"/>
+    </row>
+    <row r="249" spans="1:29">
       <c r="A249" s="2" t="s">
         <v>39</v>
       </c>
@@ -21601,8 +21850,9 @@
         <v>556</v>
       </c>
       <c r="AB249" s="2"/>
-    </row>
-    <row r="250" spans="1:28">
+      <c r="AC249" s="2"/>
+    </row>
+    <row r="250" spans="1:29">
       <c r="A250" s="2" t="s">
         <v>28</v>
       </c>
@@ -21669,8 +21919,9 @@
         <v>560</v>
       </c>
       <c r="AB250" s="2"/>
-    </row>
-    <row r="251" spans="1:28">
+      <c r="AC250" s="2"/>
+    </row>
+    <row r="251" spans="1:29">
       <c r="A251" s="2" t="s">
         <v>39</v>
       </c>
@@ -21737,8 +21988,9 @@
         <v>560</v>
       </c>
       <c r="AB251" s="2"/>
-    </row>
-    <row r="252" spans="1:28">
+      <c r="AC251" s="2"/>
+    </row>
+    <row r="252" spans="1:29">
       <c r="A252" s="2" t="s">
         <v>28</v>
       </c>
@@ -21805,8 +22057,9 @@
         <v>560</v>
       </c>
       <c r="AB252" s="2"/>
-    </row>
-    <row r="253" spans="1:28">
+      <c r="AC252" s="2"/>
+    </row>
+    <row r="253" spans="1:29">
       <c r="A253" s="2" t="s">
         <v>39</v>
       </c>
@@ -21873,8 +22126,9 @@
         <v>560</v>
       </c>
       <c r="AB253" s="2"/>
-    </row>
-    <row r="254" spans="1:28">
+      <c r="AC253" s="2"/>
+    </row>
+    <row r="254" spans="1:29">
       <c r="A254" s="2" t="s">
         <v>28</v>
       </c>
@@ -21941,8 +22195,9 @@
         <v>560</v>
       </c>
       <c r="AB254" s="2"/>
-    </row>
-    <row r="255" spans="1:28">
+      <c r="AC254" s="2"/>
+    </row>
+    <row r="255" spans="1:29">
       <c r="A255" s="2" t="s">
         <v>39</v>
       </c>
@@ -22009,8 +22264,9 @@
         <v>560</v>
       </c>
       <c r="AB255" s="2"/>
-    </row>
-    <row r="256" spans="1:28">
+      <c r="AC255" s="2"/>
+    </row>
+    <row r="256" spans="1:29">
       <c r="A256" s="2" t="s">
         <v>28</v>
       </c>
@@ -22077,8 +22333,9 @@
         <v>570</v>
       </c>
       <c r="AB256" s="2"/>
-    </row>
-    <row r="257" spans="1:28">
+      <c r="AC256" s="2"/>
+    </row>
+    <row r="257" spans="1:29">
       <c r="A257" s="2" t="s">
         <v>39</v>
       </c>
@@ -22145,8 +22402,9 @@
         <v>570</v>
       </c>
       <c r="AB257" s="2"/>
-    </row>
-    <row r="258" spans="1:28">
+      <c r="AC257" s="2"/>
+    </row>
+    <row r="258" spans="1:29">
       <c r="A258" s="2" t="s">
         <v>28</v>
       </c>
@@ -22213,8 +22471,9 @@
         <v>575</v>
       </c>
       <c r="AB258" s="2"/>
-    </row>
-    <row r="259" spans="1:28">
+      <c r="AC258" s="2"/>
+    </row>
+    <row r="259" spans="1:29">
       <c r="A259" s="2" t="s">
         <v>39</v>
       </c>
@@ -22281,8 +22540,9 @@
         <v>575</v>
       </c>
       <c r="AB259" s="2"/>
-    </row>
-    <row r="260" spans="1:28">
+      <c r="AC259" s="2"/>
+    </row>
+    <row r="260" spans="1:29">
       <c r="A260" s="2" t="s">
         <v>28</v>
       </c>
@@ -22349,8 +22609,9 @@
         <v>575</v>
       </c>
       <c r="AB260" s="2"/>
-    </row>
-    <row r="261" spans="1:28">
+      <c r="AC260" s="2"/>
+    </row>
+    <row r="261" spans="1:29">
       <c r="A261" s="2" t="s">
         <v>39</v>
       </c>
@@ -22417,8 +22678,9 @@
         <v>575</v>
       </c>
       <c r="AB261" s="2"/>
-    </row>
-    <row r="262" spans="1:28">
+      <c r="AC261" s="2"/>
+    </row>
+    <row r="262" spans="1:29">
       <c r="A262" s="2" t="s">
         <v>28</v>
       </c>
@@ -22485,8 +22747,9 @@
         <v>583</v>
       </c>
       <c r="AB262" s="2"/>
-    </row>
-    <row r="263" spans="1:28">
+      <c r="AC262" s="2"/>
+    </row>
+    <row r="263" spans="1:29">
       <c r="A263" s="2" t="s">
         <v>39</v>
       </c>
@@ -22553,8 +22816,9 @@
         <v>583</v>
       </c>
       <c r="AB263" s="2"/>
-    </row>
-    <row r="264" spans="1:28">
+      <c r="AC263" s="2"/>
+    </row>
+    <row r="264" spans="1:29">
       <c r="A264" s="2" t="s">
         <v>28</v>
       </c>
@@ -22621,8 +22885,9 @@
         <v>583</v>
       </c>
       <c r="AB264" s="2"/>
-    </row>
-    <row r="265" spans="1:28">
+      <c r="AC264" s="2"/>
+    </row>
+    <row r="265" spans="1:29">
       <c r="A265" s="2" t="s">
         <v>39</v>
       </c>
@@ -22689,8 +22954,9 @@
         <v>583</v>
       </c>
       <c r="AB265" s="2"/>
-    </row>
-    <row r="266" spans="1:28">
+      <c r="AC265" s="2"/>
+    </row>
+    <row r="266" spans="1:29">
       <c r="A266" s="2" t="s">
         <v>28</v>
       </c>
@@ -22757,8 +23023,9 @@
         <v>583</v>
       </c>
       <c r="AB266" s="2"/>
-    </row>
-    <row r="267" spans="1:28">
+      <c r="AC266" s="2"/>
+    </row>
+    <row r="267" spans="1:29">
       <c r="A267" s="2" t="s">
         <v>39</v>
       </c>
@@ -22825,8 +23092,9 @@
         <v>583</v>
       </c>
       <c r="AB267" s="2"/>
-    </row>
-    <row r="268" spans="1:28">
+      <c r="AC267" s="2"/>
+    </row>
+    <row r="268" spans="1:29">
       <c r="A268" s="2" t="s">
         <v>28</v>
       </c>
@@ -22893,8 +23161,9 @@
         <v>593</v>
       </c>
       <c r="AB268" s="2"/>
-    </row>
-    <row r="269" spans="1:28">
+      <c r="AC268" s="2"/>
+    </row>
+    <row r="269" spans="1:29">
       <c r="A269" s="2" t="s">
         <v>39</v>
       </c>
@@ -22961,8 +23230,9 @@
         <v>593</v>
       </c>
       <c r="AB269" s="2"/>
-    </row>
-    <row r="270" spans="1:28">
+      <c r="AC269" s="2"/>
+    </row>
+    <row r="270" spans="1:29">
       <c r="A270" s="2" t="s">
         <v>28</v>
       </c>
@@ -23029,8 +23299,9 @@
         <v>593</v>
       </c>
       <c r="AB270" s="2"/>
-    </row>
-    <row r="271" spans="1:28">
+      <c r="AC270" s="2"/>
+    </row>
+    <row r="271" spans="1:29">
       <c r="A271" s="2" t="s">
         <v>39</v>
       </c>
@@ -23097,8 +23368,9 @@
         <v>593</v>
       </c>
       <c r="AB271" s="2"/>
-    </row>
-    <row r="272" spans="1:28">
+      <c r="AC271" s="2"/>
+    </row>
+    <row r="272" spans="1:29">
       <c r="A272" s="2" t="s">
         <v>28</v>
       </c>
@@ -23165,8 +23437,9 @@
         <v>601</v>
       </c>
       <c r="AB272" s="2"/>
-    </row>
-    <row r="273" spans="1:28">
+      <c r="AC272" s="2"/>
+    </row>
+    <row r="273" spans="1:29">
       <c r="A273" s="2" t="s">
         <v>39</v>
       </c>
@@ -23233,8 +23506,9 @@
         <v>601</v>
       </c>
       <c r="AB273" s="2"/>
-    </row>
-    <row r="274" spans="1:28">
+      <c r="AC273" s="2"/>
+    </row>
+    <row r="274" spans="1:29">
       <c r="A274" s="2" t="s">
         <v>28</v>
       </c>
@@ -23301,8 +23575,9 @@
         <v>601</v>
       </c>
       <c r="AB274" s="2"/>
-    </row>
-    <row r="275" spans="1:28">
+      <c r="AC274" s="2"/>
+    </row>
+    <row r="275" spans="1:29">
       <c r="A275" s="2" t="s">
         <v>39</v>
       </c>
@@ -23369,8 +23644,9 @@
         <v>601</v>
       </c>
       <c r="AB275" s="2"/>
-    </row>
-    <row r="276" spans="1:28">
+      <c r="AC275" s="2"/>
+    </row>
+    <row r="276" spans="1:29">
       <c r="A276" s="2" t="s">
         <v>28</v>
       </c>
@@ -23437,8 +23713,9 @@
         <v>601</v>
       </c>
       <c r="AB276" s="2"/>
-    </row>
-    <row r="277" spans="1:28">
+      <c r="AC276" s="2"/>
+    </row>
+    <row r="277" spans="1:29">
       <c r="A277" s="2" t="s">
         <v>39</v>
       </c>
@@ -23505,8 +23782,9 @@
         <v>601</v>
       </c>
       <c r="AB277" s="2"/>
-    </row>
-    <row r="278" spans="1:28">
+      <c r="AC277" s="2"/>
+    </row>
+    <row r="278" spans="1:29">
       <c r="A278" s="2" t="s">
         <v>28</v>
       </c>
@@ -23573,8 +23851,9 @@
         <v>601</v>
       </c>
       <c r="AB278" s="2"/>
-    </row>
-    <row r="279" spans="1:28">
+      <c r="AC278" s="2"/>
+    </row>
+    <row r="279" spans="1:29">
       <c r="A279" s="2" t="s">
         <v>39</v>
       </c>
@@ -23641,8 +23920,9 @@
         <v>601</v>
       </c>
       <c r="AB279" s="2"/>
-    </row>
-    <row r="280" spans="1:28">
+      <c r="AC279" s="2"/>
+    </row>
+    <row r="280" spans="1:29">
       <c r="A280" s="2" t="s">
         <v>28</v>
       </c>
@@ -23709,8 +23989,9 @@
         <v>614</v>
       </c>
       <c r="AB280" s="2"/>
-    </row>
-    <row r="281" spans="1:28">
+      <c r="AC280" s="2"/>
+    </row>
+    <row r="281" spans="1:29">
       <c r="A281" s="2" t="s">
         <v>39</v>
       </c>
@@ -23777,8 +24058,9 @@
         <v>614</v>
       </c>
       <c r="AB281" s="2"/>
-    </row>
-    <row r="282" spans="1:28">
+      <c r="AC281" s="2"/>
+    </row>
+    <row r="282" spans="1:29">
       <c r="A282" s="2" t="s">
         <v>28</v>
       </c>
@@ -23845,8 +24127,9 @@
         <v>614</v>
       </c>
       <c r="AB282" s="2"/>
-    </row>
-    <row r="283" spans="1:28">
+      <c r="AC282" s="2"/>
+    </row>
+    <row r="283" spans="1:29">
       <c r="A283" s="2" t="s">
         <v>39</v>
       </c>
@@ -23913,8 +24196,9 @@
         <v>614</v>
       </c>
       <c r="AB283" s="2"/>
-    </row>
-    <row r="284" spans="1:28">
+      <c r="AC283" s="2"/>
+    </row>
+    <row r="284" spans="1:29">
       <c r="A284" s="2" t="s">
         <v>28</v>
       </c>
@@ -23981,8 +24265,9 @@
         <v>622</v>
       </c>
       <c r="AB284" s="2"/>
-    </row>
-    <row r="285" spans="1:28">
+      <c r="AC284" s="2"/>
+    </row>
+    <row r="285" spans="1:29">
       <c r="A285" s="2" t="s">
         <v>39</v>
       </c>
@@ -24049,8 +24334,9 @@
         <v>622</v>
       </c>
       <c r="AB285" s="2"/>
-    </row>
-    <row r="286" spans="1:28">
+      <c r="AC285" s="2"/>
+    </row>
+    <row r="286" spans="1:29">
       <c r="A286" s="2" t="s">
         <v>28</v>
       </c>
@@ -24117,8 +24403,9 @@
         <v>626</v>
       </c>
       <c r="AB286" s="2"/>
-    </row>
-    <row r="287" spans="1:28">
+      <c r="AC286" s="2"/>
+    </row>
+    <row r="287" spans="1:29">
       <c r="A287" s="2" t="s">
         <v>39</v>
       </c>
@@ -24185,8 +24472,9 @@
         <v>626</v>
       </c>
       <c r="AB287" s="2"/>
-    </row>
-    <row r="288" spans="1:28">
+      <c r="AC287" s="2"/>
+    </row>
+    <row r="288" spans="1:29">
       <c r="A288" s="2" t="s">
         <v>28</v>
       </c>
@@ -24253,8 +24541,9 @@
         <v>631</v>
       </c>
       <c r="AB288" s="2"/>
-    </row>
-    <row r="289" spans="1:28">
+      <c r="AC288" s="2"/>
+    </row>
+    <row r="289" spans="1:29">
       <c r="A289" s="2" t="s">
         <v>39</v>
       </c>
@@ -24321,8 +24610,9 @@
         <v>631</v>
       </c>
       <c r="AB289" s="2"/>
-    </row>
-    <row r="290" spans="1:28">
+      <c r="AC289" s="2"/>
+    </row>
+    <row r="290" spans="1:29">
       <c r="A290" s="2" t="s">
         <v>28</v>
       </c>
@@ -24389,8 +24679,9 @@
         <v>636</v>
       </c>
       <c r="AB290" s="2"/>
-    </row>
-    <row r="291" spans="1:28">
+      <c r="AC290" s="2"/>
+    </row>
+    <row r="291" spans="1:29">
       <c r="A291" s="2" t="s">
         <v>39</v>
       </c>
@@ -24457,8 +24748,9 @@
         <v>636</v>
       </c>
       <c r="AB291" s="2"/>
-    </row>
-    <row r="292" spans="1:28">
+      <c r="AC291" s="2"/>
+    </row>
+    <row r="292" spans="1:29">
       <c r="A292" s="2" t="s">
         <v>28</v>
       </c>
@@ -24525,8 +24817,9 @@
         <v>641</v>
       </c>
       <c r="AB292" s="2"/>
-    </row>
-    <row r="293" spans="1:28">
+      <c r="AC292" s="2"/>
+    </row>
+    <row r="293" spans="1:29">
       <c r="A293" s="2" t="s">
         <v>39</v>
       </c>
@@ -24593,8 +24886,9 @@
         <v>641</v>
       </c>
       <c r="AB293" s="2"/>
-    </row>
-    <row r="294" spans="1:28">
+      <c r="AC293" s="2"/>
+    </row>
+    <row r="294" spans="1:29">
       <c r="A294" s="2" t="s">
         <v>28</v>
       </c>
@@ -24661,8 +24955,9 @@
         <v>646</v>
       </c>
       <c r="AB294" s="2"/>
-    </row>
-    <row r="295" spans="1:28">
+      <c r="AC294" s="2"/>
+    </row>
+    <row r="295" spans="1:29">
       <c r="A295" s="2" t="s">
         <v>39</v>
       </c>
@@ -24729,8 +25024,9 @@
         <v>646</v>
       </c>
       <c r="AB295" s="2"/>
-    </row>
-    <row r="296" spans="1:28">
+      <c r="AC295" s="2"/>
+    </row>
+    <row r="296" spans="1:29">
       <c r="A296" s="2" t="s">
         <v>28</v>
       </c>
@@ -24797,8 +25093,9 @@
         <v>651</v>
       </c>
       <c r="AB296" s="2"/>
-    </row>
-    <row r="297" spans="1:28">
+      <c r="AC296" s="2"/>
+    </row>
+    <row r="297" spans="1:29">
       <c r="A297" s="2" t="s">
         <v>39</v>
       </c>
@@ -24865,8 +25162,9 @@
         <v>651</v>
       </c>
       <c r="AB297" s="2"/>
-    </row>
-    <row r="298" spans="1:28">
+      <c r="AC297" s="2"/>
+    </row>
+    <row r="298" spans="1:29">
       <c r="A298" s="2" t="s">
         <v>28</v>
       </c>
@@ -24933,8 +25231,9 @@
         <v>651</v>
       </c>
       <c r="AB298" s="2"/>
-    </row>
-    <row r="299" spans="1:28">
+      <c r="AC298" s="2"/>
+    </row>
+    <row r="299" spans="1:29">
       <c r="A299" s="2" t="s">
         <v>39</v>
       </c>
@@ -25001,8 +25300,9 @@
         <v>651</v>
       </c>
       <c r="AB299" s="2"/>
-    </row>
-    <row r="300" spans="1:28">
+      <c r="AC299" s="2"/>
+    </row>
+    <row r="300" spans="1:29">
       <c r="A300" s="2" t="s">
         <v>28</v>
       </c>
@@ -25069,8 +25369,9 @@
         <v>651</v>
       </c>
       <c r="AB300" s="2"/>
-    </row>
-    <row r="301" spans="1:28">
+      <c r="AC300" s="2"/>
+    </row>
+    <row r="301" spans="1:29">
       <c r="A301" s="2" t="s">
         <v>39</v>
       </c>
@@ -25137,8 +25438,9 @@
         <v>651</v>
       </c>
       <c r="AB301" s="2"/>
-    </row>
-    <row r="302" spans="1:28">
+      <c r="AC301" s="2"/>
+    </row>
+    <row r="302" spans="1:29">
       <c r="A302" s="2" t="s">
         <v>28</v>
       </c>
@@ -25205,8 +25507,9 @@
         <v>662</v>
       </c>
       <c r="AB302" s="2"/>
-    </row>
-    <row r="303" spans="1:28">
+      <c r="AC302" s="2"/>
+    </row>
+    <row r="303" spans="1:29">
       <c r="A303" s="2" t="s">
         <v>39</v>
       </c>
@@ -25273,8 +25576,9 @@
         <v>662</v>
       </c>
       <c r="AB303" s="2"/>
-    </row>
-    <row r="304" spans="1:28">
+      <c r="AC303" s="2"/>
+    </row>
+    <row r="304" spans="1:29">
       <c r="A304" s="2" t="s">
         <v>28</v>
       </c>
@@ -25341,8 +25645,9 @@
         <v>662</v>
       </c>
       <c r="AB304" s="2"/>
-    </row>
-    <row r="305" spans="1:28">
+      <c r="AC304" s="2"/>
+    </row>
+    <row r="305" spans="1:29">
       <c r="A305" s="2" t="s">
         <v>39</v>
       </c>
@@ -25409,8 +25714,9 @@
         <v>662</v>
       </c>
       <c r="AB305" s="2"/>
-    </row>
-    <row r="306" spans="1:28">
+      <c r="AC305" s="2"/>
+    </row>
+    <row r="306" spans="1:29">
       <c r="A306" s="2" t="s">
         <v>28</v>
       </c>
@@ -25477,8 +25783,9 @@
         <v>670</v>
       </c>
       <c r="AB306" s="2"/>
-    </row>
-    <row r="307" spans="1:28">
+      <c r="AC306" s="2"/>
+    </row>
+    <row r="307" spans="1:29">
       <c r="A307" s="2" t="s">
         <v>39</v>
       </c>
@@ -25545,8 +25852,9 @@
         <v>670</v>
       </c>
       <c r="AB307" s="2"/>
-    </row>
-    <row r="308" spans="1:28">
+      <c r="AC307" s="2"/>
+    </row>
+    <row r="308" spans="1:29">
       <c r="A308" s="2" t="s">
         <v>28</v>
       </c>
@@ -25613,8 +25921,9 @@
         <v>670</v>
       </c>
       <c r="AB308" s="2"/>
-    </row>
-    <row r="309" spans="1:28">
+      <c r="AC308" s="2"/>
+    </row>
+    <row r="309" spans="1:29">
       <c r="A309" s="2" t="s">
         <v>39</v>
       </c>
@@ -25681,8 +25990,9 @@
         <v>670</v>
       </c>
       <c r="AB309" s="2"/>
-    </row>
-    <row r="310" spans="1:28">
+      <c r="AC309" s="2"/>
+    </row>
+    <row r="310" spans="1:29">
       <c r="A310" s="2" t="s">
         <v>28</v>
       </c>
@@ -25749,8 +26059,9 @@
         <v>670</v>
       </c>
       <c r="AB310" s="2"/>
-    </row>
-    <row r="311" spans="1:28">
+      <c r="AC310" s="2"/>
+    </row>
+    <row r="311" spans="1:29">
       <c r="A311" s="2" t="s">
         <v>39</v>
       </c>
@@ -25817,8 +26128,9 @@
         <v>670</v>
       </c>
       <c r="AB311" s="2"/>
-    </row>
-    <row r="312" spans="1:28">
+      <c r="AC311" s="2"/>
+    </row>
+    <row r="312" spans="1:29">
       <c r="A312" s="2" t="s">
         <v>28</v>
       </c>
@@ -25885,8 +26197,9 @@
         <v>678</v>
       </c>
       <c r="AB312" s="2"/>
-    </row>
-    <row r="313" spans="1:28">
+      <c r="AC312" s="2"/>
+    </row>
+    <row r="313" spans="1:29">
       <c r="A313" s="2" t="s">
         <v>39</v>
       </c>
@@ -25953,8 +26266,9 @@
         <v>678</v>
       </c>
       <c r="AB313" s="2"/>
-    </row>
-    <row r="314" spans="1:28">
+      <c r="AC313" s="2"/>
+    </row>
+    <row r="314" spans="1:29">
       <c r="A314" s="2" t="s">
         <v>28</v>
       </c>
@@ -26021,8 +26335,9 @@
         <v>682</v>
       </c>
       <c r="AB314" s="2"/>
-    </row>
-    <row r="315" spans="1:28">
+      <c r="AC314" s="2"/>
+    </row>
+    <row r="315" spans="1:29">
       <c r="A315" s="2" t="s">
         <v>39</v>
       </c>
@@ -26089,8 +26404,9 @@
         <v>682</v>
       </c>
       <c r="AB315" s="2"/>
-    </row>
-    <row r="316" spans="1:28">
+      <c r="AC315" s="2"/>
+    </row>
+    <row r="316" spans="1:29">
       <c r="A316" s="2" t="s">
         <v>28</v>
       </c>
@@ -26157,8 +26473,9 @@
         <v>682</v>
       </c>
       <c r="AB316" s="2"/>
-    </row>
-    <row r="317" spans="1:28">
+      <c r="AC316" s="2"/>
+    </row>
+    <row r="317" spans="1:29">
       <c r="A317" s="2" t="s">
         <v>39</v>
       </c>
@@ -26225,8 +26542,9 @@
         <v>682</v>
       </c>
       <c r="AB317" s="2"/>
-    </row>
-    <row r="318" spans="1:28">
+      <c r="AC317" s="2"/>
+    </row>
+    <row r="318" spans="1:29">
       <c r="A318" s="2" t="s">
         <v>28</v>
       </c>
@@ -26293,8 +26611,9 @@
         <v>682</v>
       </c>
       <c r="AB318" s="2"/>
-    </row>
-    <row r="319" spans="1:28">
+      <c r="AC318" s="2"/>
+    </row>
+    <row r="319" spans="1:29">
       <c r="A319" s="2" t="s">
         <v>39</v>
       </c>
@@ -26361,8 +26680,9 @@
         <v>682</v>
       </c>
       <c r="AB319" s="2"/>
-    </row>
-    <row r="320" spans="1:28">
+      <c r="AC319" s="2"/>
+    </row>
+    <row r="320" spans="1:29">
       <c r="A320" s="2" t="s">
         <v>28</v>
       </c>
@@ -26429,8 +26749,9 @@
         <v>692</v>
       </c>
       <c r="AB320" s="2"/>
-    </row>
-    <row r="321" spans="1:28">
+      <c r="AC320" s="2"/>
+    </row>
+    <row r="321" spans="1:29">
       <c r="A321" s="2" t="s">
         <v>39</v>
       </c>
@@ -26497,8 +26818,9 @@
         <v>692</v>
       </c>
       <c r="AB321" s="2"/>
-    </row>
-    <row r="322" spans="1:28">
+      <c r="AC321" s="2"/>
+    </row>
+    <row r="322" spans="1:29">
       <c r="A322" s="2" t="s">
         <v>28</v>
       </c>
@@ -26565,8 +26887,9 @@
         <v>692</v>
       </c>
       <c r="AB322" s="2"/>
-    </row>
-    <row r="323" spans="1:28">
+      <c r="AC322" s="2"/>
+    </row>
+    <row r="323" spans="1:29">
       <c r="A323" s="2" t="s">
         <v>39</v>
       </c>
@@ -26633,8 +26956,9 @@
         <v>692</v>
       </c>
       <c r="AB323" s="2"/>
-    </row>
-    <row r="324" spans="1:28">
+      <c r="AC323" s="2"/>
+    </row>
+    <row r="324" spans="1:29">
       <c r="A324" s="2" t="s">
         <v>28</v>
       </c>
@@ -26701,8 +27025,9 @@
         <v>699</v>
       </c>
       <c r="AB324" s="2"/>
-    </row>
-    <row r="325" spans="1:28">
+      <c r="AC324" s="2"/>
+    </row>
+    <row r="325" spans="1:29">
       <c r="A325" s="2" t="s">
         <v>39</v>
       </c>
@@ -26769,8 +27094,9 @@
         <v>699</v>
       </c>
       <c r="AB325" s="2"/>
-    </row>
-    <row r="326" spans="1:28">
+      <c r="AC325" s="2"/>
+    </row>
+    <row r="326" spans="1:29">
       <c r="A326" s="2" t="s">
         <v>28</v>
       </c>
@@ -26837,8 +27163,9 @@
         <v>699</v>
       </c>
       <c r="AB326" s="2"/>
-    </row>
-    <row r="327" spans="1:28">
+      <c r="AC326" s="2"/>
+    </row>
+    <row r="327" spans="1:29">
       <c r="A327" s="2" t="s">
         <v>39</v>
       </c>
@@ -26905,8 +27232,9 @@
         <v>699</v>
       </c>
       <c r="AB327" s="2"/>
-    </row>
-    <row r="328" spans="1:28">
+      <c r="AC327" s="2"/>
+    </row>
+    <row r="328" spans="1:29">
       <c r="A328" s="2" t="s">
         <v>28</v>
       </c>
@@ -26973,8 +27301,9 @@
         <v>699</v>
       </c>
       <c r="AB328" s="2"/>
-    </row>
-    <row r="329" spans="1:28">
+      <c r="AC328" s="2"/>
+    </row>
+    <row r="329" spans="1:29">
       <c r="A329" s="2" t="s">
         <v>39</v>
       </c>
@@ -27041,8 +27370,9 @@
         <v>699</v>
       </c>
       <c r="AB329" s="2"/>
-    </row>
-    <row r="330" spans="1:28">
+      <c r="AC329" s="2"/>
+    </row>
+    <row r="330" spans="1:29">
       <c r="A330" s="2" t="s">
         <v>28</v>
       </c>
@@ -27109,8 +27439,9 @@
         <v>699</v>
       </c>
       <c r="AB330" s="2"/>
-    </row>
-    <row r="331" spans="1:28">
+      <c r="AC330" s="2"/>
+    </row>
+    <row r="331" spans="1:29">
       <c r="A331" s="2" t="s">
         <v>39</v>
       </c>
@@ -27177,8 +27508,9 @@
         <v>699</v>
       </c>
       <c r="AB331" s="2"/>
-    </row>
-    <row r="332" spans="1:28">
+      <c r="AC331" s="2"/>
+    </row>
+    <row r="332" spans="1:29">
       <c r="A332" s="2" t="s">
         <v>28</v>
       </c>
@@ -27245,8 +27577,9 @@
         <v>713</v>
       </c>
       <c r="AB332" s="2"/>
-    </row>
-    <row r="333" spans="1:28">
+      <c r="AC332" s="2"/>
+    </row>
+    <row r="333" spans="1:29">
       <c r="A333" s="2" t="s">
         <v>39</v>
       </c>
@@ -27313,8 +27646,9 @@
         <v>713</v>
       </c>
       <c r="AB333" s="2"/>
-    </row>
-    <row r="334" spans="1:28">
+      <c r="AC333" s="2"/>
+    </row>
+    <row r="334" spans="1:29">
       <c r="A334" s="2" t="s">
         <v>28</v>
       </c>
@@ -27381,8 +27715,9 @@
         <v>717</v>
       </c>
       <c r="AB334" s="2"/>
-    </row>
-    <row r="335" spans="1:28">
+      <c r="AC334" s="2"/>
+    </row>
+    <row r="335" spans="1:29">
       <c r="A335" s="2" t="s">
         <v>39</v>
       </c>
@@ -27449,8 +27784,9 @@
         <v>717</v>
       </c>
       <c r="AB335" s="2"/>
-    </row>
-    <row r="336" spans="1:28">
+      <c r="AC335" s="2"/>
+    </row>
+    <row r="336" spans="1:29">
       <c r="A336" s="2" t="s">
         <v>28</v>
       </c>
@@ -27517,8 +27853,9 @@
         <v>717</v>
       </c>
       <c r="AB336" s="2"/>
-    </row>
-    <row r="337" spans="1:28">
+      <c r="AC336" s="2"/>
+    </row>
+    <row r="337" spans="1:29">
       <c r="A337" s="2" t="s">
         <v>39</v>
       </c>
@@ -27585,8 +27922,9 @@
         <v>717</v>
       </c>
       <c r="AB337" s="2"/>
-    </row>
-    <row r="338" spans="1:28">
+      <c r="AC337" s="2"/>
+    </row>
+    <row r="338" spans="1:29">
       <c r="A338" s="2" t="s">
         <v>28</v>
       </c>
@@ -27653,8 +27991,9 @@
         <v>717</v>
       </c>
       <c r="AB338" s="2"/>
-    </row>
-    <row r="339" spans="1:28">
+      <c r="AC338" s="2"/>
+    </row>
+    <row r="339" spans="1:29">
       <c r="A339" s="2" t="s">
         <v>39</v>
       </c>
@@ -27721,8 +28060,9 @@
         <v>717</v>
       </c>
       <c r="AB339" s="2"/>
-    </row>
-    <row r="340" spans="1:28">
+      <c r="AC339" s="2"/>
+    </row>
+    <row r="340" spans="1:29">
       <c r="A340" s="2" t="s">
         <v>28</v>
       </c>
@@ -27789,8 +28129,9 @@
         <v>728</v>
       </c>
       <c r="AB340" s="2"/>
-    </row>
-    <row r="341" spans="1:28">
+      <c r="AC340" s="2"/>
+    </row>
+    <row r="341" spans="1:29">
       <c r="A341" s="2" t="s">
         <v>39</v>
       </c>
@@ -27857,8 +28198,9 @@
         <v>728</v>
       </c>
       <c r="AB341" s="2"/>
-    </row>
-    <row r="342" spans="1:28">
+      <c r="AC341" s="2"/>
+    </row>
+    <row r="342" spans="1:29">
       <c r="A342" s="2" t="s">
         <v>28</v>
       </c>
@@ -27925,8 +28267,9 @@
         <v>733</v>
       </c>
       <c r="AB342" s="2"/>
-    </row>
-    <row r="343" spans="1:28">
+      <c r="AC342" s="2"/>
+    </row>
+    <row r="343" spans="1:29">
       <c r="A343" s="2" t="s">
         <v>39</v>
       </c>
@@ -27993,8 +28336,9 @@
         <v>733</v>
       </c>
       <c r="AB343" s="2"/>
-    </row>
-    <row r="344" spans="1:28">
+      <c r="AC343" s="2"/>
+    </row>
+    <row r="344" spans="1:29">
       <c r="A344" s="2" t="s">
         <v>28</v>
       </c>
@@ -28061,8 +28405,9 @@
         <v>738</v>
       </c>
       <c r="AB344" s="2"/>
-    </row>
-    <row r="345" spans="1:28">
+      <c r="AC344" s="2"/>
+    </row>
+    <row r="345" spans="1:29">
       <c r="A345" s="2" t="s">
         <v>39</v>
       </c>
@@ -28129,8 +28474,9 @@
         <v>738</v>
       </c>
       <c r="AB345" s="2"/>
-    </row>
-    <row r="346" spans="1:28">
+      <c r="AC345" s="2"/>
+    </row>
+    <row r="346" spans="1:29">
       <c r="A346" s="2" t="s">
         <v>28</v>
       </c>
@@ -28197,8 +28543,9 @@
         <v>738</v>
       </c>
       <c r="AB346" s="2"/>
-    </row>
-    <row r="347" spans="1:28">
+      <c r="AC346" s="2"/>
+    </row>
+    <row r="347" spans="1:29">
       <c r="A347" s="2" t="s">
         <v>39</v>
       </c>
@@ -28265,8 +28612,9 @@
         <v>738</v>
       </c>
       <c r="AB347" s="2"/>
-    </row>
-    <row r="348" spans="1:28">
+      <c r="AC347" s="2"/>
+    </row>
+    <row r="348" spans="1:29">
       <c r="A348" s="2" t="s">
         <v>28</v>
       </c>
@@ -28333,8 +28681,9 @@
         <v>738</v>
       </c>
       <c r="AB348" s="2"/>
-    </row>
-    <row r="349" spans="1:28">
+      <c r="AC348" s="2"/>
+    </row>
+    <row r="349" spans="1:29">
       <c r="A349" s="2" t="s">
         <v>39</v>
       </c>
@@ -28401,8 +28750,9 @@
         <v>738</v>
       </c>
       <c r="AB349" s="2"/>
-    </row>
-    <row r="350" spans="1:28">
+      <c r="AC349" s="2"/>
+    </row>
+    <row r="350" spans="1:29">
       <c r="A350" s="2" t="s">
         <v>28</v>
       </c>
@@ -28469,8 +28819,9 @@
         <v>749</v>
       </c>
       <c r="AB350" s="2"/>
-    </row>
-    <row r="351" spans="1:28">
+      <c r="AC350" s="2"/>
+    </row>
+    <row r="351" spans="1:29">
       <c r="A351" s="2" t="s">
         <v>39</v>
       </c>
@@ -28537,8 +28888,9 @@
         <v>749</v>
       </c>
       <c r="AB351" s="2"/>
-    </row>
-    <row r="352" spans="1:28">
+      <c r="AC351" s="2"/>
+    </row>
+    <row r="352" spans="1:29">
       <c r="A352" s="2" t="s">
         <v>28</v>
       </c>
@@ -28605,8 +28957,9 @@
         <v>749</v>
       </c>
       <c r="AB352" s="2"/>
-    </row>
-    <row r="353" spans="1:28">
+      <c r="AC352" s="2"/>
+    </row>
+    <row r="353" spans="1:29">
       <c r="A353" s="2" t="s">
         <v>39</v>
       </c>
@@ -28673,8 +29026,9 @@
         <v>749</v>
       </c>
       <c r="AB353" s="2"/>
-    </row>
-    <row r="354" spans="1:28">
+      <c r="AC353" s="2"/>
+    </row>
+    <row r="354" spans="1:29">
       <c r="A354" s="2" t="s">
         <v>28</v>
       </c>
@@ -28741,8 +29095,9 @@
         <v>757</v>
       </c>
       <c r="AB354" s="2"/>
-    </row>
-    <row r="355" spans="1:28">
+      <c r="AC354" s="2"/>
+    </row>
+    <row r="355" spans="1:29">
       <c r="A355" s="2" t="s">
         <v>39</v>
       </c>
@@ -28809,8 +29164,9 @@
         <v>757</v>
       </c>
       <c r="AB355" s="2"/>
-    </row>
-    <row r="356" spans="1:28">
+      <c r="AC355" s="2"/>
+    </row>
+    <row r="356" spans="1:29">
       <c r="A356" s="2" t="s">
         <v>28</v>
       </c>
@@ -28877,8 +29233,9 @@
         <v>757</v>
       </c>
       <c r="AB356" s="2"/>
-    </row>
-    <row r="357" spans="1:28">
+      <c r="AC356" s="2"/>
+    </row>
+    <row r="357" spans="1:29">
       <c r="A357" s="2" t="s">
         <v>39</v>
       </c>
@@ -28945,8 +29302,9 @@
         <v>757</v>
       </c>
       <c r="AB357" s="2"/>
-    </row>
-    <row r="358" spans="1:28">
+      <c r="AC357" s="2"/>
+    </row>
+    <row r="358" spans="1:29">
       <c r="A358" s="2" t="s">
         <v>28</v>
       </c>
@@ -29013,8 +29371,9 @@
         <v>757</v>
       </c>
       <c r="AB358" s="2"/>
-    </row>
-    <row r="359" spans="1:28">
+      <c r="AC358" s="2"/>
+    </row>
+    <row r="359" spans="1:29">
       <c r="A359" s="2" t="s">
         <v>39</v>
       </c>
@@ -29081,8 +29440,9 @@
         <v>757</v>
       </c>
       <c r="AB359" s="2"/>
-    </row>
-    <row r="360" spans="1:28">
+      <c r="AC359" s="2"/>
+    </row>
+    <row r="360" spans="1:29">
       <c r="A360" s="2" t="s">
         <v>28</v>
       </c>
@@ -29149,8 +29509,9 @@
         <v>757</v>
       </c>
       <c r="AB360" s="2"/>
-    </row>
-    <row r="361" spans="1:28">
+      <c r="AC360" s="2"/>
+    </row>
+    <row r="361" spans="1:29">
       <c r="A361" s="2" t="s">
         <v>39</v>
       </c>
@@ -29217,8 +29578,9 @@
         <v>757</v>
       </c>
       <c r="AB361" s="2"/>
-    </row>
-    <row r="362" spans="1:28">
+      <c r="AC361" s="2"/>
+    </row>
+    <row r="362" spans="1:29">
       <c r="A362" s="2" t="s">
         <v>28</v>
       </c>
@@ -29285,8 +29647,9 @@
         <v>771</v>
       </c>
       <c r="AB362" s="2"/>
-    </row>
-    <row r="363" spans="1:28">
+      <c r="AC362" s="2"/>
+    </row>
+    <row r="363" spans="1:29">
       <c r="A363" s="2" t="s">
         <v>39</v>
       </c>
@@ -29353,8 +29716,9 @@
         <v>771</v>
       </c>
       <c r="AB363" s="2"/>
-    </row>
-    <row r="364" spans="1:28">
+      <c r="AC363" s="2"/>
+    </row>
+    <row r="364" spans="1:29">
       <c r="A364" s="2" t="s">
         <v>28</v>
       </c>
@@ -29421,8 +29785,9 @@
         <v>776</v>
       </c>
       <c r="AB364" s="2"/>
-    </row>
-    <row r="365" spans="1:28">
+      <c r="AC364" s="2"/>
+    </row>
+    <row r="365" spans="1:29">
       <c r="A365" s="2" t="s">
         <v>39</v>
       </c>
@@ -29489,8 +29854,9 @@
         <v>776</v>
       </c>
       <c r="AB365" s="2"/>
-    </row>
-    <row r="366" spans="1:28">
+      <c r="AC365" s="2"/>
+    </row>
+    <row r="366" spans="1:29">
       <c r="A366" s="2" t="s">
         <v>28</v>
       </c>
@@ -29557,8 +29923,9 @@
         <v>780</v>
       </c>
       <c r="AB366" s="2"/>
-    </row>
-    <row r="367" spans="1:28">
+      <c r="AC366" s="2"/>
+    </row>
+    <row r="367" spans="1:29">
       <c r="A367" s="2" t="s">
         <v>39</v>
       </c>
@@ -29625,8 +29992,9 @@
         <v>780</v>
       </c>
       <c r="AB367" s="2"/>
-    </row>
-    <row r="368" spans="1:28">
+      <c r="AC367" s="2"/>
+    </row>
+    <row r="368" spans="1:29">
       <c r="A368" s="2" t="s">
         <v>28</v>
       </c>
@@ -29693,8 +30061,9 @@
         <v>780</v>
       </c>
       <c r="AB368" s="2"/>
-    </row>
-    <row r="369" spans="1:28">
+      <c r="AC368" s="2"/>
+    </row>
+    <row r="369" spans="1:29">
       <c r="A369" s="2" t="s">
         <v>39</v>
       </c>
@@ -29761,8 +30130,9 @@
         <v>780</v>
       </c>
       <c r="AB369" s="2"/>
-    </row>
-    <row r="370" spans="1:28">
+      <c r="AC369" s="2"/>
+    </row>
+    <row r="370" spans="1:29">
       <c r="A370" s="2" t="s">
         <v>28</v>
       </c>
@@ -29829,8 +30199,9 @@
         <v>788</v>
       </c>
       <c r="AB370" s="2"/>
-    </row>
-    <row r="371" spans="1:28">
+      <c r="AC370" s="2"/>
+    </row>
+    <row r="371" spans="1:29">
       <c r="A371" s="2" t="s">
         <v>39</v>
       </c>
@@ -29897,8 +30268,9 @@
         <v>788</v>
       </c>
       <c r="AB371" s="2"/>
-    </row>
-    <row r="372" spans="1:28">
+      <c r="AC371" s="2"/>
+    </row>
+    <row r="372" spans="1:29">
       <c r="A372" s="2" t="s">
         <v>28</v>
       </c>
@@ -29965,8 +30337,9 @@
         <v>793</v>
       </c>
       <c r="AB372" s="2"/>
-    </row>
-    <row r="373" spans="1:28">
+      <c r="AC372" s="2"/>
+    </row>
+    <row r="373" spans="1:29">
       <c r="A373" s="2" t="s">
         <v>39</v>
       </c>
@@ -30033,8 +30406,9 @@
         <v>793</v>
       </c>
       <c r="AB373" s="2"/>
-    </row>
-    <row r="374" spans="1:28">
+      <c r="AC373" s="2"/>
+    </row>
+    <row r="374" spans="1:29">
       <c r="A374" s="2" t="s">
         <v>28</v>
       </c>
@@ -30101,8 +30475,9 @@
         <v>793</v>
       </c>
       <c r="AB374" s="2"/>
-    </row>
-    <row r="375" spans="1:28">
+      <c r="AC374" s="2"/>
+    </row>
+    <row r="375" spans="1:29">
       <c r="A375" s="2" t="s">
         <v>39</v>
       </c>
@@ -30169,8 +30544,9 @@
         <v>793</v>
       </c>
       <c r="AB375" s="2"/>
-    </row>
-    <row r="376" spans="1:28">
+      <c r="AC375" s="2"/>
+    </row>
+    <row r="376" spans="1:29">
       <c r="A376" s="2" t="s">
         <v>28</v>
       </c>
@@ -30237,8 +30613,9 @@
         <v>793</v>
       </c>
       <c r="AB376" s="2"/>
-    </row>
-    <row r="377" spans="1:28">
+      <c r="AC376" s="2"/>
+    </row>
+    <row r="377" spans="1:29">
       <c r="A377" s="2" t="s">
         <v>39</v>
       </c>
@@ -30305,8 +30682,9 @@
         <v>793</v>
       </c>
       <c r="AB377" s="2"/>
-    </row>
-    <row r="378" spans="1:28">
+      <c r="AC377" s="2"/>
+    </row>
+    <row r="378" spans="1:29">
       <c r="A378" s="2" t="s">
         <v>28</v>
       </c>
@@ -30373,8 +30751,9 @@
         <v>793</v>
       </c>
       <c r="AB378" s="2"/>
-    </row>
-    <row r="379" spans="1:28">
+      <c r="AC378" s="2"/>
+    </row>
+    <row r="379" spans="1:29">
       <c r="A379" s="2" t="s">
         <v>39</v>
       </c>
@@ -30441,8 +30820,9 @@
         <v>793</v>
       </c>
       <c r="AB379" s="2"/>
-    </row>
-    <row r="380" spans="1:28">
+      <c r="AC379" s="2"/>
+    </row>
+    <row r="380" spans="1:29">
       <c r="A380" s="2" t="s">
         <v>28</v>
       </c>
@@ -30509,8 +30889,9 @@
         <v>807</v>
       </c>
       <c r="AB380" s="2"/>
-    </row>
-    <row r="381" spans="1:28">
+      <c r="AC380" s="2"/>
+    </row>
+    <row r="381" spans="1:29">
       <c r="A381" s="2" t="s">
         <v>39</v>
       </c>
@@ -30577,8 +30958,9 @@
         <v>807</v>
       </c>
       <c r="AB381" s="2"/>
-    </row>
-    <row r="382" spans="1:28">
+      <c r="AC381" s="2"/>
+    </row>
+    <row r="382" spans="1:29">
       <c r="A382" s="2" t="s">
         <v>28</v>
       </c>
@@ -30645,8 +31027,9 @@
         <v>807</v>
       </c>
       <c r="AB382" s="2"/>
-    </row>
-    <row r="383" spans="1:28">
+      <c r="AC382" s="2"/>
+    </row>
+    <row r="383" spans="1:29">
       <c r="A383" s="2" t="s">
         <v>39</v>
       </c>
@@ -30713,8 +31096,9 @@
         <v>807</v>
       </c>
       <c r="AB383" s="2"/>
-    </row>
-    <row r="384" spans="1:28">
+      <c r="AC383" s="2"/>
+    </row>
+    <row r="384" spans="1:29">
       <c r="A384" s="2" t="s">
         <v>28</v>
       </c>
@@ -30781,8 +31165,9 @@
         <v>814</v>
       </c>
       <c r="AB384" s="2"/>
-    </row>
-    <row r="385" spans="1:28">
+      <c r="AC384" s="2"/>
+    </row>
+    <row r="385" spans="1:29">
       <c r="A385" s="2" t="s">
         <v>39</v>
       </c>
@@ -30849,8 +31234,9 @@
         <v>814</v>
       </c>
       <c r="AB385" s="2"/>
-    </row>
-    <row r="386" spans="1:28">
+      <c r="AC385" s="2"/>
+    </row>
+    <row r="386" spans="1:29">
       <c r="A386" s="2" t="s">
         <v>28</v>
       </c>
@@ -30917,8 +31303,9 @@
         <v>814</v>
       </c>
       <c r="AB386" s="2"/>
-    </row>
-    <row r="387" spans="1:28">
+      <c r="AC386" s="2"/>
+    </row>
+    <row r="387" spans="1:29">
       <c r="A387" s="2" t="s">
         <v>39</v>
       </c>
@@ -30985,8 +31372,9 @@
         <v>814</v>
       </c>
       <c r="AB387" s="2"/>
-    </row>
-    <row r="388" spans="1:28">
+      <c r="AC387" s="2"/>
+    </row>
+    <row r="388" spans="1:29">
       <c r="A388" s="2" t="s">
         <v>28</v>
       </c>
@@ -31053,8 +31441,9 @@
         <v>822</v>
       </c>
       <c r="AB388" s="2"/>
-    </row>
-    <row r="389" spans="1:28">
+      <c r="AC388" s="2"/>
+    </row>
+    <row r="389" spans="1:29">
       <c r="A389" s="2" t="s">
         <v>39</v>
       </c>
@@ -31121,8 +31510,9 @@
         <v>822</v>
       </c>
       <c r="AB389" s="2"/>
-    </row>
-    <row r="390" spans="1:28">
+      <c r="AC389" s="2"/>
+    </row>
+    <row r="390" spans="1:29">
       <c r="A390" s="2" t="s">
         <v>28</v>
       </c>
@@ -31189,8 +31579,9 @@
         <v>822</v>
       </c>
       <c r="AB390" s="2"/>
-    </row>
-    <row r="391" spans="1:28">
+      <c r="AC390" s="2"/>
+    </row>
+    <row r="391" spans="1:29">
       <c r="A391" s="2" t="s">
         <v>39</v>
       </c>
@@ -31257,8 +31648,9 @@
         <v>822</v>
       </c>
       <c r="AB391" s="2"/>
-    </row>
-    <row r="392" spans="1:28">
+      <c r="AC391" s="2"/>
+    </row>
+    <row r="392" spans="1:29">
       <c r="A392" s="2" t="s">
         <v>28</v>
       </c>
@@ -31325,8 +31717,9 @@
         <v>830</v>
       </c>
       <c r="AB392" s="2"/>
-    </row>
-    <row r="393" spans="1:28">
+      <c r="AC392" s="2"/>
+    </row>
+    <row r="393" spans="1:29">
       <c r="A393" s="2" t="s">
         <v>39</v>
       </c>
@@ -31393,8 +31786,9 @@
         <v>830</v>
       </c>
       <c r="AB393" s="2"/>
-    </row>
-    <row r="394" spans="1:28">
+      <c r="AC393" s="2"/>
+    </row>
+    <row r="394" spans="1:29">
       <c r="A394" s="2" t="s">
         <v>28</v>
       </c>
@@ -31461,8 +31855,9 @@
         <v>830</v>
       </c>
       <c r="AB394" s="2"/>
-    </row>
-    <row r="395" spans="1:28">
+      <c r="AC394" s="2"/>
+    </row>
+    <row r="395" spans="1:29">
       <c r="A395" s="2" t="s">
         <v>39</v>
       </c>
@@ -31529,8 +31924,9 @@
         <v>830</v>
       </c>
       <c r="AB395" s="2"/>
-    </row>
-    <row r="396" spans="1:28">
+      <c r="AC395" s="2"/>
+    </row>
+    <row r="396" spans="1:29">
       <c r="A396" s="2" t="s">
         <v>28</v>
       </c>
@@ -31597,8 +31993,9 @@
         <v>830</v>
       </c>
       <c r="AB396" s="2"/>
-    </row>
-    <row r="397" spans="1:28">
+      <c r="AC396" s="2"/>
+    </row>
+    <row r="397" spans="1:29">
       <c r="A397" s="2" t="s">
         <v>39</v>
       </c>
@@ -31665,8 +32062,9 @@
         <v>830</v>
       </c>
       <c r="AB397" s="2"/>
-    </row>
-    <row r="398" spans="1:28">
+      <c r="AC397" s="2"/>
+    </row>
+    <row r="398" spans="1:29">
       <c r="A398" s="2" t="s">
         <v>28</v>
       </c>
@@ -31733,8 +32131,9 @@
         <v>830</v>
       </c>
       <c r="AB398" s="2"/>
-    </row>
-    <row r="399" spans="1:28">
+      <c r="AC398" s="2"/>
+    </row>
+    <row r="399" spans="1:29">
       <c r="A399" s="2" t="s">
         <v>39</v>
       </c>
@@ -31801,8 +32200,9 @@
         <v>830</v>
       </c>
       <c r="AB399" s="2"/>
-    </row>
-    <row r="400" spans="1:28">
+      <c r="AC399" s="2"/>
+    </row>
+    <row r="400" spans="1:29">
       <c r="A400" s="2" t="s">
         <v>28</v>
       </c>
@@ -31869,8 +32269,9 @@
         <v>844</v>
       </c>
       <c r="AB400" s="2"/>
-    </row>
-    <row r="401" spans="1:28">
+      <c r="AC400" s="2"/>
+    </row>
+    <row r="401" spans="1:29">
       <c r="A401" s="2" t="s">
         <v>39</v>
       </c>
@@ -31937,8 +32338,9 @@
         <v>844</v>
       </c>
       <c r="AB401" s="2"/>
-    </row>
-    <row r="402" spans="1:28">
+      <c r="AC401" s="2"/>
+    </row>
+    <row r="402" spans="1:29">
       <c r="A402" s="2" t="s">
         <v>28</v>
       </c>
@@ -32005,8 +32407,9 @@
         <v>844</v>
       </c>
       <c r="AB402" s="2"/>
-    </row>
-    <row r="403" spans="1:28">
+      <c r="AC402" s="2"/>
+    </row>
+    <row r="403" spans="1:29">
       <c r="A403" s="2" t="s">
         <v>39</v>
       </c>
@@ -32073,8 +32476,9 @@
         <v>844</v>
       </c>
       <c r="AB403" s="2"/>
-    </row>
-    <row r="404" spans="1:28">
+      <c r="AC403" s="2"/>
+    </row>
+    <row r="404" spans="1:29">
       <c r="A404" s="2" t="s">
         <v>28</v>
       </c>
@@ -32141,8 +32545,9 @@
         <v>851</v>
       </c>
       <c r="AB404" s="2"/>
-    </row>
-    <row r="405" spans="1:28">
+      <c r="AC404" s="2"/>
+    </row>
+    <row r="405" spans="1:29">
       <c r="A405" s="2" t="s">
         <v>39</v>
       </c>
@@ -32209,8 +32614,9 @@
         <v>851</v>
       </c>
       <c r="AB405" s="2"/>
-    </row>
-    <row r="406" spans="1:28">
+      <c r="AC405" s="2"/>
+    </row>
+    <row r="406" spans="1:29">
       <c r="A406" s="2" t="s">
         <v>28</v>
       </c>
@@ -32277,8 +32683,9 @@
         <v>851</v>
       </c>
       <c r="AB406" s="2"/>
-    </row>
-    <row r="407" spans="1:28">
+      <c r="AC406" s="2"/>
+    </row>
+    <row r="407" spans="1:29">
       <c r="A407" s="2" t="s">
         <v>39</v>
       </c>
@@ -32345,8 +32752,9 @@
         <v>851</v>
       </c>
       <c r="AB407" s="2"/>
-    </row>
-    <row r="408" spans="1:28">
+      <c r="AC407" s="2"/>
+    </row>
+    <row r="408" spans="1:29">
       <c r="A408" s="2" t="s">
         <v>28</v>
       </c>
@@ -32413,8 +32821,9 @@
         <v>851</v>
       </c>
       <c r="AB408" s="2"/>
-    </row>
-    <row r="409" spans="1:28">
+      <c r="AC408" s="2"/>
+    </row>
+    <row r="409" spans="1:29">
       <c r="A409" s="2" t="s">
         <v>39</v>
       </c>
@@ -32481,8 +32890,9 @@
         <v>851</v>
       </c>
       <c r="AB409" s="2"/>
-    </row>
-    <row r="410" spans="1:28">
+      <c r="AC409" s="2"/>
+    </row>
+    <row r="410" spans="1:29">
       <c r="A410" s="2" t="s">
         <v>28</v>
       </c>
@@ -32549,8 +32959,9 @@
         <v>861</v>
       </c>
       <c r="AB410" s="2"/>
-    </row>
-    <row r="411" spans="1:28">
+      <c r="AC410" s="2"/>
+    </row>
+    <row r="411" spans="1:29">
       <c r="A411" s="2" t="s">
         <v>39</v>
       </c>
@@ -32617,8 +33028,9 @@
         <v>861</v>
       </c>
       <c r="AB411" s="2"/>
-    </row>
-    <row r="412" spans="1:28">
+      <c r="AC411" s="2"/>
+    </row>
+    <row r="412" spans="1:29">
       <c r="A412" s="2" t="s">
         <v>28</v>
       </c>
@@ -32685,8 +33097,9 @@
         <v>861</v>
       </c>
       <c r="AB412" s="2"/>
-    </row>
-    <row r="413" spans="1:28">
+      <c r="AC412" s="2"/>
+    </row>
+    <row r="413" spans="1:29">
       <c r="A413" s="2" t="s">
         <v>39</v>
       </c>
@@ -32753,8 +33166,9 @@
         <v>861</v>
       </c>
       <c r="AB413" s="2"/>
-    </row>
-    <row r="414" spans="1:28">
+      <c r="AC413" s="2"/>
+    </row>
+    <row r="414" spans="1:29">
       <c r="A414" s="2" t="s">
         <v>28</v>
       </c>
@@ -32821,8 +33235,9 @@
         <v>867</v>
       </c>
       <c r="AB414" s="2"/>
-    </row>
-    <row r="415" spans="1:28">
+      <c r="AC414" s="2"/>
+    </row>
+    <row r="415" spans="1:29">
       <c r="A415" s="2" t="s">
         <v>39</v>
       </c>
@@ -32889,8 +33304,9 @@
         <v>867</v>
       </c>
       <c r="AB415" s="2"/>
-    </row>
-    <row r="416" spans="1:28">
+      <c r="AC415" s="2"/>
+    </row>
+    <row r="416" spans="1:29">
       <c r="A416" s="2" t="s">
         <v>28</v>
       </c>
@@ -32957,8 +33373,9 @@
         <v>867</v>
       </c>
       <c r="AB416" s="2"/>
-    </row>
-    <row r="417" spans="1:28">
+      <c r="AC416" s="2"/>
+    </row>
+    <row r="417" spans="1:29">
       <c r="A417" s="2" t="s">
         <v>39</v>
       </c>
@@ -33025,8 +33442,9 @@
         <v>867</v>
       </c>
       <c r="AB417" s="2"/>
-    </row>
-    <row r="418" spans="1:28">
+      <c r="AC417" s="2"/>
+    </row>
+    <row r="418" spans="1:29">
       <c r="A418" s="2" t="s">
         <v>28</v>
       </c>
@@ -33093,8 +33511,9 @@
         <v>875</v>
       </c>
       <c r="AB418" s="2"/>
-    </row>
-    <row r="419" spans="1:28">
+      <c r="AC418" s="2"/>
+    </row>
+    <row r="419" spans="1:29">
       <c r="A419" s="2" t="s">
         <v>39</v>
       </c>
@@ -33161,8 +33580,9 @@
         <v>875</v>
       </c>
       <c r="AB419" s="2"/>
-    </row>
-    <row r="420" spans="1:28">
+      <c r="AC419" s="2"/>
+    </row>
+    <row r="420" spans="1:29">
       <c r="A420" s="2" t="s">
         <v>28</v>
       </c>
@@ -33229,8 +33649,9 @@
         <v>879</v>
       </c>
       <c r="AB420" s="2"/>
-    </row>
-    <row r="421" spans="1:28">
+      <c r="AC420" s="2"/>
+    </row>
+    <row r="421" spans="1:29">
       <c r="A421" s="2" t="s">
         <v>39</v>
       </c>
@@ -33297,8 +33718,9 @@
         <v>879</v>
       </c>
       <c r="AB421" s="2"/>
-    </row>
-    <row r="422" spans="1:28">
+      <c r="AC421" s="2"/>
+    </row>
+    <row r="422" spans="1:29">
       <c r="A422" s="2" t="s">
         <v>28</v>
       </c>
@@ -33365,8 +33787,9 @@
         <v>884</v>
       </c>
       <c r="AB422" s="2"/>
-    </row>
-    <row r="423" spans="1:28">
+      <c r="AC422" s="2"/>
+    </row>
+    <row r="423" spans="1:29">
       <c r="A423" s="2" t="s">
         <v>39</v>
       </c>
@@ -33433,8 +33856,9 @@
         <v>884</v>
       </c>
       <c r="AB423" s="2"/>
-    </row>
-    <row r="424" spans="1:28">
+      <c r="AC423" s="2"/>
+    </row>
+    <row r="424" spans="1:29">
       <c r="A424" s="2" t="s">
         <v>28</v>
       </c>
@@ -33501,8 +33925,9 @@
         <v>889</v>
       </c>
       <c r="AB424" s="2"/>
-    </row>
-    <row r="425" spans="1:28">
+      <c r="AC424" s="2"/>
+    </row>
+    <row r="425" spans="1:29">
       <c r="A425" s="2" t="s">
         <v>39</v>
       </c>
@@ -33569,8 +33994,9 @@
         <v>889</v>
       </c>
       <c r="AB425" s="2"/>
-    </row>
-    <row r="426" spans="1:28">
+      <c r="AC425" s="2"/>
+    </row>
+    <row r="426" spans="1:29">
       <c r="A426" s="2" t="s">
         <v>28</v>
       </c>
@@ -33637,8 +34063,9 @@
         <v>889</v>
       </c>
       <c r="AB426" s="2"/>
-    </row>
-    <row r="427" spans="1:28">
+      <c r="AC426" s="2"/>
+    </row>
+    <row r="427" spans="1:29">
       <c r="A427" s="2" t="s">
         <v>39</v>
       </c>
@@ -33705,8 +34132,9 @@
         <v>889</v>
       </c>
       <c r="AB427" s="2"/>
-    </row>
-    <row r="428" spans="1:28">
+      <c r="AC427" s="2"/>
+    </row>
+    <row r="428" spans="1:29">
       <c r="A428" s="2" t="s">
         <v>28</v>
       </c>
@@ -33773,8 +34201,9 @@
         <v>896</v>
       </c>
       <c r="AB428" s="2"/>
-    </row>
-    <row r="429" spans="1:28">
+      <c r="AC428" s="2"/>
+    </row>
+    <row r="429" spans="1:29">
       <c r="A429" s="2" t="s">
         <v>39</v>
       </c>
@@ -33841,8 +34270,9 @@
         <v>896</v>
       </c>
       <c r="AB429" s="2"/>
-    </row>
-    <row r="430" spans="1:28">
+      <c r="AC429" s="2"/>
+    </row>
+    <row r="430" spans="1:29">
       <c r="A430" s="2" t="s">
         <v>28</v>
       </c>
@@ -33909,8 +34339,9 @@
         <v>896</v>
       </c>
       <c r="AB430" s="2"/>
-    </row>
-    <row r="431" spans="1:28">
+      <c r="AC430" s="2"/>
+    </row>
+    <row r="431" spans="1:29">
       <c r="A431" s="2" t="s">
         <v>39</v>
       </c>
@@ -33977,8 +34408,9 @@
         <v>896</v>
       </c>
       <c r="AB431" s="2"/>
-    </row>
-    <row r="432" spans="1:28">
+      <c r="AC431" s="2"/>
+    </row>
+    <row r="432" spans="1:29">
       <c r="A432" s="2" t="s">
         <v>28</v>
       </c>
@@ -34045,8 +34477,9 @@
         <v>903</v>
       </c>
       <c r="AB432" s="2"/>
-    </row>
-    <row r="433" spans="1:28">
+      <c r="AC432" s="2"/>
+    </row>
+    <row r="433" spans="1:29">
       <c r="A433" s="2" t="s">
         <v>39</v>
       </c>
@@ -34113,8 +34546,9 @@
         <v>903</v>
       </c>
       <c r="AB433" s="2"/>
-    </row>
-    <row r="434" spans="1:28">
+      <c r="AC433" s="2"/>
+    </row>
+    <row r="434" spans="1:29">
       <c r="A434" s="2" t="s">
         <v>28</v>
       </c>
@@ -34181,8 +34615,9 @@
         <v>908</v>
       </c>
       <c r="AB434" s="2"/>
-    </row>
-    <row r="435" spans="1:28">
+      <c r="AC434" s="2"/>
+    </row>
+    <row r="435" spans="1:29">
       <c r="A435" s="2" t="s">
         <v>39</v>
       </c>
@@ -34249,8 +34684,9 @@
         <v>908</v>
       </c>
       <c r="AB435" s="2"/>
-    </row>
-    <row r="436" spans="1:28">
+      <c r="AC435" s="2"/>
+    </row>
+    <row r="436" spans="1:29">
       <c r="A436" s="2" t="s">
         <v>28</v>
       </c>
@@ -34317,8 +34753,9 @@
         <v>903</v>
       </c>
       <c r="AB436" s="2"/>
-    </row>
-    <row r="437" spans="1:28">
+      <c r="AC436" s="2"/>
+    </row>
+    <row r="437" spans="1:29">
       <c r="A437" s="2" t="s">
         <v>39</v>
       </c>
@@ -34385,8 +34822,9 @@
         <v>903</v>
       </c>
       <c r="AB437" s="2"/>
-    </row>
-    <row r="438" spans="1:28">
+      <c r="AC437" s="2"/>
+    </row>
+    <row r="438" spans="1:29">
       <c r="A438" s="2" t="s">
         <v>28</v>
       </c>
@@ -34453,8 +34891,9 @@
         <v>908</v>
       </c>
       <c r="AB438" s="2"/>
-    </row>
-    <row r="439" spans="1:28">
+      <c r="AC438" s="2"/>
+    </row>
+    <row r="439" spans="1:29">
       <c r="A439" s="2" t="s">
         <v>39</v>
       </c>
@@ -34521,8 +34960,9 @@
         <v>908</v>
       </c>
       <c r="AB439" s="2"/>
-    </row>
-    <row r="440" spans="1:28">
+      <c r="AC439" s="2"/>
+    </row>
+    <row r="440" spans="1:29">
       <c r="A440" s="2" t="s">
         <v>28</v>
       </c>
@@ -34589,8 +35029,9 @@
         <v>908</v>
       </c>
       <c r="AB440" s="2"/>
-    </row>
-    <row r="441" spans="1:28">
+      <c r="AC440" s="2"/>
+    </row>
+    <row r="441" spans="1:29">
       <c r="A441" s="2" t="s">
         <v>39</v>
       </c>
@@ -34657,8 +35098,9 @@
         <v>908</v>
       </c>
       <c r="AB441" s="2"/>
-    </row>
-    <row r="442" spans="1:28">
+      <c r="AC441" s="2"/>
+    </row>
+    <row r="442" spans="1:29">
       <c r="A442" s="2" t="s">
         <v>28</v>
       </c>
@@ -34725,8 +35167,9 @@
         <v>908</v>
       </c>
       <c r="AB442" s="2"/>
-    </row>
-    <row r="443" spans="1:28">
+      <c r="AC442" s="2"/>
+    </row>
+    <row r="443" spans="1:29">
       <c r="A443" s="2" t="s">
         <v>39</v>
       </c>
@@ -34793,8 +35236,9 @@
         <v>908</v>
       </c>
       <c r="AB443" s="2"/>
-    </row>
-    <row r="444" spans="1:28">
+      <c r="AC443" s="2"/>
+    </row>
+    <row r="444" spans="1:29">
       <c r="A444" s="2" t="s">
         <v>28</v>
       </c>
@@ -34861,8 +35305,9 @@
         <v>908</v>
       </c>
       <c r="AB444" s="2"/>
-    </row>
-    <row r="445" spans="1:28">
+      <c r="AC444" s="2"/>
+    </row>
+    <row r="445" spans="1:29">
       <c r="A445" s="2" t="s">
         <v>39</v>
       </c>
@@ -34929,8 +35374,9 @@
         <v>908</v>
       </c>
       <c r="AB445" s="2"/>
-    </row>
-    <row r="446" spans="1:28">
+      <c r="AC445" s="2"/>
+    </row>
+    <row r="446" spans="1:29">
       <c r="A446" s="2" t="s">
         <v>28</v>
       </c>
@@ -34997,8 +35443,9 @@
         <v>928</v>
       </c>
       <c r="AB446" s="2"/>
-    </row>
-    <row r="447" spans="1:28">
+      <c r="AC446" s="2"/>
+    </row>
+    <row r="447" spans="1:29">
       <c r="A447" s="2" t="s">
         <v>39</v>
       </c>
@@ -35065,8 +35512,9 @@
         <v>928</v>
       </c>
       <c r="AB447" s="2"/>
-    </row>
-    <row r="448" spans="1:28">
+      <c r="AC447" s="2"/>
+    </row>
+    <row r="448" spans="1:29">
       <c r="A448" s="2" t="s">
         <v>28</v>
       </c>
@@ -35133,8 +35581,9 @@
         <v>928</v>
       </c>
       <c r="AB448" s="2"/>
-    </row>
-    <row r="449" spans="1:28">
+      <c r="AC448" s="2"/>
+    </row>
+    <row r="449" spans="1:29">
       <c r="A449" s="2" t="s">
         <v>39</v>
       </c>
@@ -35201,8 +35650,9 @@
         <v>928</v>
       </c>
       <c r="AB449" s="2"/>
-    </row>
-    <row r="450" spans="1:28">
+      <c r="AC449" s="2"/>
+    </row>
+    <row r="450" spans="1:29">
       <c r="A450" s="2" t="s">
         <v>28</v>
       </c>
@@ -35269,8 +35719,9 @@
         <v>928</v>
       </c>
       <c r="AB450" s="2"/>
-    </row>
-    <row r="451" spans="1:28">
+      <c r="AC450" s="2"/>
+    </row>
+    <row r="451" spans="1:29">
       <c r="A451" s="2" t="s">
         <v>39</v>
       </c>
@@ -35337,8 +35788,9 @@
         <v>928</v>
       </c>
       <c r="AB451" s="2"/>
-    </row>
-    <row r="452" spans="1:28">
+      <c r="AC451" s="2"/>
+    </row>
+    <row r="452" spans="1:29">
       <c r="A452" s="2" t="s">
         <v>28</v>
       </c>
@@ -35405,8 +35857,9 @@
         <v>939</v>
       </c>
       <c r="AB452" s="2"/>
-    </row>
-    <row r="453" spans="1:28">
+      <c r="AC452" s="2"/>
+    </row>
+    <row r="453" spans="1:29">
       <c r="A453" s="2" t="s">
         <v>39</v>
       </c>
@@ -35473,8 +35926,9 @@
         <v>939</v>
       </c>
       <c r="AB453" s="2"/>
-    </row>
-    <row r="454" spans="1:28">
+      <c r="AC453" s="2"/>
+    </row>
+    <row r="454" spans="1:29">
       <c r="A454" s="2" t="s">
         <v>28</v>
       </c>
@@ -35541,8 +35995,9 @@
         <v>944</v>
       </c>
       <c r="AB454" s="2"/>
-    </row>
-    <row r="455" spans="1:28">
+      <c r="AC454" s="2"/>
+    </row>
+    <row r="455" spans="1:29">
       <c r="A455" s="2" t="s">
         <v>39</v>
       </c>
@@ -35609,8 +36064,9 @@
         <v>944</v>
       </c>
       <c r="AB455" s="2"/>
-    </row>
-    <row r="456" spans="1:28">
+      <c r="AC455" s="2"/>
+    </row>
+    <row r="456" spans="1:29">
       <c r="A456" s="2" t="s">
         <v>28</v>
       </c>
@@ -35677,8 +36133,9 @@
         <v>949</v>
       </c>
       <c r="AB456" s="2"/>
-    </row>
-    <row r="457" spans="1:28">
+      <c r="AC456" s="2"/>
+    </row>
+    <row r="457" spans="1:29">
       <c r="A457" s="2" t="s">
         <v>39</v>
       </c>
@@ -35745,8 +36202,9 @@
         <v>949</v>
       </c>
       <c r="AB457" s="2"/>
-    </row>
-    <row r="458" spans="1:28">
+      <c r="AC457" s="2"/>
+    </row>
+    <row r="458" spans="1:29">
       <c r="A458" s="2" t="s">
         <v>28</v>
       </c>
@@ -35813,8 +36271,9 @@
         <v>954</v>
       </c>
       <c r="AB458" s="2"/>
-    </row>
-    <row r="459" spans="1:28">
+      <c r="AC458" s="2"/>
+    </row>
+    <row r="459" spans="1:29">
       <c r="A459" s="2" t="s">
         <v>39</v>
       </c>
@@ -35881,8 +36340,9 @@
         <v>954</v>
       </c>
       <c r="AB459" s="2"/>
-    </row>
-    <row r="460" spans="1:28">
+      <c r="AC459" s="2"/>
+    </row>
+    <row r="460" spans="1:29">
       <c r="A460" s="2" t="s">
         <v>28</v>
       </c>
@@ -35949,8 +36409,9 @@
         <v>954</v>
       </c>
       <c r="AB460" s="2"/>
-    </row>
-    <row r="461" spans="1:28">
+      <c r="AC460" s="2"/>
+    </row>
+    <row r="461" spans="1:29">
       <c r="A461" s="2" t="s">
         <v>39</v>
       </c>
@@ -36017,8 +36478,9 @@
         <v>954</v>
       </c>
       <c r="AB461" s="2"/>
-    </row>
-    <row r="462" spans="1:28">
+      <c r="AC461" s="2"/>
+    </row>
+    <row r="462" spans="1:29">
       <c r="A462" s="2" t="s">
         <v>28</v>
       </c>
@@ -36085,8 +36547,9 @@
         <v>954</v>
       </c>
       <c r="AB462" s="2"/>
-    </row>
-    <row r="463" spans="1:28">
+      <c r="AC462" s="2"/>
+    </row>
+    <row r="463" spans="1:29">
       <c r="A463" s="2" t="s">
         <v>39</v>
       </c>
@@ -36153,8 +36616,9 @@
         <v>954</v>
       </c>
       <c r="AB463" s="2"/>
-    </row>
-    <row r="464" spans="1:28">
+      <c r="AC463" s="2"/>
+    </row>
+    <row r="464" spans="1:29">
       <c r="A464" s="2" t="s">
         <v>28</v>
       </c>
@@ -36221,8 +36685,9 @@
         <v>954</v>
       </c>
       <c r="AB464" s="2"/>
-    </row>
-    <row r="465" spans="1:28">
+      <c r="AC464" s="2"/>
+    </row>
+    <row r="465" spans="1:29">
       <c r="A465" s="2" t="s">
         <v>39</v>
       </c>
@@ -36289,8 +36754,9 @@
         <v>954</v>
       </c>
       <c r="AB465" s="2"/>
-    </row>
-    <row r="466" spans="1:28">
+      <c r="AC465" s="2"/>
+    </row>
+    <row r="466" spans="1:29">
       <c r="A466" s="2" t="s">
         <v>28</v>
       </c>
@@ -36357,8 +36823,9 @@
         <v>966</v>
       </c>
       <c r="AB466" s="2"/>
-    </row>
-    <row r="467" spans="1:28">
+      <c r="AC466" s="2"/>
+    </row>
+    <row r="467" spans="1:29">
       <c r="A467" s="2" t="s">
         <v>39</v>
       </c>
@@ -36425,8 +36892,9 @@
         <v>966</v>
       </c>
       <c r="AB467" s="2"/>
-    </row>
-    <row r="468" spans="1:28">
+      <c r="AC467" s="2"/>
+    </row>
+    <row r="468" spans="1:29">
       <c r="A468" s="2" t="s">
         <v>28</v>
       </c>
@@ -36493,8 +36961,9 @@
         <v>966</v>
       </c>
       <c r="AB468" s="2"/>
-    </row>
-    <row r="469" spans="1:28">
+      <c r="AC468" s="2"/>
+    </row>
+    <row r="469" spans="1:29">
       <c r="A469" s="2" t="s">
         <v>39</v>
       </c>
@@ -36561,8 +37030,9 @@
         <v>966</v>
       </c>
       <c r="AB469" s="2"/>
-    </row>
-    <row r="470" spans="1:28">
+      <c r="AC469" s="2"/>
+    </row>
+    <row r="470" spans="1:29">
       <c r="A470" s="2" t="s">
         <v>28</v>
       </c>
@@ -36629,8 +37099,9 @@
         <v>966</v>
       </c>
       <c r="AB470" s="2"/>
-    </row>
-    <row r="471" spans="1:28">
+      <c r="AC470" s="2"/>
+    </row>
+    <row r="471" spans="1:29">
       <c r="A471" s="2" t="s">
         <v>39</v>
       </c>
@@ -36697,8 +37168,9 @@
         <v>966</v>
       </c>
       <c r="AB471" s="2"/>
-    </row>
-    <row r="472" spans="1:28">
+      <c r="AC471" s="2"/>
+    </row>
+    <row r="472" spans="1:29">
       <c r="A472" s="2" t="s">
         <v>28</v>
       </c>
@@ -36765,8 +37237,9 @@
         <v>966</v>
       </c>
       <c r="AB472" s="2"/>
-    </row>
-    <row r="473" spans="1:28">
+      <c r="AC472" s="2"/>
+    </row>
+    <row r="473" spans="1:29">
       <c r="A473" s="2" t="s">
         <v>39</v>
       </c>
@@ -36833,8 +37306,9 @@
         <v>966</v>
       </c>
       <c r="AB473" s="2"/>
-    </row>
-    <row r="474" spans="1:28">
+      <c r="AC473" s="2"/>
+    </row>
+    <row r="474" spans="1:29">
       <c r="A474" s="2" t="s">
         <v>28</v>
       </c>
@@ -36899,8 +37373,9 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
       <c r="AB474" s="2"/>
-    </row>
-    <row r="475" spans="1:28">
+      <c r="AC474" s="2"/>
+    </row>
+    <row r="475" spans="1:29">
       <c r="A475" s="2" t="s">
         <v>28</v>
       </c>
@@ -36965,8 +37440,9 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
       <c r="AB475" s="2"/>
-    </row>
-    <row r="476" spans="1:28">
+      <c r="AC475" s="2"/>
+    </row>
+    <row r="476" spans="1:29">
       <c r="A476" s="2" t="s">
         <v>28</v>
       </c>
@@ -37031,8 +37507,9 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
       <c r="AB476" s="2"/>
-    </row>
-    <row r="477" spans="1:28">
+      <c r="AC476" s="2"/>
+    </row>
+    <row r="477" spans="1:29">
       <c r="A477" s="2" t="s">
         <v>28</v>
       </c>
@@ -37097,8 +37574,9 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
       <c r="AB477" s="2"/>
-    </row>
-    <row r="478" spans="1:28">
+      <c r="AC477" s="2"/>
+    </row>
+    <row r="478" spans="1:29">
       <c r="A478" s="2" t="s">
         <v>28</v>
       </c>
@@ -37163,8 +37641,9 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
       <c r="AB478" s="2"/>
-    </row>
-    <row r="479" spans="1:28">
+      <c r="AC478" s="2"/>
+    </row>
+    <row r="479" spans="1:29">
       <c r="A479" s="2" t="s">
         <v>28</v>
       </c>
@@ -37229,8 +37708,9 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
       <c r="AB479" s="2"/>
-    </row>
-    <row r="480" spans="1:28">
+      <c r="AC479" s="2"/>
+    </row>
+    <row r="480" spans="1:29">
       <c r="A480" s="2" t="s">
         <v>28</v>
       </c>
@@ -37295,8 +37775,9 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
       <c r="AB480" s="2"/>
-    </row>
-    <row r="481" spans="1:28">
+      <c r="AC480" s="2"/>
+    </row>
+    <row r="481" spans="1:29">
       <c r="A481" s="2" t="s">
         <v>28</v>
       </c>
@@ -37361,8 +37842,9 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
       <c r="AB481" s="2"/>
-    </row>
-    <row r="482" spans="1:28">
+      <c r="AC481" s="2"/>
+    </row>
+    <row r="482" spans="1:29">
       <c r="A482" s="2" t="s">
         <v>28</v>
       </c>
@@ -37427,8 +37909,9 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
       <c r="AB482" s="2"/>
-    </row>
-    <row r="483" spans="1:28">
+      <c r="AC482" s="2"/>
+    </row>
+    <row r="483" spans="1:29">
       <c r="A483" s="2" t="s">
         <v>28</v>
       </c>
@@ -37493,8 +37976,9 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
       <c r="AB483" s="2"/>
-    </row>
-    <row r="484" spans="1:28">
+      <c r="AC483" s="2"/>
+    </row>
+    <row r="484" spans="1:29">
       <c r="A484" s="2" t="s">
         <v>28</v>
       </c>
@@ -37559,8 +38043,9 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
       <c r="AB484" s="2"/>
-    </row>
-    <row r="485" spans="1:28">
+      <c r="AC484" s="2"/>
+    </row>
+    <row r="485" spans="1:29">
       <c r="A485" s="2" t="s">
         <v>28</v>
       </c>
@@ -37625,8 +38110,9 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
       <c r="AB485" s="2"/>
-    </row>
-    <row r="486" spans="1:28">
+      <c r="AC485" s="2"/>
+    </row>
+    <row r="486" spans="1:29">
       <c r="A486" s="2" t="s">
         <v>28</v>
       </c>
@@ -37691,8 +38177,9 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
       <c r="AB486" s="2"/>
-    </row>
-    <row r="487" spans="1:28">
+      <c r="AC486" s="2"/>
+    </row>
+    <row r="487" spans="1:29">
       <c r="A487" s="2" t="s">
         <v>28</v>
       </c>
@@ -37757,8 +38244,9 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
       <c r="AB487" s="2"/>
-    </row>
-    <row r="488" spans="1:28">
+      <c r="AC487" s="2"/>
+    </row>
+    <row r="488" spans="1:29">
       <c r="A488" s="2" t="s">
         <v>28</v>
       </c>
@@ -37823,8 +38311,9 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
       <c r="AB488" s="2"/>
-    </row>
-    <row r="489" spans="1:28">
+      <c r="AC488" s="2"/>
+    </row>
+    <row r="489" spans="1:29">
       <c r="A489" s="2" t="s">
         <v>28</v>
       </c>
@@ -37889,8 +38378,9 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
       <c r="AB489" s="2"/>
-    </row>
-    <row r="490" spans="1:28">
+      <c r="AC489" s="2"/>
+    </row>
+    <row r="490" spans="1:29">
       <c r="A490" s="2" t="s">
         <v>28</v>
       </c>
@@ -37955,8 +38445,9 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
       <c r="AB490" s="2"/>
-    </row>
-    <row r="491" spans="1:28">
+      <c r="AC490" s="2"/>
+    </row>
+    <row r="491" spans="1:29">
       <c r="A491" s="2" t="s">
         <v>28</v>
       </c>
@@ -38021,8 +38512,9 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
       <c r="AB491" s="2"/>
-    </row>
-    <row r="492" spans="1:28">
+      <c r="AC491" s="2"/>
+    </row>
+    <row r="492" spans="1:29">
       <c r="A492" s="2" t="s">
         <v>28</v>
       </c>
@@ -38087,8 +38579,9 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
       <c r="AB492" s="2"/>
-    </row>
-    <row r="493" spans="1:28">
+      <c r="AC492" s="2"/>
+    </row>
+    <row r="493" spans="1:29">
       <c r="A493" s="2" t="s">
         <v>28</v>
       </c>
@@ -38153,8 +38646,9 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
       <c r="AB493" s="2"/>
-    </row>
-    <row r="494" spans="1:28">
+      <c r="AC493" s="2"/>
+    </row>
+    <row r="494" spans="1:29">
       <c r="A494" s="2" t="s">
         <v>28</v>
       </c>
@@ -38219,8 +38713,9 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
       <c r="AB494" s="2"/>
-    </row>
-    <row r="495" spans="1:28">
+      <c r="AC494" s="2"/>
+    </row>
+    <row r="495" spans="1:29">
       <c r="A495" s="2" t="s">
         <v>28</v>
       </c>
@@ -38285,8 +38780,9 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
       <c r="AB495" s="2"/>
-    </row>
-    <row r="496" spans="1:28">
+      <c r="AC495" s="2"/>
+    </row>
+    <row r="496" spans="1:29">
       <c r="A496" s="2" t="s">
         <v>28</v>
       </c>
@@ -38351,8 +38847,9 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
       <c r="AB496" s="2"/>
-    </row>
-    <row r="497" spans="1:28">
+      <c r="AC496" s="2"/>
+    </row>
+    <row r="497" spans="1:29">
       <c r="A497" s="2" t="s">
         <v>28</v>
       </c>
@@ -38417,8 +38914,9 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
       <c r="AB497" s="2"/>
-    </row>
-    <row r="498" spans="1:28">
+      <c r="AC497" s="2"/>
+    </row>
+    <row r="498" spans="1:29">
       <c r="A498" s="2" t="s">
         <v>28</v>
       </c>
@@ -38477,8 +38975,9 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
       <c r="AB498" s="2"/>
-    </row>
-    <row r="499" spans="1:28">
+      <c r="AC498" s="2"/>
+    </row>
+    <row r="499" spans="1:29">
       <c r="A499" s="2" t="s">
         <v>28</v>
       </c>
@@ -38543,8 +39042,9 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
       <c r="AB499" s="2"/>
-    </row>
-    <row r="500" spans="1:28">
+      <c r="AC499" s="2"/>
+    </row>
+    <row r="500" spans="1:29">
       <c r="A500" s="2" t="s">
         <v>28</v>
       </c>
@@ -38609,8 +39109,9 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
       <c r="AB500" s="2"/>
-    </row>
-    <row r="501" spans="1:28">
+      <c r="AC500" s="2"/>
+    </row>
+    <row r="501" spans="1:29">
       <c r="A501" s="2" t="s">
         <v>28</v>
       </c>
@@ -38675,8 +39176,9 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
       <c r="AB501" s="2"/>
-    </row>
-    <row r="502" spans="1:28">
+      <c r="AC501" s="2"/>
+    </row>
+    <row r="502" spans="1:29">
       <c r="A502" s="2" t="s">
         <v>28</v>
       </c>
@@ -38741,8 +39243,9 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
       <c r="AB502" s="2"/>
-    </row>
-    <row r="503" spans="1:28">
+      <c r="AC502" s="2"/>
+    </row>
+    <row r="503" spans="1:29">
       <c r="A503" s="2" t="s">
         <v>28</v>
       </c>
@@ -38807,8 +39310,9 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
       <c r="AB503" s="2"/>
-    </row>
-    <row r="504" spans="1:28">
+      <c r="AC503" s="2"/>
+    </row>
+    <row r="504" spans="1:29">
       <c r="A504" s="2" t="s">
         <v>28</v>
       </c>
@@ -38873,8 +39377,9 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
       <c r="AB504" s="2"/>
-    </row>
-    <row r="505" spans="1:28">
+      <c r="AC504" s="2"/>
+    </row>
+    <row r="505" spans="1:29">
       <c r="A505" s="2" t="s">
         <v>28</v>
       </c>
@@ -38941,8 +39446,9 @@
         <v>1013</v>
       </c>
       <c r="AB505" s="2"/>
-    </row>
-    <row r="506" spans="1:28">
+      <c r="AC505" s="2"/>
+    </row>
+    <row r="506" spans="1:29">
       <c r="A506" s="2" t="s">
         <v>28</v>
       </c>
@@ -39009,8 +39515,9 @@
         <v>1015</v>
       </c>
       <c r="AB506" s="2"/>
-    </row>
-    <row r="507" spans="1:28">
+      <c r="AC506" s="2"/>
+    </row>
+    <row r="507" spans="1:29">
       <c r="A507" s="2" t="s">
         <v>28</v>
       </c>
@@ -39077,8 +39584,9 @@
         <v>1017</v>
       </c>
       <c r="AB507" s="2"/>
-    </row>
-    <row r="508" spans="1:28">
+      <c r="AC507" s="2"/>
+    </row>
+    <row r="508" spans="1:29">
       <c r="A508" s="2" t="s">
         <v>28</v>
       </c>
@@ -39145,8 +39653,9 @@
         <v>1024</v>
       </c>
       <c r="AB508" s="2"/>
-    </row>
-    <row r="509" spans="1:28">
+      <c r="AC508" s="2"/>
+    </row>
+    <row r="509" spans="1:29">
       <c r="A509" s="2" t="s">
         <v>28</v>
       </c>
@@ -39213,8 +39722,9 @@
         <v>1026</v>
       </c>
       <c r="AB509" s="2"/>
-    </row>
-    <row r="510" spans="1:28">
+      <c r="AC509" s="2"/>
+    </row>
+    <row r="510" spans="1:29">
       <c r="A510" s="2" t="s">
         <v>28</v>
       </c>
@@ -39281,8 +39791,9 @@
         <v>1028</v>
       </c>
       <c r="AB510" s="2"/>
-    </row>
-    <row r="511" spans="1:28">
+      <c r="AC510" s="2"/>
+    </row>
+    <row r="511" spans="1:29">
       <c r="A511" s="2" t="s">
         <v>28</v>
       </c>
@@ -39349,8 +39860,9 @@
         <v>454</v>
       </c>
       <c r="AB511" s="2"/>
-    </row>
-    <row r="512" spans="1:28">
+      <c r="AC511" s="2"/>
+    </row>
+    <row r="512" spans="1:29">
       <c r="A512" s="2" t="s">
         <v>28</v>
       </c>
@@ -39417,8 +39929,9 @@
         <v>631</v>
       </c>
       <c r="AB512" s="2"/>
-    </row>
-    <row r="513" spans="1:28">
+      <c r="AC512" s="2"/>
+    </row>
+    <row r="513" spans="1:29">
       <c r="A513" s="2" t="s">
         <v>28</v>
       </c>
@@ -39483,8 +39996,9 @@
       <c r="Z513" s="2"/>
       <c r="AA513" s="2"/>
       <c r="AB513" s="2"/>
-    </row>
-    <row r="514" spans="1:28">
+      <c r="AC513" s="2"/>
+    </row>
+    <row r="514" spans="1:29">
       <c r="A514" s="2" t="s">
         <v>28</v>
       </c>
@@ -39549,8 +40063,9 @@
       <c r="Z514" s="2"/>
       <c r="AA514" s="2"/>
       <c r="AB514" s="2"/>
-    </row>
-    <row r="515" spans="1:28">
+      <c r="AC514" s="2"/>
+    </row>
+    <row r="515" spans="1:29">
       <c r="A515" s="2" t="s">
         <v>28</v>
       </c>
@@ -39615,8 +40130,9 @@
       <c r="Z515" s="2"/>
       <c r="AA515" s="2"/>
       <c r="AB515" s="2"/>
-    </row>
-    <row r="516" spans="1:28">
+      <c r="AC515" s="2"/>
+    </row>
+    <row r="516" spans="1:29">
       <c r="A516" s="2" t="s">
         <v>28</v>
       </c>
@@ -39681,8 +40197,9 @@
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
       <c r="AB516" s="2"/>
-    </row>
-    <row r="517" spans="1:28">
+      <c r="AC516" s="2"/>
+    </row>
+    <row r="517" spans="1:29">
       <c r="A517" s="2" t="s">
         <v>28</v>
       </c>
@@ -39747,8 +40264,9 @@
       <c r="Z517" s="2"/>
       <c r="AA517" s="2"/>
       <c r="AB517" s="2"/>
-    </row>
-    <row r="518" spans="1:28">
+      <c r="AC517" s="2"/>
+    </row>
+    <row r="518" spans="1:29">
       <c r="A518" s="2" t="s">
         <v>28</v>
       </c>
@@ -39813,8 +40331,9 @@
       <c r="Z518" s="2"/>
       <c r="AA518" s="2"/>
       <c r="AB518" s="2"/>
-    </row>
-    <row r="519" spans="1:28">
+      <c r="AC518" s="2"/>
+    </row>
+    <row r="519" spans="1:29">
       <c r="A519" s="2" t="s">
         <v>28</v>
       </c>
@@ -39879,8 +40398,9 @@
       <c r="Z519" s="2"/>
       <c r="AA519" s="2"/>
       <c r="AB519" s="2"/>
-    </row>
-    <row r="520" spans="1:28">
+      <c r="AC519" s="2"/>
+    </row>
+    <row r="520" spans="1:29">
       <c r="A520" s="2" t="s">
         <v>28</v>
       </c>
@@ -39945,8 +40465,9 @@
       <c r="Z520" s="2"/>
       <c r="AA520" s="2"/>
       <c r="AB520" s="2"/>
-    </row>
-    <row r="521" spans="1:28">
+      <c r="AC520" s="2"/>
+    </row>
+    <row r="521" spans="1:29">
       <c r="A521" s="2" t="s">
         <v>28</v>
       </c>
@@ -40011,8 +40532,9 @@
       <c r="Z521" s="2"/>
       <c r="AA521" s="2"/>
       <c r="AB521" s="2"/>
-    </row>
-    <row r="522" spans="1:28">
+      <c r="AC521" s="2"/>
+    </row>
+    <row r="522" spans="1:29">
       <c r="A522" s="2" t="s">
         <v>28</v>
       </c>
@@ -40077,8 +40599,9 @@
       <c r="Z522" s="2"/>
       <c r="AA522" s="2"/>
       <c r="AB522" s="2"/>
-    </row>
-    <row r="523" spans="1:28">
+      <c r="AC522" s="2"/>
+    </row>
+    <row r="523" spans="1:29">
       <c r="A523" s="2" t="s">
         <v>28</v>
       </c>
@@ -40143,8 +40666,9 @@
       <c r="Z523" s="2"/>
       <c r="AA523" s="2"/>
       <c r="AB523" s="2"/>
-    </row>
-    <row r="524" spans="1:28">
+      <c r="AC523" s="2"/>
+    </row>
+    <row r="524" spans="1:29">
       <c r="A524" s="2" t="s">
         <v>28</v>
       </c>
@@ -40209,8 +40733,9 @@
       <c r="Z524" s="2"/>
       <c r="AA524" s="2"/>
       <c r="AB524" s="2"/>
-    </row>
-    <row r="525" spans="1:28">
+      <c r="AC524" s="2"/>
+    </row>
+    <row r="525" spans="1:29">
       <c r="A525" s="2" t="s">
         <v>28</v>
       </c>
@@ -40275,8 +40800,9 @@
       <c r="Z525" s="2"/>
       <c r="AA525" s="2"/>
       <c r="AB525" s="2"/>
-    </row>
-    <row r="526" spans="1:28">
+      <c r="AC525" s="2"/>
+    </row>
+    <row r="526" spans="1:29">
       <c r="A526" s="2" t="s">
         <v>28</v>
       </c>
@@ -40341,8 +40867,9 @@
       <c r="Z526" s="2"/>
       <c r="AA526" s="2"/>
       <c r="AB526" s="2"/>
-    </row>
-    <row r="527" spans="1:28">
+      <c r="AC526" s="2"/>
+    </row>
+    <row r="527" spans="1:29">
       <c r="A527" s="2" t="s">
         <v>28</v>
       </c>
@@ -40407,8 +40934,9 @@
       <c r="Z527" s="2"/>
       <c r="AA527" s="2"/>
       <c r="AB527" s="2"/>
-    </row>
-    <row r="528" spans="1:28">
+      <c r="AC527" s="2"/>
+    </row>
+    <row r="528" spans="1:29">
       <c r="A528" s="2" t="s">
         <v>28</v>
       </c>
@@ -40473,8 +41001,9 @@
       <c r="Z528" s="2"/>
       <c r="AA528" s="2"/>
       <c r="AB528" s="2"/>
-    </row>
-    <row r="529" spans="1:28">
+      <c r="AC528" s="2"/>
+    </row>
+    <row r="529" spans="1:29">
       <c r="A529" s="2" t="s">
         <v>28</v>
       </c>
@@ -40539,8 +41068,9 @@
       <c r="Z529" s="2"/>
       <c r="AA529" s="2"/>
       <c r="AB529" s="2"/>
-    </row>
-    <row r="530" spans="1:28">
+      <c r="AC529" s="2"/>
+    </row>
+    <row r="530" spans="1:29">
       <c r="A530" s="2" t="s">
         <v>28</v>
       </c>
@@ -40605,8 +41135,9 @@
       <c r="Z530" s="2"/>
       <c r="AA530" s="2"/>
       <c r="AB530" s="2"/>
-    </row>
-    <row r="531" spans="1:28">
+      <c r="AC530" s="2"/>
+    </row>
+    <row r="531" spans="1:29">
       <c r="A531" s="2" t="s">
         <v>28</v>
       </c>
@@ -40671,8 +41202,9 @@
       <c r="Z531" s="2"/>
       <c r="AA531" s="2"/>
       <c r="AB531" s="2"/>
-    </row>
-    <row r="532" spans="1:28">
+      <c r="AC531" s="2"/>
+    </row>
+    <row r="532" spans="1:29">
       <c r="A532" s="2" t="s">
         <v>28</v>
       </c>
@@ -40737,8 +41269,9 @@
       <c r="Z532" s="2"/>
       <c r="AA532" s="2"/>
       <c r="AB532" s="2"/>
-    </row>
-    <row r="533" spans="1:28">
+      <c r="AC532" s="2"/>
+    </row>
+    <row r="533" spans="1:29">
       <c r="A533" s="2" t="s">
         <v>28</v>
       </c>
@@ -40803,8 +41336,9 @@
       <c r="Z533" s="2"/>
       <c r="AA533" s="2"/>
       <c r="AB533" s="2"/>
-    </row>
-    <row r="534" spans="1:28">
+      <c r="AC533" s="2"/>
+    </row>
+    <row r="534" spans="1:29">
       <c r="A534" s="2" t="s">
         <v>28</v>
       </c>
@@ -40869,8 +41403,9 @@
       <c r="Z534" s="2"/>
       <c r="AA534" s="2"/>
       <c r="AB534" s="2"/>
-    </row>
-    <row r="535" spans="1:28">
+      <c r="AC534" s="2"/>
+    </row>
+    <row r="535" spans="1:29">
       <c r="A535" s="2" t="s">
         <v>28</v>
       </c>
@@ -40935,8 +41470,9 @@
       <c r="Z535" s="2"/>
       <c r="AA535" s="2"/>
       <c r="AB535" s="2"/>
-    </row>
-    <row r="536" spans="1:28">
+      <c r="AC535" s="2"/>
+    </row>
+    <row r="536" spans="1:29">
       <c r="A536" s="2" t="s">
         <v>28</v>
       </c>
@@ -41001,8 +41537,9 @@
       <c r="Z536" s="2"/>
       <c r="AA536" s="2"/>
       <c r="AB536" s="2"/>
-    </row>
-    <row r="537" spans="1:28">
+      <c r="AC536" s="2"/>
+    </row>
+    <row r="537" spans="1:29">
       <c r="A537" s="2" t="s">
         <v>28</v>
       </c>
@@ -41067,8 +41604,9 @@
       <c r="Z537" s="2"/>
       <c r="AA537" s="2"/>
       <c r="AB537" s="2"/>
-    </row>
-    <row r="538" spans="1:28">
+      <c r="AC537" s="2"/>
+    </row>
+    <row r="538" spans="1:29">
       <c r="A538" s="2" t="s">
         <v>28</v>
       </c>
@@ -41135,8 +41673,9 @@
         <v>807</v>
       </c>
       <c r="AB538" s="2"/>
-    </row>
-    <row r="539" spans="1:28">
+      <c r="AC538" s="2"/>
+    </row>
+    <row r="539" spans="1:29">
       <c r="A539" s="2" t="s">
         <v>28</v>
       </c>
@@ -41201,8 +41740,9 @@
       <c r="Z539" s="2"/>
       <c r="AA539" s="2"/>
       <c r="AB539" s="2"/>
-    </row>
-    <row r="540" spans="1:28">
+      <c r="AC539" s="2"/>
+    </row>
+    <row r="540" spans="1:29">
       <c r="A540" s="2" t="s">
         <v>28</v>
       </c>
@@ -41267,8 +41807,9 @@
       <c r="Z540" s="2"/>
       <c r="AA540" s="2"/>
       <c r="AB540" s="2"/>
-    </row>
-    <row r="541" spans="1:28">
+      <c r="AC540" s="2"/>
+    </row>
+    <row r="541" spans="1:29">
       <c r="A541" s="2" t="s">
         <v>28</v>
       </c>
@@ -41333,8 +41874,9 @@
       <c r="Z541" s="2"/>
       <c r="AA541" s="2"/>
       <c r="AB541" s="2"/>
-    </row>
-    <row r="542" spans="1:28">
+      <c r="AC541" s="2"/>
+    </row>
+    <row r="542" spans="1:29">
       <c r="A542" s="2" t="s">
         <v>28</v>
       </c>
@@ -41399,8 +41941,9 @@
       <c r="Z542" s="2"/>
       <c r="AA542" s="2"/>
       <c r="AB542" s="2"/>
-    </row>
-    <row r="543" spans="1:28">
+      <c r="AC542" s="2"/>
+    </row>
+    <row r="543" spans="1:29">
       <c r="A543" s="2" t="s">
         <v>28</v>
       </c>
@@ -41467,8 +42010,9 @@
         <v>1041</v>
       </c>
       <c r="AB543" s="2"/>
-    </row>
-    <row r="544" spans="1:28">
+      <c r="AC543" s="2"/>
+    </row>
+    <row r="544" spans="1:29">
       <c r="A544" s="2" t="s">
         <v>28</v>
       </c>
@@ -41533,8 +42077,9 @@
       <c r="Z544" s="2"/>
       <c r="AA544" s="2"/>
       <c r="AB544" s="2"/>
-    </row>
-    <row r="545" spans="1:28">
+      <c r="AC544" s="2"/>
+    </row>
+    <row r="545" spans="1:29">
       <c r="A545" s="2" t="s">
         <v>28</v>
       </c>
@@ -41599,8 +42144,9 @@
       <c r="Z545" s="2"/>
       <c r="AA545" s="2"/>
       <c r="AB545" s="2"/>
-    </row>
-    <row r="546" spans="1:28">
+      <c r="AC545" s="2"/>
+    </row>
+    <row r="546" spans="1:29">
       <c r="A546" s="2" t="s">
         <v>28</v>
       </c>
@@ -41665,8 +42211,9 @@
       <c r="Z546" s="2"/>
       <c r="AA546" s="2"/>
       <c r="AB546" s="2"/>
-    </row>
-    <row r="547" spans="1:28">
+      <c r="AC546" s="2"/>
+    </row>
+    <row r="547" spans="1:29">
       <c r="A547" s="2" t="s">
         <v>28</v>
       </c>
@@ -41731,8 +42278,9 @@
       <c r="Z547" s="2"/>
       <c r="AA547" s="2"/>
       <c r="AB547" s="2"/>
-    </row>
-    <row r="548" spans="1:28">
+      <c r="AC547" s="2"/>
+    </row>
+    <row r="548" spans="1:29">
       <c r="A548" s="2" t="s">
         <v>28</v>
       </c>
@@ -41797,8 +42345,9 @@
       <c r="Z548" s="2"/>
       <c r="AA548" s="2"/>
       <c r="AB548" s="2"/>
-    </row>
-    <row r="549" spans="1:28">
+      <c r="AC548" s="2"/>
+    </row>
+    <row r="549" spans="1:29">
       <c r="A549" s="2" t="s">
         <v>28</v>
       </c>
@@ -41863,8 +42412,9 @@
       <c r="Z549" s="2"/>
       <c r="AA549" s="2"/>
       <c r="AB549" s="2"/>
-    </row>
-    <row r="550" spans="1:28">
+      <c r="AC549" s="2"/>
+    </row>
+    <row r="550" spans="1:29">
       <c r="A550" s="2" t="s">
         <v>28</v>
       </c>
@@ -41929,8 +42479,9 @@
       <c r="Z550" s="2"/>
       <c r="AA550" s="2"/>
       <c r="AB550" s="2"/>
-    </row>
-    <row r="551" spans="1:28">
+      <c r="AC550" s="2"/>
+    </row>
+    <row r="551" spans="1:29">
       <c r="A551" s="2" t="s">
         <v>28</v>
       </c>
@@ -41995,8 +42546,9 @@
       <c r="Z551" s="2"/>
       <c r="AA551" s="2"/>
       <c r="AB551" s="2"/>
-    </row>
-    <row r="552" spans="1:28">
+      <c r="AC551" s="2"/>
+    </row>
+    <row r="552" spans="1:29">
       <c r="A552" s="2" t="s">
         <v>28</v>
       </c>
@@ -42061,8 +42613,9 @@
       <c r="Z552" s="2"/>
       <c r="AA552" s="2"/>
       <c r="AB552" s="2"/>
-    </row>
-    <row r="553" spans="1:28">
+      <c r="AC552" s="2"/>
+    </row>
+    <row r="553" spans="1:29">
       <c r="A553" s="2" t="s">
         <v>28</v>
       </c>
@@ -42127,8 +42680,9 @@
       <c r="Z553" s="2"/>
       <c r="AA553" s="2"/>
       <c r="AB553" s="2"/>
-    </row>
-    <row r="554" spans="1:28">
+      <c r="AC553" s="2"/>
+    </row>
+    <row r="554" spans="1:29">
       <c r="A554" s="2" t="s">
         <v>28</v>
       </c>
@@ -42193,8 +42747,9 @@
       <c r="Z554" s="2"/>
       <c r="AA554" s="2"/>
       <c r="AB554" s="2"/>
-    </row>
-    <row r="555" spans="1:28">
+      <c r="AC554" s="2"/>
+    </row>
+    <row r="555" spans="1:29">
       <c r="A555" s="2" t="s">
         <v>28</v>
       </c>
@@ -42259,8 +42814,9 @@
       <c r="Z555" s="2"/>
       <c r="AA555" s="2"/>
       <c r="AB555" s="2"/>
-    </row>
-    <row r="556" spans="1:28">
+      <c r="AC555" s="2"/>
+    </row>
+    <row r="556" spans="1:29">
       <c r="A556" s="2" t="s">
         <v>28</v>
       </c>
@@ -42325,8 +42881,9 @@
       <c r="Z556" s="2"/>
       <c r="AA556" s="2"/>
       <c r="AB556" s="2"/>
-    </row>
-    <row r="557" spans="1:28">
+      <c r="AC556" s="2"/>
+    </row>
+    <row r="557" spans="1:29">
       <c r="A557" s="2" t="s">
         <v>28</v>
       </c>
@@ -42391,8 +42948,9 @@
       <c r="Z557" s="2"/>
       <c r="AA557" s="2"/>
       <c r="AB557" s="2"/>
-    </row>
-    <row r="558" spans="1:28">
+      <c r="AC557" s="2"/>
+    </row>
+    <row r="558" spans="1:29">
       <c r="A558" s="2" t="s">
         <v>28</v>
       </c>
@@ -42457,8 +43015,9 @@
       <c r="Z558" s="2"/>
       <c r="AA558" s="2"/>
       <c r="AB558" s="2"/>
-    </row>
-    <row r="559" spans="1:28">
+      <c r="AC558" s="2"/>
+    </row>
+    <row r="559" spans="1:29">
       <c r="A559" s="2" t="s">
         <v>28</v>
       </c>
@@ -42523,8 +43082,9 @@
       <c r="Z559" s="2"/>
       <c r="AA559" s="2"/>
       <c r="AB559" s="2"/>
-    </row>
-    <row r="560" spans="1:28">
+      <c r="AC559" s="2"/>
+    </row>
+    <row r="560" spans="1:29">
       <c r="A560" s="2" t="s">
         <v>28</v>
       </c>
@@ -42589,8 +43149,9 @@
       <c r="Z560" s="2"/>
       <c r="AA560" s="2"/>
       <c r="AB560" s="2"/>
-    </row>
-    <row r="561" spans="1:28">
+      <c r="AC560" s="2"/>
+    </row>
+    <row r="561" spans="1:29">
       <c r="A561" s="2" t="s">
         <v>28</v>
       </c>
@@ -42655,8 +43216,9 @@
       <c r="Z561" s="2"/>
       <c r="AA561" s="2"/>
       <c r="AB561" s="2"/>
-    </row>
-    <row r="562" spans="1:28">
+      <c r="AC561" s="2"/>
+    </row>
+    <row r="562" spans="1:29">
       <c r="A562" s="2" t="s">
         <v>28</v>
       </c>
@@ -42721,8 +43283,9 @@
       <c r="Z562" s="2"/>
       <c r="AA562" s="2"/>
       <c r="AB562" s="2"/>
-    </row>
-    <row r="563" spans="1:28">
+      <c r="AC562" s="2"/>
+    </row>
+    <row r="563" spans="1:29">
       <c r="A563" s="2" t="s">
         <v>28</v>
       </c>
@@ -42787,8 +43350,9 @@
       <c r="Z563" s="2"/>
       <c r="AA563" s="2"/>
       <c r="AB563" s="2"/>
-    </row>
-    <row r="564" spans="1:28">
+      <c r="AC563" s="2"/>
+    </row>
+    <row r="564" spans="1:29">
       <c r="A564" s="2" t="s">
         <v>28</v>
       </c>
@@ -42853,8 +43417,9 @@
       <c r="Z564" s="2"/>
       <c r="AA564" s="2"/>
       <c r="AB564" s="2"/>
-    </row>
-    <row r="565" spans="1:28">
+      <c r="AC564" s="2"/>
+    </row>
+    <row r="565" spans="1:29">
       <c r="A565" s="2" t="s">
         <v>28</v>
       </c>
@@ -42919,8 +43484,9 @@
       <c r="Z565" s="2"/>
       <c r="AA565" s="2"/>
       <c r="AB565" s="2"/>
-    </row>
-    <row r="566" spans="1:28">
+      <c r="AC565" s="2"/>
+    </row>
+    <row r="566" spans="1:29">
       <c r="A566" s="2" t="s">
         <v>28</v>
       </c>
@@ -42985,8 +43551,9 @@
       <c r="Z566" s="2"/>
       <c r="AA566" s="2"/>
       <c r="AB566" s="2"/>
-    </row>
-    <row r="567" spans="1:28">
+      <c r="AC566" s="2"/>
+    </row>
+    <row r="567" spans="1:29">
       <c r="A567" s="2" t="s">
         <v>28</v>
       </c>
@@ -43051,8 +43618,9 @@
       <c r="Z567" s="2"/>
       <c r="AA567" s="2"/>
       <c r="AB567" s="2"/>
-    </row>
-    <row r="568" spans="1:28">
+      <c r="AC567" s="2"/>
+    </row>
+    <row r="568" spans="1:29">
       <c r="A568" s="2" t="s">
         <v>28</v>
       </c>
@@ -43117,8 +43685,9 @@
       <c r="Z568" s="2"/>
       <c r="AA568" s="2"/>
       <c r="AB568" s="2"/>
-    </row>
-    <row r="569" spans="1:28">
+      <c r="AC568" s="2"/>
+    </row>
+    <row r="569" spans="1:29">
       <c r="A569" s="2" t="s">
         <v>28</v>
       </c>
@@ -43183,8 +43752,9 @@
       <c r="Z569" s="2"/>
       <c r="AA569" s="2"/>
       <c r="AB569" s="2"/>
-    </row>
-    <row r="570" spans="1:28">
+      <c r="AC569" s="2"/>
+    </row>
+    <row r="570" spans="1:29">
       <c r="A570" s="2" t="s">
         <v>28</v>
       </c>
@@ -43249,8 +43819,9 @@
       <c r="Z570" s="2"/>
       <c r="AA570" s="2"/>
       <c r="AB570" s="2"/>
-    </row>
-    <row r="571" spans="1:28">
+      <c r="AC570" s="2"/>
+    </row>
+    <row r="571" spans="1:29">
       <c r="A571" s="2" t="s">
         <v>28</v>
       </c>
@@ -43315,8 +43886,9 @@
       <c r="Z571" s="2"/>
       <c r="AA571" s="2"/>
       <c r="AB571" s="2"/>
-    </row>
-    <row r="572" spans="1:28">
+      <c r="AC571" s="2"/>
+    </row>
+    <row r="572" spans="1:29">
       <c r="A572" s="2" t="s">
         <v>28</v>
       </c>
@@ -43381,8 +43953,9 @@
       <c r="Z572" s="2"/>
       <c r="AA572" s="2"/>
       <c r="AB572" s="2"/>
-    </row>
-    <row r="573" spans="1:28">
+      <c r="AC572" s="2"/>
+    </row>
+    <row r="573" spans="1:29">
       <c r="A573" s="2" t="s">
         <v>28</v>
       </c>
@@ -43447,8 +44020,9 @@
       <c r="Z573" s="2"/>
       <c r="AA573" s="2"/>
       <c r="AB573" s="2"/>
-    </row>
-    <row r="574" spans="1:28">
+      <c r="AC573" s="2"/>
+    </row>
+    <row r="574" spans="1:29">
       <c r="A574" s="2" t="s">
         <v>28</v>
       </c>
@@ -43513,8 +44087,9 @@
       <c r="Z574" s="2"/>
       <c r="AA574" s="2"/>
       <c r="AB574" s="2"/>
-    </row>
-    <row r="575" spans="1:28">
+      <c r="AC574" s="2"/>
+    </row>
+    <row r="575" spans="1:29">
       <c r="A575" s="2" t="s">
         <v>28</v>
       </c>
@@ -43579,8 +44154,9 @@
       <c r="Z575" s="2"/>
       <c r="AA575" s="2"/>
       <c r="AB575" s="2"/>
-    </row>
-    <row r="576" spans="1:28">
+      <c r="AC575" s="2"/>
+    </row>
+    <row r="576" spans="1:29">
       <c r="A576" s="2" t="s">
         <v>28</v>
       </c>
@@ -43645,8 +44221,9 @@
       <c r="Z576" s="2"/>
       <c r="AA576" s="2"/>
       <c r="AB576" s="2"/>
-    </row>
-    <row r="577" spans="1:28">
+      <c r="AC576" s="2"/>
+    </row>
+    <row r="577" spans="1:29">
       <c r="A577" s="2" t="s">
         <v>28</v>
       </c>
@@ -43711,8 +44288,9 @@
       <c r="Z577" s="2"/>
       <c r="AA577" s="2"/>
       <c r="AB577" s="2"/>
-    </row>
-    <row r="578" spans="1:28">
+      <c r="AC577" s="2"/>
+    </row>
+    <row r="578" spans="1:29">
       <c r="A578" s="2" t="s">
         <v>28</v>
       </c>
@@ -43777,8 +44355,9 @@
       <c r="Z578" s="2"/>
       <c r="AA578" s="2"/>
       <c r="AB578" s="2"/>
-    </row>
-    <row r="579" spans="1:28">
+      <c r="AC578" s="2"/>
+    </row>
+    <row r="579" spans="1:29">
       <c r="A579" s="2" t="s">
         <v>28</v>
       </c>
@@ -43843,8 +44422,9 @@
       <c r="Z579" s="2"/>
       <c r="AA579" s="2"/>
       <c r="AB579" s="2"/>
-    </row>
-    <row r="580" spans="1:28">
+      <c r="AC579" s="2"/>
+    </row>
+    <row r="580" spans="1:29">
       <c r="A580" s="2" t="s">
         <v>28</v>
       </c>
@@ -43911,8 +44491,9 @@
         <v>1031</v>
       </c>
       <c r="AB580" s="2"/>
-    </row>
-    <row r="581" spans="1:28">
+      <c r="AC580" s="2"/>
+    </row>
+    <row r="581" spans="1:29">
       <c r="A581" s="2" t="s">
         <v>28</v>
       </c>
@@ -43979,8 +44560,9 @@
         <v>583</v>
       </c>
       <c r="AB581" s="2"/>
-    </row>
-    <row r="582" spans="1:28">
+      <c r="AC581" s="2"/>
+    </row>
+    <row r="582" spans="1:29">
       <c r="A582" s="2" t="s">
         <v>28</v>
       </c>
@@ -44045,8 +44627,9 @@
       <c r="Z582" s="2"/>
       <c r="AA582" s="2"/>
       <c r="AB582" s="2"/>
-    </row>
-    <row r="583" spans="1:28">
+      <c r="AC582" s="2"/>
+    </row>
+    <row r="583" spans="1:29">
       <c r="A583" s="2" t="s">
         <v>28</v>
       </c>
@@ -44111,8 +44694,9 @@
       <c r="Z583" s="2"/>
       <c r="AA583" s="2"/>
       <c r="AB583" s="2"/>
-    </row>
-    <row r="584" spans="1:28">
+      <c r="AC583" s="2"/>
+    </row>
+    <row r="584" spans="1:29">
       <c r="A584" s="2" t="s">
         <v>28</v>
       </c>
@@ -44177,8 +44761,9 @@
       <c r="Z584" s="2"/>
       <c r="AA584" s="2"/>
       <c r="AB584" s="2"/>
-    </row>
-    <row r="585" spans="1:28">
+      <c r="AC584" s="2"/>
+    </row>
+    <row r="585" spans="1:29">
       <c r="A585" s="2" t="s">
         <v>28</v>
       </c>
@@ -44243,8 +44828,9 @@
       <c r="Z585" s="2"/>
       <c r="AA585" s="2"/>
       <c r="AB585" s="2"/>
-    </row>
-    <row r="586" spans="1:28">
+      <c r="AC585" s="2"/>
+    </row>
+    <row r="586" spans="1:29">
       <c r="A586" s="2" t="s">
         <v>28</v>
       </c>
@@ -44309,8 +44895,9 @@
       <c r="Z586" s="2"/>
       <c r="AA586" s="2"/>
       <c r="AB586" s="2"/>
-    </row>
-    <row r="587" spans="1:28">
+      <c r="AC586" s="2"/>
+    </row>
+    <row r="587" spans="1:29">
       <c r="A587" s="2" t="s">
         <v>28</v>
       </c>
@@ -44375,8 +44962,9 @@
       <c r="Z587" s="2"/>
       <c r="AA587" s="2"/>
       <c r="AB587" s="2"/>
-    </row>
-    <row r="588" spans="1:28">
+      <c r="AC587" s="2"/>
+    </row>
+    <row r="588" spans="1:29">
       <c r="A588" s="2" t="s">
         <v>28</v>
       </c>
@@ -44441,8 +45029,9 @@
       <c r="Z588" s="2"/>
       <c r="AA588" s="2"/>
       <c r="AB588" s="2"/>
-    </row>
-    <row r="589" spans="1:28">
+      <c r="AC588" s="2"/>
+    </row>
+    <row r="589" spans="1:29">
       <c r="A589" s="2" t="s">
         <v>28</v>
       </c>
@@ -44507,8 +45096,9 @@
       <c r="Z589" s="2"/>
       <c r="AA589" s="2"/>
       <c r="AB589" s="2"/>
-    </row>
-    <row r="590" spans="1:28">
+      <c r="AC589" s="2"/>
+    </row>
+    <row r="590" spans="1:29">
       <c r="A590" s="2" t="s">
         <v>28</v>
       </c>
@@ -44573,8 +45163,9 @@
       <c r="Z590" s="2"/>
       <c r="AA590" s="2"/>
       <c r="AB590" s="2"/>
-    </row>
-    <row r="591" spans="1:28">
+      <c r="AC590" s="2"/>
+    </row>
+    <row r="591" spans="1:29">
       <c r="A591" s="2" t="s">
         <v>28</v>
       </c>
@@ -44639,8 +45230,9 @@
       <c r="Z591" s="2"/>
       <c r="AA591" s="2"/>
       <c r="AB591" s="2"/>
-    </row>
-    <row r="592" spans="1:28">
+      <c r="AC591" s="2"/>
+    </row>
+    <row r="592" spans="1:29">
       <c r="A592" s="2" t="s">
         <v>28</v>
       </c>
@@ -44705,8 +45297,9 @@
       <c r="Z592" s="2"/>
       <c r="AA592" s="2"/>
       <c r="AB592" s="2"/>
-    </row>
-    <row r="593" spans="1:28">
+      <c r="AC592" s="2"/>
+    </row>
+    <row r="593" spans="1:29">
       <c r="A593" s="2" t="s">
         <v>28</v>
       </c>
@@ -44771,8 +45364,9 @@
       <c r="Z593" s="2"/>
       <c r="AA593" s="2"/>
       <c r="AB593" s="2"/>
-    </row>
-    <row r="594" spans="1:28">
+      <c r="AC593" s="2"/>
+    </row>
+    <row r="594" spans="1:29">
       <c r="A594" s="2" t="s">
         <v>28</v>
       </c>
@@ -44837,8 +45431,9 @@
       <c r="Z594" s="2"/>
       <c r="AA594" s="2"/>
       <c r="AB594" s="2"/>
-    </row>
-    <row r="595" spans="1:28">
+      <c r="AC594" s="2"/>
+    </row>
+    <row r="595" spans="1:29">
       <c r="A595" s="2" t="s">
         <v>28</v>
       </c>
@@ -44905,8 +45500,9 @@
         <v>903</v>
       </c>
       <c r="AB595" s="2"/>
-    </row>
-    <row r="596" spans="1:28">
+      <c r="AC595" s="2"/>
+    </row>
+    <row r="596" spans="1:29">
       <c r="A596" s="2" t="s">
         <v>28</v>
       </c>
@@ -44971,8 +45567,9 @@
       <c r="Z596" s="2"/>
       <c r="AA596" s="2"/>
       <c r="AB596" s="2"/>
-    </row>
-    <row r="597" spans="1:28">
+      <c r="AC596" s="2"/>
+    </row>
+    <row r="597" spans="1:29">
       <c r="A597" s="2" t="s">
         <v>28</v>
       </c>
@@ -45037,8 +45634,9 @@
       <c r="Z597" s="2"/>
       <c r="AA597" s="2"/>
       <c r="AB597" s="2"/>
-    </row>
-    <row r="598" spans="1:28">
+      <c r="AC597" s="2"/>
+    </row>
+    <row r="598" spans="1:29">
       <c r="A598" s="2" t="s">
         <v>28</v>
       </c>
@@ -45103,8 +45701,9 @@
       <c r="Z598" s="2"/>
       <c r="AA598" s="2"/>
       <c r="AB598" s="2"/>
-    </row>
-    <row r="599" spans="1:28">
+      <c r="AC598" s="2"/>
+    </row>
+    <row r="599" spans="1:29">
       <c r="A599" s="2" t="s">
         <v>28</v>
       </c>
@@ -45169,8 +45768,9 @@
       <c r="Z599" s="2"/>
       <c r="AA599" s="2"/>
       <c r="AB599" s="2"/>
-    </row>
-    <row r="600" spans="1:28">
+      <c r="AC599" s="2"/>
+    </row>
+    <row r="600" spans="1:29">
       <c r="A600" s="2" t="s">
         <v>28</v>
       </c>
@@ -45235,8 +45835,9 @@
       <c r="Z600" s="2"/>
       <c r="AA600" s="2"/>
       <c r="AB600" s="2"/>
-    </row>
-    <row r="601" spans="1:28">
+      <c r="AC600" s="2"/>
+    </row>
+    <row r="601" spans="1:29">
       <c r="A601" s="2" t="s">
         <v>28</v>
       </c>
@@ -45301,8 +45902,9 @@
       <c r="Z601" s="2"/>
       <c r="AA601" s="2"/>
       <c r="AB601" s="2"/>
-    </row>
-    <row r="602" spans="1:28">
+      <c r="AC601" s="2"/>
+    </row>
+    <row r="602" spans="1:29">
       <c r="A602" s="2" t="s">
         <v>28</v>
       </c>
@@ -45367,8 +45969,9 @@
       <c r="Z602" s="2"/>
       <c r="AA602" s="2"/>
       <c r="AB602" s="2"/>
-    </row>
-    <row r="603" spans="1:28">
+      <c r="AC602" s="2"/>
+    </row>
+    <row r="603" spans="1:29">
       <c r="A603" s="2" t="s">
         <v>28</v>
       </c>
@@ -45433,8 +46036,9 @@
       <c r="Z603" s="2"/>
       <c r="AA603" s="2"/>
       <c r="AB603" s="2"/>
-    </row>
-    <row r="604" spans="1:28">
+      <c r="AC603" s="2"/>
+    </row>
+    <row r="604" spans="1:29">
       <c r="A604" s="2" t="s">
         <v>28</v>
       </c>
@@ -45499,8 +46103,9 @@
       <c r="Z604" s="2"/>
       <c r="AA604" s="2"/>
       <c r="AB604" s="2"/>
-    </row>
-    <row r="605" spans="1:28">
+      <c r="AC604" s="2"/>
+    </row>
+    <row r="605" spans="1:29">
       <c r="A605" s="2" t="s">
         <v>28</v>
       </c>
@@ -45565,8 +46170,9 @@
       <c r="Z605" s="2"/>
       <c r="AA605" s="2"/>
       <c r="AB605" s="2"/>
-    </row>
-    <row r="606" spans="1:28">
+      <c r="AC605" s="2"/>
+    </row>
+    <row r="606" spans="1:29">
       <c r="A606" s="2" t="s">
         <v>28</v>
       </c>
@@ -45631,8 +46237,9 @@
       <c r="Z606" s="2"/>
       <c r="AA606" s="2"/>
       <c r="AB606" s="2"/>
-    </row>
-    <row r="607" spans="1:28">
+      <c r="AC606" s="2"/>
+    </row>
+    <row r="607" spans="1:29">
       <c r="A607" s="2" t="s">
         <v>28</v>
       </c>
@@ -45697,8 +46304,9 @@
       <c r="Z607" s="2"/>
       <c r="AA607" s="2"/>
       <c r="AB607" s="2"/>
-    </row>
-    <row r="608" spans="1:28">
+      <c r="AC607" s="2"/>
+    </row>
+    <row r="608" spans="1:29">
       <c r="A608" s="2" t="s">
         <v>28</v>
       </c>
@@ -45763,8 +46371,9 @@
       <c r="Z608" s="2"/>
       <c r="AA608" s="2"/>
       <c r="AB608" s="2"/>
-    </row>
-    <row r="609" spans="1:28">
+      <c r="AC608" s="2"/>
+    </row>
+    <row r="609" spans="1:29">
       <c r="A609" s="2" t="s">
         <v>28</v>
       </c>
@@ -45829,8 +46438,9 @@
       <c r="Z609" s="2"/>
       <c r="AA609" s="2"/>
       <c r="AB609" s="2"/>
-    </row>
-    <row r="610" spans="1:28">
+      <c r="AC609" s="2"/>
+    </row>
+    <row r="610" spans="1:29">
       <c r="A610" s="2" t="s">
         <v>28</v>
       </c>
@@ -45895,8 +46505,9 @@
       <c r="Z610" s="2"/>
       <c r="AA610" s="2"/>
       <c r="AB610" s="2"/>
-    </row>
-    <row r="611" spans="1:28">
+      <c r="AC610" s="2"/>
+    </row>
+    <row r="611" spans="1:29">
       <c r="A611" s="2" t="s">
         <v>28</v>
       </c>
@@ -45961,8 +46572,9 @@
       <c r="Z611" s="2"/>
       <c r="AA611" s="2"/>
       <c r="AB611" s="2"/>
-    </row>
-    <row r="612" spans="1:28">
+      <c r="AC611" s="2"/>
+    </row>
+    <row r="612" spans="1:29">
       <c r="A612" s="2" t="s">
         <v>28</v>
       </c>
@@ -46029,8 +46641,9 @@
         <v>384</v>
       </c>
       <c r="AB612" s="2"/>
-    </row>
-    <row r="613" spans="1:28">
+      <c r="AC612" s="2"/>
+    </row>
+    <row r="613" spans="1:29">
       <c r="A613" s="2" t="s">
         <v>28</v>
       </c>
@@ -46097,8 +46710,9 @@
         <v>1069</v>
       </c>
       <c r="AB613" s="2"/>
-    </row>
-    <row r="614" spans="1:28">
+      <c r="AC613" s="2"/>
+    </row>
+    <row r="614" spans="1:29">
       <c r="A614" s="2" t="s">
         <v>28</v>
       </c>
@@ -46163,8 +46777,9 @@
       <c r="Z614" s="2"/>
       <c r="AA614" s="2"/>
       <c r="AB614" s="2"/>
-    </row>
-    <row r="615" spans="1:28">
+      <c r="AC614" s="2"/>
+    </row>
+    <row r="615" spans="1:29">
       <c r="A615" s="2" t="s">
         <v>28</v>
       </c>
@@ -46229,8 +46844,9 @@
       <c r="Z615" s="2"/>
       <c r="AA615" s="2"/>
       <c r="AB615" s="2"/>
-    </row>
-    <row r="616" spans="1:28">
+      <c r="AC615" s="2"/>
+    </row>
+    <row r="616" spans="1:29">
       <c r="A616" s="2" t="s">
         <v>28</v>
       </c>
@@ -46295,8 +46911,9 @@
       <c r="Z616" s="2"/>
       <c r="AA616" s="2"/>
       <c r="AB616" s="2"/>
-    </row>
-    <row r="617" spans="1:28">
+      <c r="AC616" s="2"/>
+    </row>
+    <row r="617" spans="1:29">
       <c r="A617" s="2" t="s">
         <v>28</v>
       </c>
@@ -46361,8 +46978,9 @@
       <c r="Z617" s="2"/>
       <c r="AA617" s="2"/>
       <c r="AB617" s="2"/>
-    </row>
-    <row r="618" spans="1:28">
+      <c r="AC617" s="2"/>
+    </row>
+    <row r="618" spans="1:29">
       <c r="A618" s="2" t="s">
         <v>28</v>
       </c>
@@ -46427,8 +47045,9 @@
       <c r="Z618" s="2"/>
       <c r="AA618" s="2"/>
       <c r="AB618" s="2"/>
-    </row>
-    <row r="619" spans="1:28">
+      <c r="AC618" s="2"/>
+    </row>
+    <row r="619" spans="1:29">
       <c r="A619" s="2" t="s">
         <v>28</v>
       </c>
@@ -46493,8 +47112,9 @@
       <c r="Z619" s="2"/>
       <c r="AA619" s="2"/>
       <c r="AB619" s="2"/>
-    </row>
-    <row r="620" spans="1:28">
+      <c r="AC619" s="2"/>
+    </row>
+    <row r="620" spans="1:29">
       <c r="A620" s="2" t="s">
         <v>28</v>
       </c>
@@ -46559,8 +47179,9 @@
       <c r="Z620" s="2"/>
       <c r="AA620" s="2"/>
       <c r="AB620" s="2"/>
-    </row>
-    <row r="621" spans="1:28">
+      <c r="AC620" s="2"/>
+    </row>
+    <row r="621" spans="1:29">
       <c r="A621" s="2" t="s">
         <v>28</v>
       </c>
@@ -46625,8 +47246,9 @@
       <c r="Z621" s="2"/>
       <c r="AA621" s="2"/>
       <c r="AB621" s="2"/>
-    </row>
-    <row r="622" spans="1:28">
+      <c r="AC621" s="2"/>
+    </row>
+    <row r="622" spans="1:29">
       <c r="A622" s="2" t="s">
         <v>28</v>
       </c>
@@ -46691,8 +47313,9 @@
       <c r="Z622" s="2"/>
       <c r="AA622" s="2"/>
       <c r="AB622" s="2"/>
-    </row>
-    <row r="623" spans="1:28">
+      <c r="AC622" s="2"/>
+    </row>
+    <row r="623" spans="1:29">
       <c r="A623" s="2" t="s">
         <v>28</v>
       </c>
@@ -46757,8 +47380,9 @@
       <c r="Z623" s="2"/>
       <c r="AA623" s="2"/>
       <c r="AB623" s="2"/>
-    </row>
-    <row r="624" spans="1:28">
+      <c r="AC623" s="2"/>
+    </row>
+    <row r="624" spans="1:29">
       <c r="A624" s="2" t="s">
         <v>28</v>
       </c>
@@ -46823,8 +47447,9 @@
       <c r="Z624" s="2"/>
       <c r="AA624" s="2"/>
       <c r="AB624" s="2"/>
-    </row>
-    <row r="625" spans="1:28">
+      <c r="AC624" s="2"/>
+    </row>
+    <row r="625" spans="1:29">
       <c r="A625" s="2" t="s">
         <v>28</v>
       </c>
@@ -46889,8 +47514,9 @@
       <c r="Z625" s="2"/>
       <c r="AA625" s="2"/>
       <c r="AB625" s="2"/>
-    </row>
-    <row r="626" spans="1:28">
+      <c r="AC625" s="2"/>
+    </row>
+    <row r="626" spans="1:29">
       <c r="A626" s="2" t="s">
         <v>28</v>
       </c>
@@ -46955,8 +47581,9 @@
       <c r="Z626" s="2"/>
       <c r="AA626" s="2"/>
       <c r="AB626" s="2"/>
-    </row>
-    <row r="627" spans="1:28">
+      <c r="AC626" s="2"/>
+    </row>
+    <row r="627" spans="1:29">
       <c r="A627" s="2" t="s">
         <v>28</v>
       </c>
@@ -47021,8 +47648,9 @@
       <c r="Z627" s="2"/>
       <c r="AA627" s="2"/>
       <c r="AB627" s="2"/>
-    </row>
-    <row r="628" spans="1:28">
+      <c r="AC627" s="2"/>
+    </row>
+    <row r="628" spans="1:29">
       <c r="A628" s="2" t="s">
         <v>28</v>
       </c>
@@ -47087,8 +47715,9 @@
       <c r="Z628" s="2"/>
       <c r="AA628" s="2"/>
       <c r="AB628" s="2"/>
-    </row>
-    <row r="629" spans="1:28">
+      <c r="AC628" s="2"/>
+    </row>
+    <row r="629" spans="1:29">
       <c r="A629" s="2" t="s">
         <v>28</v>
       </c>
@@ -47153,8 +47782,9 @@
       <c r="Z629" s="2"/>
       <c r="AA629" s="2"/>
       <c r="AB629" s="2"/>
-    </row>
-    <row r="630" spans="1:28">
+      <c r="AC629" s="2"/>
+    </row>
+    <row r="630" spans="1:29">
       <c r="A630" s="2" t="s">
         <v>28</v>
       </c>
@@ -47219,8 +47849,9 @@
       <c r="Z630" s="2"/>
       <c r="AA630" s="2"/>
       <c r="AB630" s="2"/>
-    </row>
-    <row r="631" spans="1:28">
+      <c r="AC630" s="2"/>
+    </row>
+    <row r="631" spans="1:29">
       <c r="A631" s="2" t="s">
         <v>28</v>
       </c>
@@ -47285,8 +47916,9 @@
       <c r="Z631" s="2"/>
       <c r="AA631" s="2"/>
       <c r="AB631" s="2"/>
-    </row>
-    <row r="632" spans="1:28">
+      <c r="AC631" s="2"/>
+    </row>
+    <row r="632" spans="1:29">
       <c r="A632" s="2" t="s">
         <v>28</v>
       </c>
@@ -47353,8 +47985,9 @@
         <v>966</v>
       </c>
       <c r="AB632" s="2"/>
-    </row>
-    <row r="633" spans="1:28">
+      <c r="AC632" s="2"/>
+    </row>
+    <row r="633" spans="1:29">
       <c r="A633" s="2" t="s">
         <v>28</v>
       </c>
@@ -47421,8 +48054,9 @@
         <v>492</v>
       </c>
       <c r="AB633" s="2"/>
-    </row>
-    <row r="634" spans="1:28">
+      <c r="AC633" s="2"/>
+    </row>
+    <row r="634" spans="1:29">
       <c r="A634" s="2" t="s">
         <v>28</v>
       </c>
@@ -47487,8 +48121,9 @@
       <c r="Z634" s="2"/>
       <c r="AA634" s="2"/>
       <c r="AB634" s="2"/>
-    </row>
-    <row r="635" spans="1:28">
+      <c r="AC634" s="2"/>
+    </row>
+    <row r="635" spans="1:29">
       <c r="A635" s="2" t="s">
         <v>28</v>
       </c>
@@ -47553,8 +48188,9 @@
       <c r="Z635" s="2"/>
       <c r="AA635" s="2"/>
       <c r="AB635" s="2"/>
-    </row>
-    <row r="636" spans="1:28">
+      <c r="AC635" s="2"/>
+    </row>
+    <row r="636" spans="1:29">
       <c r="A636" s="2" t="s">
         <v>28</v>
       </c>
@@ -47619,8 +48255,9 @@
       <c r="Z636" s="2"/>
       <c r="AA636" s="2"/>
       <c r="AB636" s="2"/>
-    </row>
-    <row r="637" spans="1:28">
+      <c r="AC636" s="2"/>
+    </row>
+    <row r="637" spans="1:29">
       <c r="A637" s="2" t="s">
         <v>28</v>
       </c>
@@ -47685,8 +48322,9 @@
       <c r="Z637" s="2"/>
       <c r="AA637" s="2"/>
       <c r="AB637" s="2"/>
-    </row>
-    <row r="638" spans="1:28">
+      <c r="AC637" s="2"/>
+    </row>
+    <row r="638" spans="1:29">
       <c r="A638" s="2" t="s">
         <v>28</v>
       </c>
@@ -47751,8 +48389,9 @@
       <c r="Z638" s="2"/>
       <c r="AA638" s="2"/>
       <c r="AB638" s="2"/>
-    </row>
-    <row r="639" spans="1:28">
+      <c r="AC638" s="2"/>
+    </row>
+    <row r="639" spans="1:29">
       <c r="A639" s="2" t="s">
         <v>28</v>
       </c>
@@ -47817,8 +48456,9 @@
       <c r="Z639" s="2"/>
       <c r="AA639" s="2"/>
       <c r="AB639" s="2"/>
-    </row>
-    <row r="640" spans="1:28">
+      <c r="AC639" s="2"/>
+    </row>
+    <row r="640" spans="1:29">
       <c r="A640" s="2" t="s">
         <v>28</v>
       </c>
@@ -47883,8 +48523,9 @@
       <c r="Z640" s="2"/>
       <c r="AA640" s="2"/>
       <c r="AB640" s="2"/>
-    </row>
-    <row r="641" spans="1:28">
+      <c r="AC640" s="2"/>
+    </row>
+    <row r="641" spans="1:29">
       <c r="A641" s="2" t="s">
         <v>28</v>
       </c>
@@ -47949,8 +48590,9 @@
       <c r="Z641" s="2"/>
       <c r="AA641" s="2"/>
       <c r="AB641" s="2"/>
-    </row>
-    <row r="642" spans="1:28">
+      <c r="AC641" s="2"/>
+    </row>
+    <row r="642" spans="1:29">
       <c r="A642" s="2" t="s">
         <v>28</v>
       </c>
@@ -48015,8 +48657,9 @@
       <c r="Z642" s="2"/>
       <c r="AA642" s="2"/>
       <c r="AB642" s="2"/>
-    </row>
-    <row r="643" spans="1:28">
+      <c r="AC642" s="2"/>
+    </row>
+    <row r="643" spans="1:29">
       <c r="A643" s="2" t="s">
         <v>28</v>
       </c>
@@ -48081,8 +48724,9 @@
       <c r="Z643" s="2"/>
       <c r="AA643" s="2"/>
       <c r="AB643" s="2"/>
-    </row>
-    <row r="644" spans="1:28">
+      <c r="AC643" s="2"/>
+    </row>
+    <row r="644" spans="1:29">
       <c r="A644" s="2" t="s">
         <v>28</v>
       </c>
@@ -48147,8 +48791,9 @@
       <c r="Z644" s="2"/>
       <c r="AA644" s="2"/>
       <c r="AB644" s="2"/>
-    </row>
-    <row r="645" spans="1:28">
+      <c r="AC644" s="2"/>
+    </row>
+    <row r="645" spans="1:29">
       <c r="A645" s="2" t="s">
         <v>28</v>
       </c>
@@ -48213,8 +48858,9 @@
       <c r="Z645" s="2"/>
       <c r="AA645" s="2"/>
       <c r="AB645" s="2"/>
-    </row>
-    <row r="646" spans="1:28">
+      <c r="AC645" s="2"/>
+    </row>
+    <row r="646" spans="1:29">
       <c r="A646" s="2" t="s">
         <v>28</v>
       </c>
@@ -48279,8 +48925,9 @@
       <c r="Z646" s="2"/>
       <c r="AA646" s="2"/>
       <c r="AB646" s="2"/>
-    </row>
-    <row r="647" spans="1:28">
+      <c r="AC646" s="2"/>
+    </row>
+    <row r="647" spans="1:29">
       <c r="A647" s="2" t="s">
         <v>28</v>
       </c>
@@ -48347,8 +48994,9 @@
         <v>867</v>
       </c>
       <c r="AB647" s="2"/>
-    </row>
-    <row r="648" spans="1:28">
+      <c r="AC647" s="2"/>
+    </row>
+    <row r="648" spans="1:29">
       <c r="A648" s="2" t="s">
         <v>28</v>
       </c>
@@ -48413,8 +49061,9 @@
       <c r="Z648" s="2"/>
       <c r="AA648" s="2"/>
       <c r="AB648" s="2"/>
-    </row>
-    <row r="649" spans="1:28">
+      <c r="AC648" s="2"/>
+    </row>
+    <row r="649" spans="1:29">
       <c r="A649" s="2" t="s">
         <v>28</v>
       </c>
@@ -48479,8 +49128,9 @@
       <c r="Z649" s="2"/>
       <c r="AA649" s="2"/>
       <c r="AB649" s="2"/>
-    </row>
-    <row r="650" spans="1:28">
+      <c r="AC649" s="2"/>
+    </row>
+    <row r="650" spans="1:29">
       <c r="A650" s="2" t="s">
         <v>28</v>
       </c>
@@ -48545,8 +49195,9 @@
       <c r="Z650" s="2"/>
       <c r="AA650" s="2"/>
       <c r="AB650" s="2"/>
-    </row>
-    <row r="651" spans="1:28">
+      <c r="AC650" s="2"/>
+    </row>
+    <row r="651" spans="1:29">
       <c r="A651" s="2" t="s">
         <v>28</v>
       </c>
@@ -48611,8 +49262,9 @@
       <c r="Z651" s="2"/>
       <c r="AA651" s="2"/>
       <c r="AB651" s="2"/>
-    </row>
-    <row r="652" spans="1:28">
+      <c r="AC651" s="2"/>
+    </row>
+    <row r="652" spans="1:29">
       <c r="A652" s="2" t="s">
         <v>28</v>
       </c>
@@ -48679,8 +49331,9 @@
         <v>454</v>
       </c>
       <c r="AB652" s="2"/>
-    </row>
-    <row r="653" spans="1:28">
+      <c r="AC652" s="2"/>
+    </row>
+    <row r="653" spans="1:29">
       <c r="A653" s="2" t="s">
         <v>28</v>
       </c>
@@ -48747,8 +49400,9 @@
         <v>626</v>
       </c>
       <c r="AB653" s="2"/>
-    </row>
-    <row r="654" spans="1:28">
+      <c r="AC653" s="2"/>
+    </row>
+    <row r="654" spans="1:29">
       <c r="A654" s="2" t="s">
         <v>28</v>
       </c>
@@ -48813,8 +49467,9 @@
       <c r="Z654" s="2"/>
       <c r="AA654" s="2"/>
       <c r="AB654" s="2"/>
-    </row>
-    <row r="655" spans="1:28">
+      <c r="AC654" s="2"/>
+    </row>
+    <row r="655" spans="1:29">
       <c r="A655" s="2" t="s">
         <v>28</v>
       </c>
@@ -48879,8 +49534,9 @@
       <c r="Z655" s="2"/>
       <c r="AA655" s="2"/>
       <c r="AB655" s="2"/>
-    </row>
-    <row r="656" spans="1:28">
+      <c r="AC655" s="2"/>
+    </row>
+    <row r="656" spans="1:29">
       <c r="A656" s="2" t="s">
         <v>28</v>
       </c>
@@ -48945,8 +49601,9 @@
       <c r="Z656" s="2"/>
       <c r="AA656" s="2"/>
       <c r="AB656" s="2"/>
-    </row>
-    <row r="657" spans="1:28">
+      <c r="AC656" s="2"/>
+    </row>
+    <row r="657" spans="1:29">
       <c r="A657" s="2" t="s">
         <v>28</v>
       </c>
@@ -49011,8 +49668,9 @@
       <c r="Z657" s="2"/>
       <c r="AA657" s="2"/>
       <c r="AB657" s="2"/>
-    </row>
-    <row r="658" spans="1:28">
+      <c r="AC657" s="2"/>
+    </row>
+    <row r="658" spans="1:29">
       <c r="A658" s="2" t="s">
         <v>28</v>
       </c>
@@ -49077,8 +49735,9 @@
       <c r="Z658" s="2"/>
       <c r="AA658" s="2"/>
       <c r="AB658" s="2"/>
-    </row>
-    <row r="659" spans="1:28">
+      <c r="AC658" s="2"/>
+    </row>
+    <row r="659" spans="1:29">
       <c r="A659" s="2" t="s">
         <v>28</v>
       </c>
@@ -49143,8 +49802,9 @@
       <c r="Z659" s="2"/>
       <c r="AA659" s="2"/>
       <c r="AB659" s="2"/>
-    </row>
-    <row r="660" spans="1:28">
+      <c r="AC659" s="2"/>
+    </row>
+    <row r="660" spans="1:29">
       <c r="A660" s="2" t="s">
         <v>28</v>
       </c>
@@ -49209,8 +49869,9 @@
       <c r="Z660" s="2"/>
       <c r="AA660" s="2"/>
       <c r="AB660" s="2"/>
-    </row>
-    <row r="661" spans="1:28">
+      <c r="AC660" s="2"/>
+    </row>
+    <row r="661" spans="1:29">
       <c r="A661" s="2" t="s">
         <v>28</v>
       </c>
@@ -49275,8 +49936,9 @@
       <c r="Z661" s="2"/>
       <c r="AA661" s="2"/>
       <c r="AB661" s="2"/>
-    </row>
-    <row r="662" spans="1:28">
+      <c r="AC661" s="2"/>
+    </row>
+    <row r="662" spans="1:29">
       <c r="A662" s="2" t="s">
         <v>28</v>
       </c>
@@ -49341,8 +50003,9 @@
       <c r="Z662" s="2"/>
       <c r="AA662" s="2"/>
       <c r="AB662" s="2"/>
-    </row>
-    <row r="663" spans="1:28">
+      <c r="AC662" s="2"/>
+    </row>
+    <row r="663" spans="1:29">
       <c r="A663" s="2" t="s">
         <v>28</v>
       </c>
@@ -49407,8 +50070,9 @@
       <c r="Z663" s="2"/>
       <c r="AA663" s="2"/>
       <c r="AB663" s="2"/>
-    </row>
-    <row r="664" spans="1:28">
+      <c r="AC663" s="2"/>
+    </row>
+    <row r="664" spans="1:29">
       <c r="A664" s="2" t="s">
         <v>28</v>
       </c>
@@ -49473,8 +50137,9 @@
       <c r="Z664" s="2"/>
       <c r="AA664" s="2"/>
       <c r="AB664" s="2"/>
-    </row>
-    <row r="665" spans="1:28">
+      <c r="AC664" s="2"/>
+    </row>
+    <row r="665" spans="1:29">
       <c r="A665" s="2" t="s">
         <v>28</v>
       </c>
@@ -49539,8 +50204,9 @@
       <c r="Z665" s="2"/>
       <c r="AA665" s="2"/>
       <c r="AB665" s="2"/>
-    </row>
-    <row r="666" spans="1:28">
+      <c r="AC665" s="2"/>
+    </row>
+    <row r="666" spans="1:29">
       <c r="A666" s="2" t="s">
         <v>28</v>
       </c>
@@ -49605,8 +50271,9 @@
       <c r="Z666" s="2"/>
       <c r="AA666" s="2"/>
       <c r="AB666" s="2"/>
-    </row>
-    <row r="667" spans="1:28">
+      <c r="AC666" s="2"/>
+    </row>
+    <row r="667" spans="1:29">
       <c r="A667" s="2" t="s">
         <v>28</v>
       </c>
@@ -49671,8 +50338,9 @@
       <c r="Z667" s="2"/>
       <c r="AA667" s="2"/>
       <c r="AB667" s="2"/>
-    </row>
-    <row r="668" spans="1:28">
+      <c r="AC667" s="2"/>
+    </row>
+    <row r="668" spans="1:29">
       <c r="A668" s="2" t="s">
         <v>28</v>
       </c>
@@ -49737,8 +50405,9 @@
       <c r="Z668" s="2"/>
       <c r="AA668" s="2"/>
       <c r="AB668" s="2"/>
-    </row>
-    <row r="669" spans="1:28">
+      <c r="AC668" s="2"/>
+    </row>
+    <row r="669" spans="1:29">
       <c r="A669" s="2" t="s">
         <v>28</v>
       </c>
@@ -49803,8 +50472,9 @@
       <c r="Z669" s="2"/>
       <c r="AA669" s="2"/>
       <c r="AB669" s="2"/>
-    </row>
-    <row r="670" spans="1:28">
+      <c r="AC669" s="2"/>
+    </row>
+    <row r="670" spans="1:29">
       <c r="A670" s="2" t="s">
         <v>28</v>
       </c>
@@ -49869,8 +50539,9 @@
       <c r="Z670" s="2"/>
       <c r="AA670" s="2"/>
       <c r="AB670" s="2"/>
-    </row>
-    <row r="671" spans="1:28">
+      <c r="AC670" s="2"/>
+    </row>
+    <row r="671" spans="1:29">
       <c r="A671" s="2" t="s">
         <v>28</v>
       </c>
@@ -49935,8 +50606,9 @@
       <c r="Z671" s="2"/>
       <c r="AA671" s="2"/>
       <c r="AB671" s="2"/>
-    </row>
-    <row r="672" spans="1:28">
+      <c r="AC671" s="2"/>
+    </row>
+    <row r="672" spans="1:29">
       <c r="A672" s="2" t="s">
         <v>28</v>
       </c>
@@ -50001,8 +50673,9 @@
       <c r="Z672" s="2"/>
       <c r="AA672" s="2"/>
       <c r="AB672" s="2"/>
-    </row>
-    <row r="673" spans="1:28">
+      <c r="AC672" s="2"/>
+    </row>
+    <row r="673" spans="1:29">
       <c r="A673" s="2" t="s">
         <v>28</v>
       </c>
@@ -50067,8 +50740,9 @@
       <c r="Z673" s="2"/>
       <c r="AA673" s="2"/>
       <c r="AB673" s="2"/>
-    </row>
-    <row r="674" spans="1:28">
+      <c r="AC673" s="2"/>
+    </row>
+    <row r="674" spans="1:29">
       <c r="A674" s="2" t="s">
         <v>28</v>
       </c>
@@ -50133,8 +50807,9 @@
       <c r="Z674" s="2"/>
       <c r="AA674" s="2"/>
       <c r="AB674" s="2"/>
-    </row>
-    <row r="675" spans="1:28">
+      <c r="AC674" s="2"/>
+    </row>
+    <row r="675" spans="1:29">
       <c r="A675" s="2" t="s">
         <v>28</v>
       </c>
@@ -50199,8 +50874,9 @@
       <c r="Z675" s="2"/>
       <c r="AA675" s="2"/>
       <c r="AB675" s="2"/>
-    </row>
-    <row r="676" spans="1:28">
+      <c r="AC675" s="2"/>
+    </row>
+    <row r="676" spans="1:29">
       <c r="A676" s="2" t="s">
         <v>28</v>
       </c>
@@ -50265,8 +50941,9 @@
       <c r="Z676" s="2"/>
       <c r="AA676" s="2"/>
       <c r="AB676" s="2"/>
-    </row>
-    <row r="677" spans="1:28">
+      <c r="AC676" s="2"/>
+    </row>
+    <row r="677" spans="1:29">
       <c r="A677" s="2" t="s">
         <v>28</v>
       </c>
@@ -50331,8 +51008,9 @@
       <c r="Z677" s="2"/>
       <c r="AA677" s="2"/>
       <c r="AB677" s="2"/>
-    </row>
-    <row r="678" spans="1:28">
+      <c r="AC677" s="2"/>
+    </row>
+    <row r="678" spans="1:29">
       <c r="A678" s="2" t="s">
         <v>28</v>
       </c>
@@ -50397,8 +51075,9 @@
       <c r="Z678" s="2"/>
       <c r="AA678" s="2"/>
       <c r="AB678" s="2"/>
-    </row>
-    <row r="679" spans="1:28">
+      <c r="AC678" s="2"/>
+    </row>
+    <row r="679" spans="1:29">
       <c r="A679" s="2" t="s">
         <v>28</v>
       </c>
@@ -50463,8 +51142,9 @@
       <c r="Z679" s="2"/>
       <c r="AA679" s="2"/>
       <c r="AB679" s="2"/>
-    </row>
-    <row r="680" spans="1:28">
+      <c r="AC679" s="2"/>
+    </row>
+    <row r="680" spans="1:29">
       <c r="A680" s="2" t="s">
         <v>28</v>
       </c>
@@ -50529,8 +51209,9 @@
       <c r="Z680" s="2"/>
       <c r="AA680" s="2"/>
       <c r="AB680" s="2"/>
-    </row>
-    <row r="681" spans="1:28">
+      <c r="AC680" s="2"/>
+    </row>
+    <row r="681" spans="1:29">
       <c r="A681" s="2" t="s">
         <v>28</v>
       </c>
@@ -50595,8 +51276,9 @@
       <c r="Z681" s="2"/>
       <c r="AA681" s="2"/>
       <c r="AB681" s="2"/>
-    </row>
-    <row r="682" spans="1:28">
+      <c r="AC681" s="2"/>
+    </row>
+    <row r="682" spans="1:29">
       <c r="A682" s="2" t="s">
         <v>28</v>
       </c>
@@ -50661,8 +51343,9 @@
       <c r="Z682" s="2"/>
       <c r="AA682" s="2"/>
       <c r="AB682" s="2"/>
-    </row>
-    <row r="683" spans="1:28">
+      <c r="AC682" s="2"/>
+    </row>
+    <row r="683" spans="1:29">
       <c r="A683" s="2" t="s">
         <v>28</v>
       </c>
@@ -50727,8 +51410,9 @@
       <c r="Z683" s="2"/>
       <c r="AA683" s="2"/>
       <c r="AB683" s="2"/>
-    </row>
-    <row r="684" spans="1:28">
+      <c r="AC683" s="2"/>
+    </row>
+    <row r="684" spans="1:29">
       <c r="A684" s="2" t="s">
         <v>28</v>
       </c>
@@ -50793,8 +51477,9 @@
       <c r="Z684" s="2"/>
       <c r="AA684" s="2"/>
       <c r="AB684" s="2"/>
-    </row>
-    <row r="685" spans="1:28">
+      <c r="AC684" s="2"/>
+    </row>
+    <row r="685" spans="1:29">
       <c r="A685" s="2" t="s">
         <v>28</v>
       </c>
@@ -50859,8 +51544,9 @@
       <c r="Z685" s="2"/>
       <c r="AA685" s="2"/>
       <c r="AB685" s="2"/>
-    </row>
-    <row r="686" spans="1:28">
+      <c r="AC685" s="2"/>
+    </row>
+    <row r="686" spans="1:29">
       <c r="A686" s="2" t="s">
         <v>28</v>
       </c>
@@ -50925,8 +51611,9 @@
       <c r="Z686" s="2"/>
       <c r="AA686" s="2"/>
       <c r="AB686" s="2"/>
-    </row>
-    <row r="687" spans="1:28">
+      <c r="AC686" s="2"/>
+    </row>
+    <row r="687" spans="1:29">
       <c r="A687" s="2" t="s">
         <v>28</v>
       </c>
@@ -50991,8 +51678,9 @@
       <c r="Z687" s="2"/>
       <c r="AA687" s="2"/>
       <c r="AB687" s="2"/>
-    </row>
-    <row r="688" spans="1:28">
+      <c r="AC687" s="2"/>
+    </row>
+    <row r="688" spans="1:29">
       <c r="A688" s="2" t="s">
         <v>28</v>
       </c>
@@ -51057,8 +51745,9 @@
       <c r="Z688" s="2"/>
       <c r="AA688" s="2"/>
       <c r="AB688" s="2"/>
-    </row>
-    <row r="689" spans="1:28">
+      <c r="AC688" s="2"/>
+    </row>
+    <row r="689" spans="1:29">
       <c r="A689" s="2" t="s">
         <v>28</v>
       </c>
@@ -51123,8 +51812,9 @@
       <c r="Z689" s="2"/>
       <c r="AA689" s="2"/>
       <c r="AB689" s="2"/>
-    </row>
-    <row r="690" spans="1:28">
+      <c r="AC689" s="2"/>
+    </row>
+    <row r="690" spans="1:29">
       <c r="A690" s="2" t="s">
         <v>28</v>
       </c>
@@ -51189,8 +51879,9 @@
       <c r="Z690" s="2"/>
       <c r="AA690" s="2"/>
       <c r="AB690" s="2"/>
-    </row>
-    <row r="691" spans="1:28">
+      <c r="AC690" s="2"/>
+    </row>
+    <row r="691" spans="1:29">
       <c r="A691" s="2" t="s">
         <v>28</v>
       </c>
@@ -51255,8 +51946,9 @@
       <c r="Z691" s="2"/>
       <c r="AA691" s="2"/>
       <c r="AB691" s="2"/>
-    </row>
-    <row r="692" spans="1:28">
+      <c r="AC691" s="2"/>
+    </row>
+    <row r="692" spans="1:29">
       <c r="A692" s="2" t="s">
         <v>28</v>
       </c>
@@ -51321,8 +52013,9 @@
       <c r="Z692" s="2"/>
       <c r="AA692" s="2"/>
       <c r="AB692" s="2"/>
-    </row>
-    <row r="693" spans="1:28">
+      <c r="AC692" s="2"/>
+    </row>
+    <row r="693" spans="1:29">
       <c r="A693" s="2" t="s">
         <v>28</v>
       </c>
@@ -51387,8 +52080,9 @@
       <c r="Z693" s="2"/>
       <c r="AA693" s="2"/>
       <c r="AB693" s="2"/>
-    </row>
-    <row r="694" spans="1:28">
+      <c r="AC693" s="2"/>
+    </row>
+    <row r="694" spans="1:29">
       <c r="A694" s="2" t="s">
         <v>28</v>
       </c>
@@ -51453,8 +52147,9 @@
       <c r="Z694" s="2"/>
       <c r="AA694" s="2"/>
       <c r="AB694" s="2"/>
-    </row>
-    <row r="695" spans="1:28">
+      <c r="AC694" s="2"/>
+    </row>
+    <row r="695" spans="1:29">
       <c r="A695" s="2" t="s">
         <v>28</v>
       </c>
@@ -51519,8 +52214,9 @@
       <c r="Z695" s="2"/>
       <c r="AA695" s="2"/>
       <c r="AB695" s="2"/>
-    </row>
-    <row r="696" spans="1:28">
+      <c r="AC695" s="2"/>
+    </row>
+    <row r="696" spans="1:29">
       <c r="A696" s="2" t="s">
         <v>28</v>
       </c>
@@ -51585,8 +52281,9 @@
       <c r="Z696" s="2"/>
       <c r="AA696" s="2"/>
       <c r="AB696" s="2"/>
-    </row>
-    <row r="697" spans="1:28">
+      <c r="AC696" s="2"/>
+    </row>
+    <row r="697" spans="1:29">
       <c r="A697" s="2" t="s">
         <v>28</v>
       </c>
@@ -51651,8 +52348,9 @@
       <c r="Z697" s="2"/>
       <c r="AA697" s="2"/>
       <c r="AB697" s="2"/>
-    </row>
-    <row r="698" spans="1:28">
+      <c r="AC697" s="2"/>
+    </row>
+    <row r="698" spans="1:29">
       <c r="A698" s="2" t="s">
         <v>28</v>
       </c>
@@ -51717,8 +52415,9 @@
       <c r="Z698" s="2"/>
       <c r="AA698" s="2"/>
       <c r="AB698" s="2"/>
-    </row>
-    <row r="699" spans="1:28">
+      <c r="AC698" s="2"/>
+    </row>
+    <row r="699" spans="1:29">
       <c r="A699" s="2" t="s">
         <v>28</v>
       </c>
@@ -51785,8 +52484,9 @@
         <v>626</v>
       </c>
       <c r="AB699" s="2"/>
-    </row>
-    <row r="700" spans="1:28">
+      <c r="AC699" s="2"/>
+    </row>
+    <row r="700" spans="1:29">
       <c r="A700" s="2" t="s">
         <v>28</v>
       </c>
@@ -51851,8 +52551,9 @@
       <c r="Z700" s="2"/>
       <c r="AA700" s="2"/>
       <c r="AB700" s="2"/>
-    </row>
-    <row r="701" spans="1:28">
+      <c r="AC700" s="2"/>
+    </row>
+    <row r="701" spans="1:29">
       <c r="A701" s="2" t="s">
         <v>28</v>
       </c>
@@ -51917,8 +52618,9 @@
       <c r="Z701" s="2"/>
       <c r="AA701" s="2"/>
       <c r="AB701" s="2"/>
-    </row>
-    <row r="702" spans="1:28">
+      <c r="AC701" s="2"/>
+    </row>
+    <row r="702" spans="1:29">
       <c r="A702" s="2" t="s">
         <v>28</v>
       </c>
@@ -51983,8 +52685,9 @@
       <c r="Z702" s="2"/>
       <c r="AA702" s="2"/>
       <c r="AB702" s="2"/>
-    </row>
-    <row r="703" spans="1:28">
+      <c r="AC702" s="2"/>
+    </row>
+    <row r="703" spans="1:29">
       <c r="A703" s="2" t="s">
         <v>28</v>
       </c>
@@ -52049,8 +52752,9 @@
       <c r="Z703" s="2"/>
       <c r="AA703" s="2"/>
       <c r="AB703" s="2"/>
-    </row>
-    <row r="704" spans="1:28">
+      <c r="AC703" s="2"/>
+    </row>
+    <row r="704" spans="1:29">
       <c r="A704" s="2" t="s">
         <v>28</v>
       </c>
@@ -52115,8 +52819,9 @@
       <c r="Z704" s="2"/>
       <c r="AA704" s="2"/>
       <c r="AB704" s="2"/>
-    </row>
-    <row r="705" spans="1:28">
+      <c r="AC704" s="2"/>
+    </row>
+    <row r="705" spans="1:29">
       <c r="A705" s="2" t="s">
         <v>28</v>
       </c>
@@ -52181,8 +52886,9 @@
       <c r="Z705" s="2"/>
       <c r="AA705" s="2"/>
       <c r="AB705" s="2"/>
-    </row>
-    <row r="706" spans="1:28">
+      <c r="AC705" s="2"/>
+    </row>
+    <row r="706" spans="1:29">
       <c r="A706" s="2" t="s">
         <v>28</v>
       </c>
@@ -52247,8 +52953,9 @@
       <c r="Z706" s="2"/>
       <c r="AA706" s="2"/>
       <c r="AB706" s="2"/>
-    </row>
-    <row r="707" spans="1:28">
+      <c r="AC706" s="2"/>
+    </row>
+    <row r="707" spans="1:29">
       <c r="A707" s="2" t="s">
         <v>28</v>
       </c>
@@ -52313,8 +53020,9 @@
       <c r="Z707" s="2"/>
       <c r="AA707" s="2"/>
       <c r="AB707" s="2"/>
-    </row>
-    <row r="708" spans="1:28">
+      <c r="AC707" s="2"/>
+    </row>
+    <row r="708" spans="1:29">
       <c r="A708" s="2" t="s">
         <v>28</v>
       </c>
@@ -52379,8 +53087,9 @@
       <c r="Z708" s="2"/>
       <c r="AA708" s="2"/>
       <c r="AB708" s="2"/>
-    </row>
-    <row r="709" spans="1:28">
+      <c r="AC708" s="2"/>
+    </row>
+    <row r="709" spans="1:29">
       <c r="A709" s="2" t="s">
         <v>28</v>
       </c>
@@ -52445,8 +53154,9 @@
       <c r="Z709" s="2"/>
       <c r="AA709" s="2"/>
       <c r="AB709" s="2"/>
-    </row>
-    <row r="710" spans="1:28">
+      <c r="AC709" s="2"/>
+    </row>
+    <row r="710" spans="1:29">
       <c r="A710" s="2" t="s">
         <v>28</v>
       </c>
@@ -52511,8 +53221,9 @@
       <c r="Z710" s="2"/>
       <c r="AA710" s="2"/>
       <c r="AB710" s="2"/>
-    </row>
-    <row r="711" spans="1:28">
+      <c r="AC710" s="2"/>
+    </row>
+    <row r="711" spans="1:29">
       <c r="A711" s="2" t="s">
         <v>28</v>
       </c>
@@ -52577,8 +53288,9 @@
       <c r="Z711" s="2"/>
       <c r="AA711" s="2"/>
       <c r="AB711" s="2"/>
-    </row>
-    <row r="712" spans="1:28">
+      <c r="AC711" s="2"/>
+    </row>
+    <row r="712" spans="1:29">
       <c r="A712" s="2" t="s">
         <v>28</v>
       </c>
@@ -52643,8 +53355,9 @@
       <c r="Z712" s="2"/>
       <c r="AA712" s="2"/>
       <c r="AB712" s="2"/>
-    </row>
-    <row r="713" spans="1:28">
+      <c r="AC712" s="2"/>
+    </row>
+    <row r="713" spans="1:29">
       <c r="A713" s="2" t="s">
         <v>28</v>
       </c>
@@ -52709,8 +53422,9 @@
       <c r="Z713" s="2"/>
       <c r="AA713" s="2"/>
       <c r="AB713" s="2"/>
-    </row>
-    <row r="714" spans="1:28">
+      <c r="AC713" s="2"/>
+    </row>
+    <row r="714" spans="1:29">
       <c r="A714" s="2" t="s">
         <v>28</v>
       </c>
@@ -52775,8 +53489,9 @@
       <c r="Z714" s="2"/>
       <c r="AA714" s="2"/>
       <c r="AB714" s="2"/>
-    </row>
-    <row r="715" spans="1:28">
+      <c r="AC714" s="2"/>
+    </row>
+    <row r="715" spans="1:29">
       <c r="A715" s="2" t="s">
         <v>28</v>
       </c>
@@ -52841,8 +53556,9 @@
       <c r="Z715" s="2"/>
       <c r="AA715" s="2"/>
       <c r="AB715" s="2"/>
-    </row>
-    <row r="716" spans="1:28">
+      <c r="AC715" s="2"/>
+    </row>
+    <row r="716" spans="1:29">
       <c r="A716" s="2" t="s">
         <v>28</v>
       </c>
@@ -52907,8 +53623,9 @@
       <c r="Z716" s="2"/>
       <c r="AA716" s="2"/>
       <c r="AB716" s="2"/>
-    </row>
-    <row r="717" spans="1:28">
+      <c r="AC716" s="2"/>
+    </row>
+    <row r="717" spans="1:29">
       <c r="A717" s="2" t="s">
         <v>28</v>
       </c>
@@ -52973,8 +53690,9 @@
       <c r="Z717" s="2"/>
       <c r="AA717" s="2"/>
       <c r="AB717" s="2"/>
-    </row>
-    <row r="718" spans="1:28">
+      <c r="AC717" s="2"/>
+    </row>
+    <row r="718" spans="1:29">
       <c r="A718" s="2" t="s">
         <v>28</v>
       </c>
@@ -53039,8 +53757,9 @@
       <c r="Z718" s="2"/>
       <c r="AA718" s="2"/>
       <c r="AB718" s="2"/>
-    </row>
-    <row r="719" spans="1:28">
+      <c r="AC718" s="2"/>
+    </row>
+    <row r="719" spans="1:29">
       <c r="A719" s="2" t="s">
         <v>28</v>
       </c>
@@ -53105,8 +53824,9 @@
       <c r="Z719" s="2"/>
       <c r="AA719" s="2"/>
       <c r="AB719" s="2"/>
-    </row>
-    <row r="720" spans="1:28">
+      <c r="AC719" s="2"/>
+    </row>
+    <row r="720" spans="1:29">
       <c r="A720" s="2" t="s">
         <v>28</v>
       </c>
@@ -53171,8 +53891,9 @@
       <c r="Z720" s="2"/>
       <c r="AA720" s="2"/>
       <c r="AB720" s="2"/>
-    </row>
-    <row r="721" spans="1:28">
+      <c r="AC720" s="2"/>
+    </row>
+    <row r="721" spans="1:29">
       <c r="A721" s="2" t="s">
         <v>28</v>
       </c>
@@ -53237,8 +53958,9 @@
       <c r="Z721" s="2"/>
       <c r="AA721" s="2"/>
       <c r="AB721" s="2"/>
-    </row>
-    <row r="722" spans="1:28">
+      <c r="AC721" s="2"/>
+    </row>
+    <row r="722" spans="1:29">
       <c r="A722" s="2" t="s">
         <v>28</v>
       </c>
@@ -53303,8 +54025,9 @@
       <c r="Z722" s="2"/>
       <c r="AA722" s="2"/>
       <c r="AB722" s="2"/>
-    </row>
-    <row r="723" spans="1:28">
+      <c r="AC722" s="2"/>
+    </row>
+    <row r="723" spans="1:29">
       <c r="A723" s="2" t="s">
         <v>28</v>
       </c>
@@ -53369,8 +54092,9 @@
       <c r="Z723" s="2"/>
       <c r="AA723" s="2"/>
       <c r="AB723" s="2"/>
-    </row>
-    <row r="724" spans="1:28">
+      <c r="AC723" s="2"/>
+    </row>
+    <row r="724" spans="1:29">
       <c r="A724" s="2" t="s">
         <v>28</v>
       </c>
@@ -53435,8 +54159,9 @@
       <c r="Z724" s="2"/>
       <c r="AA724" s="2"/>
       <c r="AB724" s="2"/>
-    </row>
-    <row r="725" spans="1:28">
+      <c r="AC724" s="2"/>
+    </row>
+    <row r="725" spans="1:29">
       <c r="A725" s="2" t="s">
         <v>28</v>
       </c>
@@ -53501,8 +54226,9 @@
       <c r="Z725" s="2"/>
       <c r="AA725" s="2"/>
       <c r="AB725" s="2"/>
-    </row>
-    <row r="726" spans="1:28">
+      <c r="AC725" s="2"/>
+    </row>
+    <row r="726" spans="1:29">
       <c r="A726" s="2" t="s">
         <v>28</v>
       </c>
@@ -53567,8 +54293,9 @@
       <c r="Z726" s="2"/>
       <c r="AA726" s="2"/>
       <c r="AB726" s="2"/>
-    </row>
-    <row r="727" spans="1:28">
+      <c r="AC726" s="2"/>
+    </row>
+    <row r="727" spans="1:29">
       <c r="A727" s="2" t="s">
         <v>28</v>
       </c>
@@ -53633,8 +54360,9 @@
       <c r="Z727" s="2"/>
       <c r="AA727" s="2"/>
       <c r="AB727" s="2"/>
-    </row>
-    <row r="728" spans="1:28">
+      <c r="AC727" s="2"/>
+    </row>
+    <row r="728" spans="1:29">
       <c r="A728" s="2" t="s">
         <v>28</v>
       </c>
@@ -53699,8 +54427,9 @@
       <c r="Z728" s="2"/>
       <c r="AA728" s="2"/>
       <c r="AB728" s="2"/>
-    </row>
-    <row r="729" spans="1:28">
+      <c r="AC728" s="2"/>
+    </row>
+    <row r="729" spans="1:29">
       <c r="A729" s="2" t="s">
         <v>28</v>
       </c>
@@ -53765,8 +54494,9 @@
       <c r="Z729" s="2"/>
       <c r="AA729" s="2"/>
       <c r="AB729" s="2"/>
-    </row>
-    <row r="730" spans="1:28">
+      <c r="AC729" s="2"/>
+    </row>
+    <row r="730" spans="1:29">
       <c r="A730" s="2" t="s">
         <v>28</v>
       </c>
@@ -53831,8 +54561,9 @@
       <c r="Z730" s="2"/>
       <c r="AA730" s="2"/>
       <c r="AB730" s="2"/>
-    </row>
-    <row r="731" spans="1:28">
+      <c r="AC730" s="2"/>
+    </row>
+    <row r="731" spans="1:29">
       <c r="A731" s="2" t="s">
         <v>28</v>
       </c>
@@ -53897,8 +54628,9 @@
       <c r="Z731" s="2"/>
       <c r="AA731" s="2"/>
       <c r="AB731" s="2"/>
-    </row>
-    <row r="732" spans="1:28">
+      <c r="AC731" s="2"/>
+    </row>
+    <row r="732" spans="1:29">
       <c r="A732" s="2" t="s">
         <v>28</v>
       </c>
@@ -53963,8 +54695,9 @@
       <c r="Z732" s="2"/>
       <c r="AA732" s="2"/>
       <c r="AB732" s="2"/>
-    </row>
-    <row r="733" spans="1:28">
+      <c r="AC732" s="2"/>
+    </row>
+    <row r="733" spans="1:29">
       <c r="A733" s="2" t="s">
         <v>28</v>
       </c>
@@ -54029,8 +54762,9 @@
       <c r="Z733" s="2"/>
       <c r="AA733" s="2"/>
       <c r="AB733" s="2"/>
-    </row>
-    <row r="734" spans="1:28">
+      <c r="AC733" s="2"/>
+    </row>
+    <row r="734" spans="1:29">
       <c r="A734" s="2" t="s">
         <v>28</v>
       </c>
@@ -54095,8 +54829,9 @@
       <c r="Z734" s="2"/>
       <c r="AA734" s="2"/>
       <c r="AB734" s="2"/>
-    </row>
-    <row r="735" spans="1:28">
+      <c r="AC734" s="2"/>
+    </row>
+    <row r="735" spans="1:29">
       <c r="A735" s="2" t="s">
         <v>28</v>
       </c>
@@ -54161,8 +54896,9 @@
       <c r="Z735" s="2"/>
       <c r="AA735" s="2"/>
       <c r="AB735" s="2"/>
-    </row>
-    <row r="736" spans="1:28">
+      <c r="AC735" s="2"/>
+    </row>
+    <row r="736" spans="1:29">
       <c r="A736" s="2" t="s">
         <v>28</v>
       </c>
@@ -54227,8 +54963,9 @@
       <c r="Z736" s="2"/>
       <c r="AA736" s="2"/>
       <c r="AB736" s="2"/>
-    </row>
-    <row r="737" spans="1:28">
+      <c r="AC736" s="2"/>
+    </row>
+    <row r="737" spans="1:29">
       <c r="A737" s="2" t="s">
         <v>28</v>
       </c>
@@ -54293,8 +55030,9 @@
       <c r="Z737" s="2"/>
       <c r="AA737" s="2"/>
       <c r="AB737" s="2"/>
-    </row>
-    <row r="738" spans="1:28">
+      <c r="AC737" s="2"/>
+    </row>
+    <row r="738" spans="1:29">
       <c r="A738" s="2" t="s">
         <v>28</v>
       </c>
@@ -54359,8 +55097,9 @@
       <c r="Z738" s="2"/>
       <c r="AA738" s="2"/>
       <c r="AB738" s="2"/>
-    </row>
-    <row r="739" spans="1:28">
+      <c r="AC738" s="2"/>
+    </row>
+    <row r="739" spans="1:29">
       <c r="A739" s="2" t="s">
         <v>28</v>
       </c>
@@ -54425,8 +55164,9 @@
       <c r="Z739" s="2"/>
       <c r="AA739" s="2"/>
       <c r="AB739" s="2"/>
-    </row>
-    <row r="740" spans="1:28">
+      <c r="AC739" s="2"/>
+    </row>
+    <row r="740" spans="1:29">
       <c r="A740" s="2" t="s">
         <v>28</v>
       </c>
@@ -54491,8 +55231,9 @@
       <c r="Z740" s="2"/>
       <c r="AA740" s="2"/>
       <c r="AB740" s="2"/>
-    </row>
-    <row r="741" spans="1:28">
+      <c r="AC740" s="2"/>
+    </row>
+    <row r="741" spans="1:29">
       <c r="A741" s="2" t="s">
         <v>28</v>
       </c>
@@ -54567,6 +55308,7 @@
       <c r="AB741" s="2" t="s">
         <v>1143</v>
       </c>
+      <c r="AC741" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
